--- a/1_Schematic/Build V1.0/RF Generator Review Data_20191104.xlsx
+++ b/1_Schematic/Build V1.0/RF Generator Review Data_20191104.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7990DC66-A8DE-4B01-BF4E-77E5D7BF27DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7C78A7-9DCC-4222-A920-F35CE6EC7CD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADC" sheetId="4" r:id="rId1"/>
-    <sheet name="TEMP_Sensor" sheetId="5" r:id="rId2"/>
+    <sheet name="FET TEMP" sheetId="5" r:id="rId2"/>
     <sheet name="Operation MODE" sheetId="6" r:id="rId3"/>
     <sheet name="FW Function" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
@@ -19,6 +19,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="230">
   <si>
     <t>VIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,10 +143,6 @@
   </si>
   <si>
     <t>R86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLT PCB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -484,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POWER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MCU PCB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,22 +518,6 @@
   </si>
   <si>
     <t>RH_TEMP_AD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1012,6 +989,38 @@
   </si>
   <si>
     <t>R45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUPLER PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,8 +1030,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="0.0&quot;%&quot;"/>
-    <numFmt numFmtId="179" formatCode="0.0&quot;V&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.0&quot;%&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.0&quot;V&quot;"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1990,7 +1999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2003,10 +2012,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2019,10 +2024,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2132,16 +2133,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2285,341 +2276,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2640,6 +2298,350 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2662,6 +2664,994 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TEMP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'FET TEMP'!$D$16:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FET TEMP'!$N$16:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>433.22835208327149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>526.8988861838983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>632.51301887931538</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>749.51892942776112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>876.86332190561052</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1013.0173095252007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1156.05061437872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1303.7472065346885</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1453.747928742534</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1603.7010810171505</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1751.4015828365207</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1894.9030212479729</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2032.5932443325946</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2163.2312147487601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2285.9488351967607</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400.2253469920211</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2505.8434671019181</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2602.8360799560714</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2691.4307446411826</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2771.9972213342635</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2845.0011948439546</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2910.9656864156022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2970.4404135996251</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3023.9785690914341</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3072.120063673005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3115.3801160449448</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3154.2420806067917</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3189.1535091921232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3004-4634-9C34-79DC09E6C663}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="582145240"/>
+        <c:axId val="582151472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="582145240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582151472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="582151472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582145240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2708,6 +3698,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>385482</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>251011</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CA2094-6349-4FC9-9C2E-379947A73744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3036,8 +4062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C050669B-C29A-4E1F-A278-B86E63B41E45}">
   <dimension ref="B3:T140"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O127" sqref="O127"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N123" sqref="N123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3081,43 +4107,43 @@
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="F9" s="42" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="69">
+      <c r="D10" s="65">
         <v>48</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="28">
         <v>40</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="15">
         <v>56</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="2"/>
@@ -3126,63 +4152,63 @@
     <row r="12" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="189" t="s">
+      <c r="D12" s="173" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="174"/>
+      <c r="F12" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="216"/>
-      <c r="F12" s="189" t="s">
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="190"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="53" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="D13" s="126" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="75">
+      <c r="D13" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="71">
         <v>24</v>
       </c>
-      <c r="F13" s="126" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="75">
+      <c r="F13" s="118" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="71">
         <v>4.7</v>
       </c>
-      <c r="H13" s="126" t="s">
+      <c r="H13" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="119">
+        <v>2.7</v>
+      </c>
+      <c r="J13" s="155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D14" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="121">
+        <v>4.99</v>
+      </c>
+      <c r="F14" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="127">
-        <v>2.7</v>
-      </c>
-      <c r="J13" s="274" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="128" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="129">
-        <v>4.99</v>
-      </c>
-      <c r="F14" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="129">
+      <c r="G14" s="121">
         <v>4.7</v>
       </c>
-      <c r="H14" s="128" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="130">
+      <c r="H14" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="122">
         <v>3</v>
       </c>
-      <c r="J14" s="275" t="s">
+      <c r="J14" s="156" t="s">
         <v>14</v>
       </c>
       <c r="P14" t="s">
@@ -3204,21 +4230,21 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="F15" s="177" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="178"/>
+      <c r="H15" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="240" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="241"/>
-      <c r="H15" s="240" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="242"/>
-      <c r="J15" s="66" t="s">
+      <c r="I15" s="179"/>
+      <c r="J15" s="62" t="s">
         <v>13</v>
       </c>
       <c r="P15" t="s">
@@ -3238,24 +4264,24 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>0</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="16">
         <f t="shared" ref="E16:E33" si="0">$D16*E$14/(E$13+E$14)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="183">
+      <c r="F16" s="182">
         <f t="shared" ref="F16:F28" si="1">E16*G$14/(G$13+G$14)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="185"/>
-      <c r="H16" s="183">
+      <c r="G16" s="183"/>
+      <c r="H16" s="182">
         <f t="shared" ref="H16:H28" si="2">F16*I$14/(I$13+I$14)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="185"/>
-      <c r="J16" s="21">
+      <c r="I16" s="183"/>
+      <c r="J16" s="17">
         <f>H16*4095/3.3</f>
         <v>0</v>
       </c>
@@ -3276,24 +4302,24 @@
       </c>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>4</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="18">
         <f t="shared" si="0"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="F17" s="168">
+      <c r="F17" s="180">
         <f t="shared" si="1"/>
         <v>0.3442566402207658</v>
       </c>
-      <c r="G17" s="170"/>
-      <c r="H17" s="168">
+      <c r="G17" s="181"/>
+      <c r="H17" s="180">
         <f t="shared" si="2"/>
         <v>0.18118770537935042</v>
       </c>
-      <c r="I17" s="170"/>
-      <c r="J17" s="23">
+      <c r="I17" s="181"/>
+      <c r="J17" s="19">
         <f t="shared" ref="J17:J30" si="3">H17*4095/3.3</f>
         <v>224.83747076619395</v>
       </c>
@@ -3317,24 +4343,24 @@
       </c>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>8</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="18">
         <f t="shared" si="0"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="F18" s="168">
+      <c r="F18" s="180">
         <f t="shared" si="1"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="G18" s="170"/>
-      <c r="H18" s="168">
+      <c r="G18" s="181"/>
+      <c r="H18" s="180">
         <f t="shared" si="2"/>
         <v>0.36237541075870083</v>
       </c>
-      <c r="I18" s="170"/>
-      <c r="J18" s="23">
+      <c r="I18" s="181"/>
+      <c r="J18" s="19">
         <f t="shared" si="3"/>
         <v>449.67494153238789</v>
       </c>
@@ -3358,24 +4384,24 @@
       </c>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <v>12</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="18">
         <f t="shared" si="0"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="F19" s="168">
+      <c r="F19" s="180">
         <f t="shared" si="1"/>
         <v>1.0327699206622973</v>
       </c>
-      <c r="G19" s="170"/>
-      <c r="H19" s="168">
+      <c r="G19" s="181"/>
+      <c r="H19" s="180">
         <f t="shared" si="2"/>
         <v>0.54356311613805119</v>
       </c>
-      <c r="I19" s="170"/>
-      <c r="J19" s="23">
+      <c r="I19" s="181"/>
+      <c r="J19" s="19">
         <f t="shared" si="3"/>
         <v>674.51241229858169</v>
       </c>
@@ -3399,335 +4425,335 @@
       </c>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>16</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="18">
         <f t="shared" si="0"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="F20" s="168">
+      <c r="F20" s="180">
         <f t="shared" si="1"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="G20" s="170"/>
-      <c r="H20" s="168">
+      <c r="G20" s="181"/>
+      <c r="H20" s="180">
         <f t="shared" si="2"/>
         <v>0.72475082151740167</v>
       </c>
-      <c r="I20" s="170"/>
-      <c r="J20" s="23">
+      <c r="I20" s="181"/>
+      <c r="J20" s="19">
         <f t="shared" si="3"/>
         <v>899.34988306477578</v>
       </c>
     </row>
     <row r="21" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>20</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="18">
         <f t="shared" si="0"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="F21" s="168">
+      <c r="F21" s="180">
         <f t="shared" si="1"/>
         <v>1.721283201103829</v>
       </c>
-      <c r="G21" s="170"/>
-      <c r="H21" s="168">
+      <c r="G21" s="181"/>
+      <c r="H21" s="180">
         <f t="shared" si="2"/>
         <v>0.90593852689675203</v>
       </c>
-      <c r="I21" s="170"/>
-      <c r="J21" s="23">
+      <c r="I21" s="181"/>
+      <c r="J21" s="19">
         <f t="shared" si="3"/>
         <v>1124.1873538309696</v>
       </c>
     </row>
     <row r="22" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <v>24</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="18">
         <f t="shared" si="0"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="F22" s="168">
+      <c r="F22" s="180">
         <f t="shared" si="1"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="G22" s="170"/>
-      <c r="H22" s="168">
+      <c r="G22" s="181"/>
+      <c r="H22" s="180">
         <f t="shared" si="2"/>
         <v>1.0871262322761024</v>
       </c>
-      <c r="I22" s="170"/>
-      <c r="J22" s="23">
+      <c r="I22" s="181"/>
+      <c r="J22" s="19">
         <f t="shared" si="3"/>
         <v>1349.0248245971634</v>
       </c>
     </row>
     <row r="23" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <v>28</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="18">
         <f t="shared" si="0"/>
         <v>4.8195929630907202</v>
       </c>
-      <c r="F23" s="168">
+      <c r="F23" s="180">
         <f t="shared" si="1"/>
         <v>2.4097964815453601</v>
       </c>
-      <c r="G23" s="170"/>
-      <c r="H23" s="168">
+      <c r="G23" s="181"/>
+      <c r="H23" s="180">
         <f t="shared" si="2"/>
         <v>1.2683139376554526</v>
       </c>
-      <c r="I23" s="170"/>
-      <c r="J23" s="23">
+      <c r="I23" s="181"/>
+      <c r="J23" s="19">
         <f t="shared" si="3"/>
         <v>1573.8622953633571</v>
       </c>
     </row>
     <row r="24" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D24" s="15">
+      <c r="D24" s="13">
         <v>32</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="18">
         <f t="shared" si="0"/>
         <v>5.5081062435322528</v>
       </c>
-      <c r="F24" s="168">
+      <c r="F24" s="180">
         <f t="shared" si="1"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="G24" s="170"/>
-      <c r="H24" s="168">
+      <c r="G24" s="181"/>
+      <c r="H24" s="180">
         <f t="shared" si="2"/>
         <v>1.4495016430348033</v>
       </c>
-      <c r="I24" s="170"/>
-      <c r="J24" s="23">
+      <c r="I24" s="181"/>
+      <c r="J24" s="19">
         <f t="shared" si="3"/>
         <v>1798.6997661295516</v>
       </c>
     </row>
     <row r="25" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D25" s="15">
+      <c r="D25" s="13">
         <v>36</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="18">
         <f t="shared" si="0"/>
         <v>6.1966195239737845</v>
       </c>
-      <c r="F25" s="168">
+      <c r="F25" s="180">
         <f t="shared" si="1"/>
         <v>3.0983097619868922</v>
       </c>
-      <c r="G25" s="170"/>
-      <c r="H25" s="168">
+      <c r="G25" s="181"/>
+      <c r="H25" s="180">
         <f t="shared" si="2"/>
         <v>1.6306893484141538</v>
       </c>
-      <c r="I25" s="170"/>
-      <c r="J25" s="23">
+      <c r="I25" s="181"/>
+      <c r="J25" s="19">
         <f t="shared" si="3"/>
         <v>2023.5372368957455</v>
       </c>
     </row>
     <row r="26" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D26" s="26">
+      <c r="D26" s="22">
         <v>40</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="21">
         <f t="shared" si="0"/>
         <v>6.8851328044153162</v>
       </c>
-      <c r="F26" s="234">
+      <c r="F26" s="184">
         <f t="shared" si="1"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="G26" s="235"/>
-      <c r="H26" s="234">
+      <c r="G26" s="185"/>
+      <c r="H26" s="184">
         <f t="shared" si="2"/>
         <v>1.8118770537935041</v>
       </c>
-      <c r="I26" s="235"/>
-      <c r="J26" s="38">
+      <c r="I26" s="185"/>
+      <c r="J26" s="34">
         <f t="shared" si="3"/>
         <v>2248.3747076619393</v>
       </c>
     </row>
     <row r="27" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D27" s="26">
+      <c r="D27" s="22">
         <v>44</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="21">
         <f t="shared" si="0"/>
         <v>7.573646084856847</v>
       </c>
-      <c r="F27" s="234">
+      <c r="F27" s="184">
         <f t="shared" si="1"/>
         <v>3.786823042428423</v>
       </c>
-      <c r="G27" s="235"/>
-      <c r="H27" s="234">
+      <c r="G27" s="185"/>
+      <c r="H27" s="184">
         <f t="shared" si="2"/>
         <v>1.9930647591728541</v>
       </c>
-      <c r="I27" s="235"/>
-      <c r="J27" s="38">
+      <c r="I27" s="185"/>
+      <c r="J27" s="34">
         <f t="shared" si="3"/>
         <v>2473.2121784281326</v>
       </c>
     </row>
     <row r="28" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D28" s="24">
+      <c r="D28" s="20">
         <v>48</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="63">
         <f t="shared" si="0"/>
         <v>8.2621593652983787</v>
       </c>
-      <c r="F28" s="171">
+      <c r="F28" s="186">
         <f t="shared" si="1"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="G28" s="173"/>
-      <c r="H28" s="171">
+      <c r="G28" s="187"/>
+      <c r="H28" s="186">
         <f t="shared" si="2"/>
         <v>2.1742524645522048</v>
       </c>
-      <c r="I28" s="173"/>
-      <c r="J28" s="68">
+      <c r="I28" s="187"/>
+      <c r="J28" s="64">
         <f>H28*4095/3.3</f>
         <v>2698.0496491943268</v>
       </c>
     </row>
     <row r="29" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D29" s="26">
+      <c r="D29" s="22">
         <v>52</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="21">
         <f t="shared" si="0"/>
         <v>8.9506726457399104</v>
       </c>
-      <c r="F29" s="234">
+      <c r="F29" s="184">
         <f>E29*G$14/(G$13+G$14)</f>
         <v>4.4753363228699552</v>
       </c>
-      <c r="G29" s="235"/>
-      <c r="H29" s="234">
+      <c r="G29" s="185"/>
+      <c r="H29" s="184">
         <f>F29*I$14/(I$13+I$14)</f>
         <v>2.3554401699315552</v>
       </c>
-      <c r="I29" s="235"/>
-      <c r="J29" s="38">
+      <c r="I29" s="185"/>
+      <c r="J29" s="34">
         <f t="shared" si="3"/>
         <v>2922.887119960521</v>
       </c>
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D30" s="26">
+      <c r="D30" s="22">
         <v>56</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="21">
         <f t="shared" si="0"/>
         <v>9.6391859261814403</v>
       </c>
-      <c r="F30" s="234">
+      <c r="F30" s="184">
         <f>E30*G$14/(G$13+G$14)</f>
         <v>4.8195929630907202</v>
       </c>
-      <c r="G30" s="235"/>
-      <c r="H30" s="234">
+      <c r="G30" s="185"/>
+      <c r="H30" s="184">
         <f>F30*I$14/(I$13+I$14)</f>
         <v>2.5366278753109053</v>
       </c>
-      <c r="I30" s="235"/>
-      <c r="J30" s="38">
+      <c r="I30" s="185"/>
+      <c r="J30" s="34">
         <f t="shared" si="3"/>
         <v>3147.7245907267143</v>
       </c>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D31" s="15">
+      <c r="D31" s="13">
         <v>60</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="18">
         <f t="shared" si="0"/>
         <v>10.327699206622974</v>
       </c>
-      <c r="F31" s="236">
+      <c r="F31" s="188">
         <f>E31*G$14/(G$13+G$14)</f>
         <v>5.1638496033114869</v>
       </c>
-      <c r="G31" s="237"/>
-      <c r="H31" s="168">
+      <c r="G31" s="189"/>
+      <c r="H31" s="180">
         <f>F31*I$14/(I$13+I$14)</f>
         <v>2.7178155806902562</v>
       </c>
-      <c r="I31" s="170"/>
-      <c r="J31" s="23">
+      <c r="I31" s="181"/>
+      <c r="J31" s="19">
         <f t="shared" ref="J31" si="4">H31*4095/3.3</f>
         <v>3372.5620614929089</v>
       </c>
     </row>
     <row r="32" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D32" s="15">
+      <c r="D32" s="13">
         <v>64</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="18">
         <f t="shared" si="0"/>
         <v>11.016212487064506</v>
       </c>
-      <c r="F32" s="236">
+      <c r="F32" s="188">
         <f>E32*G$14/(G$13+G$14)</f>
         <v>5.5081062435322528</v>
       </c>
-      <c r="G32" s="237"/>
-      <c r="H32" s="168">
+      <c r="G32" s="189"/>
+      <c r="H32" s="180">
         <f>F32*I$14/(I$13+I$14)</f>
         <v>2.8990032860696067</v>
       </c>
-      <c r="I32" s="170"/>
-      <c r="J32" s="23">
+      <c r="I32" s="181"/>
+      <c r="J32" s="19">
         <f t="shared" ref="J32:J33" si="5">H32*4095/3.3</f>
         <v>3597.3995322591031</v>
       </c>
     </row>
     <row r="33" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D33" s="18">
+      <c r="D33" s="14">
         <v>68</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="23">
         <f t="shared" si="0"/>
         <v>11.704725767506035</v>
       </c>
-      <c r="F33" s="238">
+      <c r="F33" s="190">
         <f>E33*G$14/(G$13+G$14)</f>
         <v>5.8523628837530177</v>
       </c>
-      <c r="G33" s="239"/>
-      <c r="H33" s="162">
+      <c r="G33" s="191"/>
+      <c r="H33" s="192">
         <f>F33*I$14/(I$13+I$14)</f>
         <v>3.0801909914489567</v>
       </c>
-      <c r="I33" s="164"/>
-      <c r="J33" s="28">
+      <c r="I33" s="193"/>
+      <c r="J33" s="24">
         <f t="shared" si="5"/>
         <v>3822.2370030252964</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="62"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C35" s="3" t="s">
@@ -3736,14 +4762,14 @@
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.4">
       <c r="D36" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D37" s="268">
+      <c r="D37" s="153">
         <v>48</v>
       </c>
-      <c r="E37" s="267">
+      <c r="E37" s="152">
         <v>80</v>
       </c>
       <c r="F37">
@@ -3755,2596 +4781,2425 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D39" s="189" t="s">
+      <c r="D39" s="173" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="174"/>
+      <c r="F39" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="216"/>
-      <c r="F39" s="189" t="s">
+      <c r="G39" s="175"/>
+      <c r="H39" s="175"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="190"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="191"/>
-      <c r="J39" s="53" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D40" s="131" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="14">
+      <c r="D40" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="12">
         <v>24</v>
       </c>
-      <c r="F40" s="131" t="s">
-        <v>200</v>
-      </c>
-      <c r="G40" s="14">
+      <c r="F40" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="G40" s="12">
         <v>4.7</v>
       </c>
-      <c r="H40" s="126" t="s">
-        <v>202</v>
-      </c>
-      <c r="I40" s="127">
+      <c r="H40" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="I40" s="119">
         <v>2.7</v>
       </c>
-      <c r="J40" s="276" t="s">
+      <c r="J40" s="157" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D41" s="132" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="133">
+      <c r="D41" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="125">
         <v>4.99</v>
       </c>
-      <c r="F41" s="132" t="s">
-        <v>201</v>
-      </c>
-      <c r="G41" s="133">
+      <c r="F41" s="124" t="s">
+        <v>195</v>
+      </c>
+      <c r="G41" s="125">
         <v>4.7</v>
       </c>
-      <c r="H41" s="132" t="s">
-        <v>99</v>
-      </c>
-      <c r="I41" s="134">
+      <c r="H41" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="126">
         <v>3</v>
       </c>
-      <c r="J41" s="277" t="s">
+      <c r="J41" s="158" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="173" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="174"/>
+      <c r="H42" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="189" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="216"/>
-      <c r="H42" s="189" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="191"/>
-      <c r="J42" s="53" t="s">
+      <c r="I42" s="176"/>
+      <c r="J42" s="49" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D43" s="8">
+      <c r="D43" s="6">
         <v>0</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="16">
         <f t="shared" ref="E43:E57" si="6">$D43*E$41/(E$40+E$41)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="206">
+      <c r="F43" s="170">
         <f t="shared" ref="F43:F57" si="7">E43*G$41/(G$40+G$41)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="233"/>
-      <c r="H43" s="206">
+      <c r="G43" s="195"/>
+      <c r="H43" s="170">
         <f t="shared" ref="H43:H57" si="8">F43*I$41/(I$40+I$41)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="207"/>
-      <c r="J43" s="70">
+      <c r="I43" s="171"/>
+      <c r="J43" s="66">
         <f>H43*4095/3.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D44" s="15">
+      <c r="D44" s="13">
         <v>4</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="18">
         <f t="shared" si="6"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="F44" s="168">
+      <c r="F44" s="180">
         <f t="shared" si="7"/>
         <v>0.3442566402207658</v>
       </c>
-      <c r="G44" s="169"/>
-      <c r="H44" s="168">
+      <c r="G44" s="194"/>
+      <c r="H44" s="180">
         <f t="shared" si="8"/>
         <v>0.18118770537935042</v>
       </c>
-      <c r="I44" s="170"/>
-      <c r="J44" s="55">
+      <c r="I44" s="181"/>
+      <c r="J44" s="51">
         <f>H44*4095/3.3</f>
         <v>224.83747076619395</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D45" s="15">
+      <c r="D45" s="13">
         <v>8</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="18">
         <f t="shared" si="6"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="F45" s="168">
+      <c r="F45" s="180">
         <f t="shared" si="7"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="G45" s="169"/>
-      <c r="H45" s="168">
+      <c r="G45" s="194"/>
+      <c r="H45" s="180">
         <f t="shared" si="8"/>
         <v>0.36237541075870083</v>
       </c>
-      <c r="I45" s="170"/>
-      <c r="J45" s="55">
+      <c r="I45" s="181"/>
+      <c r="J45" s="51">
         <f t="shared" ref="J45:J57" si="9">H45*4095/3.3</f>
         <v>449.67494153238789</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D46" s="15">
+      <c r="D46" s="13">
         <v>12</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="18">
         <f t="shared" si="6"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="F46" s="168">
+      <c r="F46" s="180">
         <f t="shared" si="7"/>
         <v>1.0327699206622973</v>
       </c>
-      <c r="G46" s="169"/>
-      <c r="H46" s="168">
+      <c r="G46" s="194"/>
+      <c r="H46" s="180">
         <f t="shared" si="8"/>
         <v>0.54356311613805119</v>
       </c>
-      <c r="I46" s="170"/>
-      <c r="J46" s="55">
+      <c r="I46" s="181"/>
+      <c r="J46" s="51">
         <f t="shared" si="9"/>
         <v>674.51241229858169</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D47" s="15">
+      <c r="D47" s="13">
         <v>16</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="18">
         <f t="shared" si="6"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="F47" s="168">
+      <c r="F47" s="180">
         <f t="shared" si="7"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="G47" s="169"/>
-      <c r="H47" s="168">
+      <c r="G47" s="194"/>
+      <c r="H47" s="180">
         <f t="shared" si="8"/>
         <v>0.72475082151740167</v>
       </c>
-      <c r="I47" s="170"/>
-      <c r="J47" s="55">
+      <c r="I47" s="181"/>
+      <c r="J47" s="51">
         <f t="shared" si="9"/>
         <v>899.34988306477578</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D48" s="15">
+      <c r="D48" s="13">
         <v>20</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="18">
         <f t="shared" si="6"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="F48" s="168">
+      <c r="F48" s="180">
         <f t="shared" si="7"/>
         <v>1.721283201103829</v>
       </c>
-      <c r="G48" s="169"/>
-      <c r="H48" s="168">
+      <c r="G48" s="194"/>
+      <c r="H48" s="180">
         <f t="shared" si="8"/>
         <v>0.90593852689675203</v>
       </c>
-      <c r="I48" s="170"/>
-      <c r="J48" s="55">
+      <c r="I48" s="181"/>
+      <c r="J48" s="51">
         <f t="shared" si="9"/>
         <v>1124.1873538309696</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D49" s="15">
+      <c r="D49" s="13">
         <v>24</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="18">
         <f t="shared" si="6"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="F49" s="168">
+      <c r="F49" s="180">
         <f t="shared" si="7"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="G49" s="169"/>
-      <c r="H49" s="168">
+      <c r="G49" s="194"/>
+      <c r="H49" s="180">
         <f t="shared" si="8"/>
         <v>1.0871262322761024</v>
       </c>
-      <c r="I49" s="170"/>
-      <c r="J49" s="55">
+      <c r="I49" s="181"/>
+      <c r="J49" s="51">
         <f>H49*4095/3.3</f>
         <v>1349.0248245971634</v>
       </c>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D50" s="15">
+      <c r="D50" s="13">
         <v>28</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="18">
         <f t="shared" si="6"/>
         <v>4.8195929630907202</v>
       </c>
-      <c r="F50" s="168">
+      <c r="F50" s="180">
         <f t="shared" si="7"/>
         <v>2.4097964815453601</v>
       </c>
-      <c r="G50" s="169"/>
-      <c r="H50" s="168">
+      <c r="G50" s="194"/>
+      <c r="H50" s="180">
         <f t="shared" si="8"/>
         <v>1.2683139376554526</v>
       </c>
-      <c r="I50" s="170"/>
-      <c r="J50" s="55">
+      <c r="I50" s="181"/>
+      <c r="J50" s="51">
         <f t="shared" si="9"/>
         <v>1573.8622953633571</v>
       </c>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D51" s="15">
+      <c r="D51" s="13">
         <v>32</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="18">
         <f t="shared" si="6"/>
         <v>5.5081062435322528</v>
       </c>
-      <c r="F51" s="168">
+      <c r="F51" s="180">
         <f t="shared" si="7"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="G51" s="169"/>
-      <c r="H51" s="168">
+      <c r="G51" s="194"/>
+      <c r="H51" s="180">
         <f t="shared" si="8"/>
         <v>1.4495016430348033</v>
       </c>
-      <c r="I51" s="170"/>
-      <c r="J51" s="55">
+      <c r="I51" s="181"/>
+      <c r="J51" s="51">
         <f t="shared" si="9"/>
         <v>1798.6997661295516</v>
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D52" s="15">
+      <c r="D52" s="13">
         <v>38.4</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="18">
         <f t="shared" si="6"/>
         <v>6.6097274922387026</v>
       </c>
-      <c r="F52" s="168">
+      <c r="F52" s="180">
         <f t="shared" si="7"/>
         <v>3.3048637461193513</v>
       </c>
-      <c r="G52" s="169"/>
-      <c r="H52" s="168">
+      <c r="G52" s="194"/>
+      <c r="H52" s="180">
         <f t="shared" si="8"/>
         <v>1.7394019716417637</v>
       </c>
-      <c r="I52" s="170"/>
-      <c r="J52" s="55">
+      <c r="I52" s="181"/>
+      <c r="J52" s="51">
         <f t="shared" si="9"/>
         <v>2158.4397193554614</v>
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D53" s="15">
+      <c r="D53" s="13">
         <v>40</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="18">
         <f t="shared" si="6"/>
         <v>6.8851328044153162</v>
       </c>
-      <c r="F53" s="168">
+      <c r="F53" s="180">
         <f t="shared" si="7"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="G53" s="169"/>
-      <c r="H53" s="168">
+      <c r="G53" s="194"/>
+      <c r="H53" s="180">
         <f t="shared" si="8"/>
         <v>1.8118770537935041</v>
       </c>
-      <c r="I53" s="170"/>
-      <c r="J53" s="55">
+      <c r="I53" s="181"/>
+      <c r="J53" s="51">
         <f t="shared" si="9"/>
         <v>2248.3747076619393</v>
       </c>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D54" s="15">
+      <c r="D54" s="13">
         <v>44</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E54" s="18">
         <f t="shared" si="6"/>
         <v>7.573646084856847</v>
       </c>
-      <c r="F54" s="168">
+      <c r="F54" s="180">
         <f t="shared" si="7"/>
         <v>3.786823042428423</v>
       </c>
-      <c r="G54" s="169"/>
-      <c r="H54" s="168">
+      <c r="G54" s="194"/>
+      <c r="H54" s="180">
         <f t="shared" si="8"/>
         <v>1.9930647591728541</v>
       </c>
-      <c r="I54" s="170"/>
-      <c r="J54" s="55">
+      <c r="I54" s="181"/>
+      <c r="J54" s="51">
         <f t="shared" si="9"/>
         <v>2473.2121784281326</v>
       </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D55" s="24">
+      <c r="D55" s="20">
         <v>48</v>
       </c>
-      <c r="E55" s="67">
+      <c r="E55" s="63">
         <f t="shared" si="6"/>
         <v>8.2621593652983787</v>
       </c>
-      <c r="F55" s="171">
+      <c r="F55" s="186">
         <f t="shared" si="7"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="G55" s="172"/>
-      <c r="H55" s="171">
+      <c r="G55" s="197"/>
+      <c r="H55" s="186">
         <f t="shared" si="8"/>
         <v>2.1742524645522048</v>
       </c>
-      <c r="I55" s="173"/>
-      <c r="J55" s="71">
+      <c r="I55" s="187"/>
+      <c r="J55" s="67">
         <f t="shared" si="9"/>
         <v>2698.0496491943268</v>
       </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D56" s="15">
+      <c r="D56" s="13">
         <v>52</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E56" s="18">
         <f t="shared" si="6"/>
         <v>8.9506726457399104</v>
       </c>
-      <c r="F56" s="168">
+      <c r="F56" s="180">
         <f t="shared" si="7"/>
         <v>4.4753363228699552</v>
       </c>
-      <c r="G56" s="169"/>
-      <c r="H56" s="168">
+      <c r="G56" s="194"/>
+      <c r="H56" s="180">
         <f t="shared" si="8"/>
         <v>2.3554401699315552</v>
       </c>
-      <c r="I56" s="170"/>
-      <c r="J56" s="55">
+      <c r="I56" s="181"/>
+      <c r="J56" s="51">
         <f t="shared" si="9"/>
         <v>2922.887119960521</v>
       </c>
     </row>
     <row r="57" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D57" s="18">
+      <c r="D57" s="14">
         <v>56</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E57" s="23">
         <f t="shared" si="6"/>
         <v>9.6391859261814403</v>
       </c>
-      <c r="F57" s="162">
+      <c r="F57" s="192">
         <f t="shared" si="7"/>
         <v>4.8195929630907202</v>
       </c>
-      <c r="G57" s="163"/>
-      <c r="H57" s="162">
+      <c r="G57" s="196"/>
+      <c r="H57" s="192">
         <f t="shared" si="8"/>
         <v>2.5366278753109053</v>
       </c>
-      <c r="I57" s="164"/>
-      <c r="J57" s="56">
+      <c r="I57" s="193"/>
+      <c r="J57" s="52">
         <f t="shared" si="9"/>
         <v>3147.7245907267143</v>
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C59" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C62" s="2"/>
       <c r="D62" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E62">
         <v>600</v>
       </c>
       <c r="F62" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H62" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E63">
         <v>48</v>
       </c>
       <c r="F63" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I63" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E64">
         <f>E62/E63</f>
         <v>12.5</v>
       </c>
       <c r="F64" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H64" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D65" s="160" t="s">
-        <v>172</v>
-      </c>
-      <c r="E65" s="161"/>
-      <c r="F65" s="227" t="s">
+      <c r="D65" s="243" t="s">
+        <v>166</v>
+      </c>
+      <c r="E65" s="244"/>
+      <c r="F65" s="203" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="203"/>
+      <c r="H65" s="203"/>
+      <c r="I65" s="204"/>
+      <c r="J65" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="G65" s="227"/>
-      <c r="H65" s="227"/>
-      <c r="I65" s="228"/>
-      <c r="J65" s="189" t="s">
+      <c r="K65" s="175"/>
+      <c r="L65" s="175"/>
+      <c r="M65" s="176"/>
+      <c r="N65" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="K65" s="190"/>
-      <c r="L65" s="190"/>
-      <c r="M65" s="191"/>
-      <c r="N65" s="53" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D66" s="131" t="s">
-        <v>207</v>
-      </c>
-      <c r="E66" s="278">
+      <c r="D66" s="123" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="159">
         <v>20</v>
       </c>
-      <c r="F66" s="137" t="s">
-        <v>203</v>
-      </c>
-      <c r="G66" s="138">
+      <c r="F66" s="129" t="s">
+        <v>197</v>
+      </c>
+      <c r="G66" s="130">
         <v>0.47</v>
       </c>
-      <c r="H66" s="139" t="s">
+      <c r="H66" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="25">
+      <c r="I66" s="21">
         <v>20</v>
       </c>
-      <c r="J66" s="137" t="s">
-        <v>204</v>
-      </c>
-      <c r="K66" s="138">
+      <c r="J66" s="129" t="s">
+        <v>198</v>
+      </c>
+      <c r="K66" s="130">
         <v>4.7</v>
       </c>
-      <c r="L66" s="139" t="s">
-        <v>47</v>
-      </c>
-      <c r="M66" s="140">
+      <c r="L66" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="M66" s="132">
         <v>2.7</v>
       </c>
-      <c r="N66" s="276" t="s">
+      <c r="N66" s="157" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="4:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D67" s="132" t="s">
-        <v>208</v>
-      </c>
-      <c r="E67" s="279">
+      <c r="D67" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="160">
         <v>4</v>
       </c>
-      <c r="F67" s="141" t="s">
+      <c r="F67" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="142">
+      <c r="G67" s="134">
         <v>10</v>
       </c>
-      <c r="H67" s="143" t="s">
+      <c r="H67" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="I67" s="130">
+      <c r="I67" s="122">
         <v>10</v>
       </c>
-      <c r="J67" s="141" t="s">
-        <v>205</v>
-      </c>
-      <c r="K67" s="142">
+      <c r="J67" s="133" t="s">
+        <v>199</v>
+      </c>
+      <c r="K67" s="134">
         <v>4.7</v>
       </c>
-      <c r="L67" s="143" t="s">
-        <v>206</v>
-      </c>
-      <c r="M67" s="144">
+      <c r="L67" s="135" t="s">
+        <v>200</v>
+      </c>
+      <c r="M67" s="136">
         <v>3</v>
       </c>
-      <c r="N67" s="277" t="s">
+      <c r="N67" s="158" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D68" s="108" t="s">
-        <v>171</v>
-      </c>
-      <c r="E68" s="136" t="s">
-        <v>173</v>
-      </c>
-      <c r="F68" s="229" t="s">
+      <c r="D68" s="100" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="128" t="s">
+        <v>167</v>
+      </c>
+      <c r="F68" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="190"/>
-      <c r="H68" s="190" t="s">
+      <c r="G68" s="175"/>
+      <c r="H68" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="191"/>
-      <c r="J68" s="230" t="s">
+      <c r="I68" s="176"/>
+      <c r="J68" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="K68" s="231"/>
-      <c r="L68" s="231" t="s">
+      <c r="K68" s="207"/>
+      <c r="L68" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="M68" s="232"/>
-      <c r="N68" s="73" t="s">
+      <c r="M68" s="208"/>
+      <c r="N68" s="69" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D69" s="47">
+      <c r="D69" s="43">
         <v>0</v>
       </c>
-      <c r="E69" s="48">
+      <c r="E69" s="44">
         <v>0</v>
       </c>
-      <c r="F69" s="218">
+      <c r="F69" s="200">
         <f t="shared" ref="F69:F79" si="10">E69*G$67/(G$66+G$67)</f>
         <v>0</v>
       </c>
-      <c r="G69" s="197"/>
-      <c r="H69" s="197">
+      <c r="G69" s="201"/>
+      <c r="H69" s="201">
         <f t="shared" ref="H69:H79" si="11">F69*(1+I$66/I$67)</f>
         <v>0</v>
       </c>
-      <c r="I69" s="185"/>
-      <c r="J69" s="218">
+      <c r="I69" s="183"/>
+      <c r="J69" s="200">
         <f t="shared" ref="J69:J79" si="12">H69*K$67/(K$66+K$67)</f>
         <v>0</v>
       </c>
-      <c r="K69" s="197"/>
-      <c r="L69" s="197">
+      <c r="K69" s="201"/>
+      <c r="L69" s="201">
         <f t="shared" ref="L69:L79" si="13">J69*M$67/(M$66+M$67)</f>
         <v>0</v>
       </c>
-      <c r="M69" s="184"/>
-      <c r="N69" s="21">
+      <c r="M69" s="202"/>
+      <c r="N69" s="17">
         <f>L69*4096/3.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D70" s="15">
+      <c r="D70" s="13">
         <v>2</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E70" s="18">
         <f>$E$67*D70/$E$66</f>
         <v>0.4</v>
       </c>
-      <c r="F70" s="186">
+      <c r="F70" s="198">
         <f t="shared" si="10"/>
         <v>0.38204393505253104</v>
       </c>
-      <c r="G70" s="188"/>
-      <c r="H70" s="188">
+      <c r="G70" s="199"/>
+      <c r="H70" s="199">
         <f t="shared" si="11"/>
         <v>1.1461318051575931</v>
       </c>
-      <c r="I70" s="170"/>
-      <c r="J70" s="186">
+      <c r="I70" s="181"/>
+      <c r="J70" s="198">
         <f t="shared" si="12"/>
         <v>0.57306590257879653</v>
       </c>
-      <c r="K70" s="188"/>
-      <c r="L70" s="188">
+      <c r="K70" s="199"/>
+      <c r="L70" s="199">
         <f t="shared" si="13"/>
         <v>0.30161363293620869</v>
       </c>
-      <c r="M70" s="169"/>
-      <c r="N70" s="23">
+      <c r="M70" s="194"/>
+      <c r="N70" s="19">
         <f>L70*4096/3.3</f>
         <v>374.36649712324572</v>
       </c>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D71" s="15">
+      <c r="D71" s="13">
         <v>4</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E71" s="18">
         <f t="shared" ref="E71:E79" si="14">$E$67*D71/$E$66</f>
         <v>0.8</v>
       </c>
-      <c r="F71" s="186">
+      <c r="F71" s="198">
         <f t="shared" si="10"/>
         <v>0.76408787010506207</v>
       </c>
-      <c r="G71" s="188"/>
-      <c r="H71" s="188">
+      <c r="G71" s="199"/>
+      <c r="H71" s="199">
         <f t="shared" si="11"/>
         <v>2.2922636103151861</v>
       </c>
-      <c r="I71" s="170"/>
-      <c r="J71" s="186">
+      <c r="I71" s="181"/>
+      <c r="J71" s="198">
         <f t="shared" si="12"/>
         <v>1.1461318051575931</v>
       </c>
-      <c r="K71" s="188"/>
-      <c r="L71" s="188">
+      <c r="K71" s="199"/>
+      <c r="L71" s="199">
         <f t="shared" si="13"/>
         <v>0.60322726587241737</v>
       </c>
-      <c r="M71" s="169"/>
-      <c r="N71" s="23">
+      <c r="M71" s="194"/>
+      <c r="N71" s="19">
         <f t="shared" ref="N71:N79" si="15">L71*4096/3.3</f>
         <v>748.73299424649144</v>
       </c>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D72" s="15">
+      <c r="D72" s="13">
         <v>6</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E72" s="18">
         <f t="shared" si="14"/>
         <v>1.2</v>
       </c>
-      <c r="F72" s="186">
+      <c r="F72" s="198">
         <f t="shared" si="10"/>
         <v>1.1461318051575931</v>
       </c>
-      <c r="G72" s="188"/>
-      <c r="H72" s="188">
+      <c r="G72" s="199"/>
+      <c r="H72" s="199">
         <f t="shared" si="11"/>
         <v>3.4383954154727792</v>
       </c>
-      <c r="I72" s="170"/>
-      <c r="J72" s="186">
+      <c r="I72" s="181"/>
+      <c r="J72" s="198">
         <f t="shared" si="12"/>
         <v>1.7191977077363894</v>
       </c>
-      <c r="K72" s="188"/>
-      <c r="L72" s="188">
+      <c r="K72" s="199"/>
+      <c r="L72" s="199">
         <f t="shared" si="13"/>
         <v>0.90484089880862584</v>
       </c>
-      <c r="M72" s="169"/>
-      <c r="N72" s="23">
+      <c r="M72" s="194"/>
+      <c r="N72" s="19">
         <f t="shared" si="15"/>
         <v>1123.0994913697368</v>
       </c>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D73" s="15">
+      <c r="D73" s="13">
         <v>8</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E73" s="18">
         <f t="shared" si="14"/>
         <v>1.6</v>
       </c>
-      <c r="F73" s="186">
+      <c r="F73" s="198">
         <f t="shared" si="10"/>
         <v>1.5281757402101241</v>
       </c>
-      <c r="G73" s="188"/>
-      <c r="H73" s="188">
+      <c r="G73" s="199"/>
+      <c r="H73" s="199">
         <f t="shared" si="11"/>
         <v>4.5845272206303722</v>
       </c>
-      <c r="I73" s="170"/>
-      <c r="J73" s="186">
+      <c r="I73" s="181"/>
+      <c r="J73" s="198">
         <f t="shared" si="12"/>
         <v>2.2922636103151861</v>
       </c>
-      <c r="K73" s="188"/>
-      <c r="L73" s="188">
+      <c r="K73" s="199"/>
+      <c r="L73" s="199">
         <f t="shared" si="13"/>
         <v>1.2064545317448347</v>
       </c>
-      <c r="M73" s="169"/>
-      <c r="N73" s="23">
+      <c r="M73" s="194"/>
+      <c r="N73" s="19">
         <f t="shared" si="15"/>
         <v>1497.4659884929829</v>
       </c>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D74" s="24">
+      <c r="D74" s="20">
         <v>10</v>
       </c>
-      <c r="E74" s="25">
+      <c r="E74" s="21">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="F74" s="221">
+      <c r="F74" s="217">
         <f t="shared" si="10"/>
         <v>1.910219675262655</v>
       </c>
-      <c r="G74" s="222"/>
-      <c r="H74" s="222">
+      <c r="G74" s="218"/>
+      <c r="H74" s="218">
         <f t="shared" si="11"/>
         <v>5.7306590257879648</v>
       </c>
-      <c r="I74" s="173"/>
-      <c r="J74" s="221">
+      <c r="I74" s="187"/>
+      <c r="J74" s="217">
         <f t="shared" si="12"/>
         <v>2.8653295128939824</v>
       </c>
-      <c r="K74" s="222"/>
-      <c r="L74" s="222">
+      <c r="K74" s="218"/>
+      <c r="L74" s="218">
         <f t="shared" si="13"/>
         <v>1.5080681646810434</v>
       </c>
-      <c r="M74" s="172"/>
-      <c r="N74" s="68">
+      <c r="M74" s="197"/>
+      <c r="N74" s="64">
         <f t="shared" si="15"/>
         <v>1871.8324856162285</v>
       </c>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D75" s="92">
+      <c r="D75" s="84">
         <v>12</v>
       </c>
-      <c r="E75" s="93">
+      <c r="E75" s="85">
         <f t="shared" si="14"/>
         <v>2.4</v>
       </c>
-      <c r="F75" s="269">
+      <c r="F75" s="213">
         <f t="shared" si="10"/>
         <v>2.2922636103151861</v>
       </c>
-      <c r="G75" s="270"/>
-      <c r="H75" s="270">
+      <c r="G75" s="214"/>
+      <c r="H75" s="214">
         <f t="shared" si="11"/>
         <v>6.8767908309455583</v>
       </c>
-      <c r="I75" s="271"/>
-      <c r="J75" s="269">
+      <c r="I75" s="215"/>
+      <c r="J75" s="213">
         <f t="shared" si="12"/>
         <v>3.4383954154727787</v>
       </c>
-      <c r="K75" s="270"/>
-      <c r="L75" s="270">
+      <c r="K75" s="214"/>
+      <c r="L75" s="214">
         <f t="shared" si="13"/>
         <v>1.8096817976172517</v>
       </c>
-      <c r="M75" s="272"/>
-      <c r="N75" s="273">
+      <c r="M75" s="216"/>
+      <c r="N75" s="154">
         <f t="shared" si="15"/>
         <v>2246.1989827394736</v>
       </c>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D76" s="15">
+      <c r="D76" s="13">
         <v>14</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E76" s="18">
         <f t="shared" si="14"/>
         <v>2.8</v>
       </c>
-      <c r="F76" s="223">
+      <c r="F76" s="209">
         <f t="shared" si="10"/>
         <v>2.674307545367717</v>
       </c>
-      <c r="G76" s="224"/>
-      <c r="H76" s="224">
+      <c r="G76" s="210"/>
+      <c r="H76" s="210">
         <f t="shared" si="11"/>
         <v>8.02292263610315</v>
       </c>
-      <c r="I76" s="225"/>
-      <c r="J76" s="223">
+      <c r="I76" s="211"/>
+      <c r="J76" s="209">
         <f t="shared" si="12"/>
         <v>4.011461318051575</v>
       </c>
-      <c r="K76" s="224"/>
-      <c r="L76" s="224">
+      <c r="K76" s="210"/>
+      <c r="L76" s="210">
         <f t="shared" si="13"/>
         <v>2.1112954305534606</v>
       </c>
-      <c r="M76" s="226"/>
-      <c r="N76" s="135">
+      <c r="M76" s="212"/>
+      <c r="N76" s="127">
         <f t="shared" si="15"/>
         <v>2620.5654798627197</v>
       </c>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D77" s="15">
+      <c r="D77" s="13">
         <v>16</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E77" s="18">
         <f t="shared" si="14"/>
         <v>3.2</v>
       </c>
-      <c r="F77" s="223">
+      <c r="F77" s="209">
         <f t="shared" si="10"/>
         <v>3.0563514804202483</v>
       </c>
-      <c r="G77" s="224"/>
-      <c r="H77" s="224">
+      <c r="G77" s="210"/>
+      <c r="H77" s="210">
         <f t="shared" si="11"/>
         <v>9.1690544412607444</v>
       </c>
-      <c r="I77" s="225"/>
-      <c r="J77" s="223">
+      <c r="I77" s="211"/>
+      <c r="J77" s="209">
         <f t="shared" si="12"/>
         <v>4.5845272206303722</v>
       </c>
-      <c r="K77" s="224"/>
-      <c r="L77" s="224">
+      <c r="K77" s="210"/>
+      <c r="L77" s="210">
         <f t="shared" si="13"/>
         <v>2.4129090634896695</v>
       </c>
-      <c r="M77" s="226"/>
-      <c r="N77" s="135">
+      <c r="M77" s="212"/>
+      <c r="N77" s="127">
         <f t="shared" si="15"/>
         <v>2994.9319769859658</v>
       </c>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D78" s="15">
+      <c r="D78" s="13">
         <v>18</v>
       </c>
-      <c r="E78" s="22">
+      <c r="E78" s="18">
         <f t="shared" si="14"/>
         <v>3.6</v>
       </c>
-      <c r="F78" s="223">
+      <c r="F78" s="209">
         <f t="shared" si="10"/>
         <v>3.4383954154727792</v>
       </c>
-      <c r="G78" s="224"/>
-      <c r="H78" s="224">
+      <c r="G78" s="210"/>
+      <c r="H78" s="210">
         <f t="shared" si="11"/>
         <v>10.315186246418337</v>
       </c>
-      <c r="I78" s="225"/>
-      <c r="J78" s="223">
+      <c r="I78" s="211"/>
+      <c r="J78" s="209">
         <f t="shared" si="12"/>
         <v>5.1575931232091685</v>
       </c>
-      <c r="K78" s="224"/>
-      <c r="L78" s="224">
+      <c r="K78" s="210"/>
+      <c r="L78" s="210">
         <f t="shared" si="13"/>
         <v>2.7145226964258784</v>
       </c>
-      <c r="M78" s="226"/>
-      <c r="N78" s="135">
+      <c r="M78" s="212"/>
+      <c r="N78" s="127">
         <f t="shared" si="15"/>
         <v>3369.2984741092118</v>
       </c>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D79" s="15">
+      <c r="D79" s="13">
         <v>20</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E79" s="18">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="F79" s="223">
+      <c r="F79" s="209">
         <f t="shared" si="10"/>
         <v>3.82043935052531</v>
       </c>
-      <c r="G79" s="224"/>
-      <c r="H79" s="224">
+      <c r="G79" s="210"/>
+      <c r="H79" s="210">
         <f t="shared" si="11"/>
         <v>11.46131805157593</v>
       </c>
-      <c r="I79" s="225"/>
-      <c r="J79" s="223">
+      <c r="I79" s="211"/>
+      <c r="J79" s="209">
         <f t="shared" si="12"/>
         <v>5.7306590257879648</v>
       </c>
-      <c r="K79" s="224"/>
-      <c r="L79" s="224">
+      <c r="K79" s="210"/>
+      <c r="L79" s="210">
         <f t="shared" si="13"/>
         <v>3.0161363293620869</v>
       </c>
-      <c r="M79" s="226"/>
-      <c r="N79" s="135">
+      <c r="M79" s="212"/>
+      <c r="N79" s="127">
         <f t="shared" si="15"/>
         <v>3743.664971232457</v>
       </c>
     </row>
     <row r="81" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C81" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="3:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C84" s="2"/>
-      <c r="D84" s="165" t="s">
+      <c r="D84" s="245" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="173" t="s">
+        <v>77</v>
+      </c>
+      <c r="F84" s="175"/>
+      <c r="G84" s="175"/>
+      <c r="H84" s="175"/>
+      <c r="I84" s="175"/>
+      <c r="J84" s="174"/>
+      <c r="K84" s="173" t="s">
+        <v>35</v>
+      </c>
+      <c r="L84" s="175"/>
+      <c r="M84" s="175"/>
+      <c r="N84" s="176"/>
+      <c r="O84" s="49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="D85" s="246"/>
+      <c r="E85" s="137" t="s">
+        <v>203</v>
+      </c>
+      <c r="F85" s="161">
+        <v>0.5</v>
+      </c>
+      <c r="G85" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="H85" s="139">
+        <v>10</v>
+      </c>
+      <c r="I85" s="162" t="s">
+        <v>206</v>
+      </c>
+      <c r="J85" s="138">
+        <v>0</v>
+      </c>
+      <c r="K85" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="L85" s="138">
+        <v>4.7</v>
+      </c>
+      <c r="M85" s="137" t="s">
+        <v>210</v>
+      </c>
+      <c r="N85" s="139">
+        <v>2.7</v>
+      </c>
+      <c r="O85" s="163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D86" s="247"/>
+      <c r="E86" s="124"/>
+      <c r="F86" s="125"/>
+      <c r="G86" s="120" t="s">
+        <v>205</v>
+      </c>
+      <c r="H86" s="122">
+        <v>1</v>
+      </c>
+      <c r="I86" s="133" t="s">
+        <v>207</v>
+      </c>
+      <c r="J86" s="136">
+        <v>10000</v>
+      </c>
+      <c r="K86" s="120" t="s">
+        <v>209</v>
+      </c>
+      <c r="L86" s="136">
+        <v>4.7</v>
+      </c>
+      <c r="M86" s="120" t="s">
+        <v>211</v>
+      </c>
+      <c r="N86" s="122">
+        <v>3</v>
+      </c>
+      <c r="O86" s="156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D87" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E84" s="189" t="s">
+      <c r="E87" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="F87" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="G87" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="F84" s="190"/>
-      <c r="G84" s="190"/>
-      <c r="H84" s="190"/>
-      <c r="I84" s="190"/>
-      <c r="J84" s="216"/>
-      <c r="K84" s="189" t="s">
-        <v>36</v>
-      </c>
-      <c r="L84" s="190"/>
-      <c r="M84" s="190"/>
-      <c r="N84" s="191"/>
-      <c r="O84" s="53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D85" s="166"/>
-      <c r="E85" s="145" t="s">
-        <v>209</v>
-      </c>
-      <c r="F85" s="280">
-        <v>0.5</v>
-      </c>
-      <c r="G85" s="145" t="s">
-        <v>210</v>
-      </c>
-      <c r="H85" s="147">
-        <v>10</v>
-      </c>
-      <c r="I85" s="281" t="s">
-        <v>212</v>
-      </c>
-      <c r="J85" s="146">
+      <c r="H87" s="238"/>
+      <c r="I87" s="228" t="s">
+        <v>81</v>
+      </c>
+      <c r="J87" s="229"/>
+      <c r="K87" s="237" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="229"/>
+      <c r="M87" s="237" t="s">
+        <v>17</v>
+      </c>
+      <c r="N87" s="238"/>
+      <c r="O87" s="75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="D88" s="68">
         <v>0</v>
       </c>
-      <c r="K85" s="145" t="s">
-        <v>214</v>
-      </c>
-      <c r="L85" s="146">
-        <v>4.7</v>
-      </c>
-      <c r="M85" s="145" t="s">
-        <v>216</v>
-      </c>
-      <c r="N85" s="147">
-        <v>2.7</v>
-      </c>
-      <c r="O85" s="282" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D86" s="167"/>
-      <c r="E86" s="132"/>
-      <c r="F86" s="133"/>
-      <c r="G86" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="H86" s="130">
-        <v>1</v>
-      </c>
-      <c r="I86" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="J86" s="144">
-        <v>10000</v>
-      </c>
-      <c r="K86" s="128" t="s">
-        <v>215</v>
-      </c>
-      <c r="L86" s="144">
-        <v>4.7</v>
-      </c>
-      <c r="M86" s="128" t="s">
-        <v>217</v>
-      </c>
-      <c r="N86" s="130">
-        <v>3</v>
-      </c>
-      <c r="O86" s="275" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="3:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D87" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="E87" s="108" t="s">
-        <v>177</v>
-      </c>
-      <c r="F87" s="109" t="s">
-        <v>176</v>
-      </c>
-      <c r="G87" s="180" t="s">
-        <v>79</v>
-      </c>
-      <c r="H87" s="182"/>
-      <c r="I87" s="217" t="s">
-        <v>82</v>
-      </c>
-      <c r="J87" s="181"/>
-      <c r="K87" s="180" t="s">
-        <v>18</v>
-      </c>
-      <c r="L87" s="181"/>
-      <c r="M87" s="180" t="s">
-        <v>17</v>
-      </c>
-      <c r="N87" s="182"/>
-      <c r="O87" s="79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D88" s="72">
-        <v>0</v>
-      </c>
-      <c r="E88" s="151">
+      <c r="E88" s="143">
         <f>D88*F$85</f>
         <v>0</v>
       </c>
-      <c r="F88" s="155">
+      <c r="F88" s="147">
         <f>D88*E88</f>
         <v>0</v>
       </c>
-      <c r="G88" s="183">
+      <c r="G88" s="182">
         <f>E88*(1+H$85/H$86)</f>
         <v>0</v>
       </c>
-      <c r="H88" s="185"/>
-      <c r="I88" s="218">
+      <c r="H88" s="183"/>
+      <c r="I88" s="200">
         <f>G88*J$86/(J$85+J$86)</f>
         <v>0</v>
       </c>
-      <c r="J88" s="184"/>
-      <c r="K88" s="183">
+      <c r="J88" s="202"/>
+      <c r="K88" s="182">
         <f>I88*L$86/(L$85+L$86)</f>
         <v>0</v>
       </c>
-      <c r="L88" s="184"/>
-      <c r="M88" s="183">
+      <c r="L88" s="202"/>
+      <c r="M88" s="182">
         <f t="shared" ref="M88:M100" si="16">K88*N$86/(N$85+N$86)</f>
         <v>0</v>
       </c>
-      <c r="N88" s="185"/>
-      <c r="O88" s="54">
+      <c r="N88" s="183"/>
+      <c r="O88" s="50">
         <f t="shared" ref="O88:O100" si="17">M88*4096/3.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D89" s="37">
+      <c r="D89" s="33">
         <v>0.1</v>
       </c>
-      <c r="E89" s="152">
+      <c r="E89" s="144">
         <f t="shared" ref="E89:E100" si="18">D89*F$85</f>
         <v>0.05</v>
       </c>
-      <c r="F89" s="156">
+      <c r="F89" s="148">
         <f>D89*E89</f>
         <v>5.000000000000001E-3</v>
       </c>
-      <c r="G89" s="168">
+      <c r="G89" s="180">
         <f>E89*(1+H$85/H$86)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H89" s="170"/>
-      <c r="I89" s="186">
+      <c r="H89" s="181"/>
+      <c r="I89" s="198">
         <f t="shared" ref="I89:I100" si="19">G89*J$86/(J$85+J$86)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="J89" s="169"/>
-      <c r="K89" s="168">
+      <c r="J89" s="194"/>
+      <c r="K89" s="180">
         <f t="shared" ref="K89:K100" si="20">I89*L$86/(L$85+L$86)</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="L89" s="169"/>
-      <c r="M89" s="168">
+      <c r="L89" s="194"/>
+      <c r="M89" s="180">
         <f t="shared" si="16"/>
         <v>0.14473684210526316</v>
       </c>
-      <c r="N89" s="170"/>
-      <c r="O89" s="55">
+      <c r="N89" s="181"/>
+      <c r="O89" s="51">
         <f t="shared" si="17"/>
         <v>179.64912280701756</v>
       </c>
     </row>
     <row r="90" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D90" s="80">
+      <c r="D90" s="76">
         <v>0.2</v>
       </c>
-      <c r="E90" s="149">
+      <c r="E90" s="141">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="F90" s="156">
+      <c r="F90" s="148">
         <f t="shared" ref="F90:F100" si="21">D90*E90</f>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="G90" s="174">
+      <c r="G90" s="239">
         <f>E90*(1+H$85/H$86)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H90" s="176"/>
-      <c r="I90" s="219">
+      <c r="H90" s="240"/>
+      <c r="I90" s="230">
         <f t="shared" si="19"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="J90" s="175"/>
-      <c r="K90" s="174">
+      <c r="J90" s="231"/>
+      <c r="K90" s="239">
         <f t="shared" si="20"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="L90" s="175"/>
-      <c r="M90" s="174">
+      <c r="L90" s="231"/>
+      <c r="M90" s="239">
         <f t="shared" si="16"/>
         <v>0.28947368421052633</v>
       </c>
-      <c r="N90" s="176"/>
-      <c r="O90" s="58">
+      <c r="N90" s="240"/>
+      <c r="O90" s="54">
         <f t="shared" si="17"/>
         <v>359.29824561403512</v>
       </c>
     </row>
     <row r="91" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D91" s="78">
+      <c r="D91" s="74">
         <v>0.3</v>
       </c>
-      <c r="E91" s="150">
+      <c r="E91" s="142">
         <f t="shared" si="18"/>
         <v>0.15</v>
       </c>
-      <c r="F91" s="158">
+      <c r="F91" s="150">
         <f t="shared" si="21"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G91" s="177">
+      <c r="G91" s="241">
         <f t="shared" ref="G91:G100" si="22">E91*(1+H$85/H$86)</f>
         <v>1.65</v>
       </c>
-      <c r="H91" s="179"/>
-      <c r="I91" s="220">
+      <c r="H91" s="242"/>
+      <c r="I91" s="232">
         <f t="shared" si="19"/>
         <v>1.65</v>
       </c>
-      <c r="J91" s="178"/>
-      <c r="K91" s="177">
+      <c r="J91" s="233"/>
+      <c r="K91" s="241">
         <f t="shared" si="20"/>
         <v>0.82499999999999996</v>
       </c>
-      <c r="L91" s="178"/>
-      <c r="M91" s="177">
+      <c r="L91" s="233"/>
+      <c r="M91" s="241">
         <f t="shared" si="16"/>
         <v>0.43421052631578938</v>
       </c>
-      <c r="N91" s="179"/>
-      <c r="O91" s="82">
+      <c r="N91" s="242"/>
+      <c r="O91" s="78">
         <f t="shared" si="17"/>
         <v>538.94736842105249</v>
       </c>
     </row>
     <row r="92" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D92" s="80">
+      <c r="D92" s="76">
         <v>0.4</v>
       </c>
-      <c r="E92" s="152">
+      <c r="E92" s="144">
         <f t="shared" si="18"/>
         <v>0.2</v>
       </c>
-      <c r="F92" s="156">
+      <c r="F92" s="148">
         <f t="shared" si="21"/>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="G92" s="168">
+      <c r="G92" s="180">
         <f t="shared" si="22"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H92" s="170"/>
-      <c r="I92" s="186">
+      <c r="H92" s="181"/>
+      <c r="I92" s="198">
         <f t="shared" si="19"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="J92" s="169"/>
-      <c r="K92" s="168">
+      <c r="J92" s="194"/>
+      <c r="K92" s="180">
         <f t="shared" si="20"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L92" s="169"/>
-      <c r="M92" s="168">
+      <c r="L92" s="194"/>
+      <c r="M92" s="180">
         <f t="shared" si="16"/>
         <v>0.57894736842105265</v>
       </c>
-      <c r="N92" s="170"/>
-      <c r="O92" s="55">
+      <c r="N92" s="181"/>
+      <c r="O92" s="51">
         <f t="shared" si="17"/>
         <v>718.59649122807025</v>
       </c>
     </row>
     <row r="93" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D93" s="37">
+      <c r="D93" s="33">
         <v>0.5</v>
       </c>
-      <c r="E93" s="152">
+      <c r="E93" s="144">
         <f t="shared" si="18"/>
         <v>0.25</v>
       </c>
-      <c r="F93" s="156">
+      <c r="F93" s="148">
         <f t="shared" si="21"/>
         <v>0.125</v>
       </c>
-      <c r="G93" s="168">
+      <c r="G93" s="180">
         <f t="shared" si="22"/>
         <v>2.75</v>
       </c>
-      <c r="H93" s="170"/>
-      <c r="I93" s="186">
+      <c r="H93" s="181"/>
+      <c r="I93" s="198">
         <f t="shared" si="19"/>
         <v>2.75</v>
       </c>
-      <c r="J93" s="169"/>
-      <c r="K93" s="168">
+      <c r="J93" s="194"/>
+      <c r="K93" s="180">
         <f t="shared" si="20"/>
         <v>1.375</v>
       </c>
-      <c r="L93" s="169"/>
-      <c r="M93" s="168">
+      <c r="L93" s="194"/>
+      <c r="M93" s="180">
         <f t="shared" si="16"/>
         <v>0.72368421052631582</v>
       </c>
-      <c r="N93" s="170"/>
-      <c r="O93" s="55">
+      <c r="N93" s="181"/>
+      <c r="O93" s="51">
         <f t="shared" si="17"/>
         <v>898.24561403508778</v>
       </c>
     </row>
     <row r="94" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D94" s="77">
+      <c r="D94" s="73">
         <v>0.6</v>
       </c>
-      <c r="E94" s="154">
+      <c r="E94" s="146">
         <f t="shared" si="18"/>
         <v>0.3</v>
       </c>
-      <c r="F94" s="159">
+      <c r="F94" s="151">
         <f t="shared" si="21"/>
         <v>0.18</v>
       </c>
-      <c r="G94" s="171">
+      <c r="G94" s="186">
         <f t="shared" si="22"/>
         <v>3.3</v>
       </c>
-      <c r="H94" s="173"/>
-      <c r="I94" s="221">
+      <c r="H94" s="187"/>
+      <c r="I94" s="217">
         <f t="shared" si="19"/>
         <v>3.3</v>
       </c>
-      <c r="J94" s="172"/>
-      <c r="K94" s="171">
+      <c r="J94" s="197"/>
+      <c r="K94" s="186">
         <f t="shared" si="20"/>
         <v>1.65</v>
       </c>
-      <c r="L94" s="172"/>
-      <c r="M94" s="171">
+      <c r="L94" s="197"/>
+      <c r="M94" s="186">
         <f t="shared" si="16"/>
         <v>0.86842105263157876</v>
       </c>
-      <c r="N94" s="173"/>
-      <c r="O94" s="71">
+      <c r="N94" s="187"/>
+      <c r="O94" s="67">
         <f t="shared" si="17"/>
         <v>1077.894736842105</v>
       </c>
     </row>
     <row r="95" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D95" s="37">
+      <c r="D95" s="33">
         <v>0.7</v>
       </c>
-      <c r="E95" s="152">
+      <c r="E95" s="144">
         <f t="shared" si="18"/>
         <v>0.35</v>
       </c>
-      <c r="F95" s="156">
+      <c r="F95" s="148">
         <f t="shared" si="21"/>
         <v>0.24499999999999997</v>
       </c>
-      <c r="G95" s="168">
+      <c r="G95" s="180">
         <f t="shared" si="22"/>
         <v>3.8499999999999996</v>
       </c>
-      <c r="H95" s="170"/>
-      <c r="I95" s="186">
+      <c r="H95" s="181"/>
+      <c r="I95" s="198">
         <f t="shared" si="19"/>
         <v>3.85</v>
       </c>
-      <c r="J95" s="169"/>
-      <c r="K95" s="168">
+      <c r="J95" s="194"/>
+      <c r="K95" s="180">
         <f t="shared" si="20"/>
         <v>1.9250000000000003</v>
       </c>
-      <c r="L95" s="169"/>
-      <c r="M95" s="168">
+      <c r="L95" s="194"/>
+      <c r="M95" s="180">
         <f t="shared" si="16"/>
         <v>1.013157894736842</v>
       </c>
-      <c r="N95" s="170"/>
-      <c r="O95" s="55">
+      <c r="N95" s="181"/>
+      <c r="O95" s="51">
         <f t="shared" si="17"/>
         <v>1257.5438596491229</v>
       </c>
     </row>
     <row r="96" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D96" s="80">
+      <c r="D96" s="76">
         <v>0.8</v>
       </c>
-      <c r="E96" s="152">
+      <c r="E96" s="144">
         <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
-      <c r="F96" s="156">
+      <c r="F96" s="148">
         <f t="shared" si="21"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="G96" s="168">
+      <c r="G96" s="180">
         <f t="shared" si="22"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="H96" s="170"/>
-      <c r="I96" s="186">
+      <c r="H96" s="181"/>
+      <c r="I96" s="198">
         <f t="shared" si="19"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="J96" s="169"/>
-      <c r="K96" s="168">
+      <c r="J96" s="194"/>
+      <c r="K96" s="180">
         <f t="shared" si="20"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L96" s="169"/>
-      <c r="M96" s="168">
+      <c r="L96" s="194"/>
+      <c r="M96" s="180">
         <f t="shared" si="16"/>
         <v>1.1578947368421053</v>
       </c>
-      <c r="N96" s="170"/>
-      <c r="O96" s="55">
+      <c r="N96" s="181"/>
+      <c r="O96" s="51">
         <f t="shared" si="17"/>
         <v>1437.1929824561405</v>
       </c>
     </row>
     <row r="97" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D97" s="37">
+      <c r="D97" s="33">
         <v>0.9</v>
       </c>
-      <c r="E97" s="152">
+      <c r="E97" s="144">
         <f t="shared" si="18"/>
         <v>0.45</v>
       </c>
-      <c r="F97" s="156">
+      <c r="F97" s="148">
         <f t="shared" si="21"/>
         <v>0.40500000000000003</v>
       </c>
-      <c r="G97" s="168">
+      <c r="G97" s="180">
         <f t="shared" si="22"/>
         <v>4.95</v>
       </c>
-      <c r="H97" s="170"/>
-      <c r="I97" s="186">
+      <c r="H97" s="181"/>
+      <c r="I97" s="198">
         <f t="shared" si="19"/>
         <v>4.95</v>
       </c>
-      <c r="J97" s="169"/>
-      <c r="K97" s="168">
+      <c r="J97" s="194"/>
+      <c r="K97" s="180">
         <f t="shared" si="20"/>
         <v>2.4750000000000001</v>
       </c>
-      <c r="L97" s="169"/>
-      <c r="M97" s="168">
+      <c r="L97" s="194"/>
+      <c r="M97" s="180">
         <f t="shared" si="16"/>
         <v>1.3026315789473686</v>
       </c>
-      <c r="N97" s="170"/>
-      <c r="O97" s="55">
+      <c r="N97" s="181"/>
+      <c r="O97" s="51">
         <f t="shared" si="17"/>
         <v>1616.8421052631581</v>
       </c>
     </row>
     <row r="98" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D98" s="80">
+      <c r="D98" s="76">
         <v>1</v>
       </c>
-      <c r="E98" s="152">
+      <c r="E98" s="144">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="F98" s="156">
+      <c r="F98" s="148">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="G98" s="168">
+      <c r="G98" s="180">
         <f t="shared" si="22"/>
         <v>5.5</v>
       </c>
-      <c r="H98" s="170"/>
-      <c r="I98" s="186">
+      <c r="H98" s="181"/>
+      <c r="I98" s="198">
         <f t="shared" si="19"/>
         <v>5.5</v>
       </c>
-      <c r="J98" s="169"/>
-      <c r="K98" s="168">
+      <c r="J98" s="194"/>
+      <c r="K98" s="180">
         <f t="shared" si="20"/>
         <v>2.75</v>
       </c>
-      <c r="L98" s="169"/>
-      <c r="M98" s="168">
+      <c r="L98" s="194"/>
+      <c r="M98" s="180">
         <f t="shared" si="16"/>
         <v>1.4473684210526316</v>
       </c>
-      <c r="N98" s="170"/>
-      <c r="O98" s="55">
+      <c r="N98" s="181"/>
+      <c r="O98" s="51">
         <f t="shared" si="17"/>
         <v>1796.4912280701756</v>
       </c>
     </row>
     <row r="99" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D99" s="37">
+      <c r="D99" s="33">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E99" s="152">
+      <c r="E99" s="144">
         <f t="shared" si="18"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="F99" s="156">
+      <c r="F99" s="148">
         <f t="shared" si="21"/>
         <v>0.60500000000000009</v>
       </c>
-      <c r="G99" s="168">
+      <c r="G99" s="180">
         <f t="shared" si="22"/>
         <v>6.0500000000000007</v>
       </c>
-      <c r="H99" s="170"/>
-      <c r="I99" s="186">
+      <c r="H99" s="181"/>
+      <c r="I99" s="198">
         <f t="shared" si="19"/>
         <v>6.0500000000000007</v>
       </c>
-      <c r="J99" s="169"/>
-      <c r="K99" s="168">
+      <c r="J99" s="194"/>
+      <c r="K99" s="180">
         <f t="shared" si="20"/>
         <v>3.0250000000000004</v>
       </c>
-      <c r="L99" s="169"/>
-      <c r="M99" s="168">
+      <c r="L99" s="194"/>
+      <c r="M99" s="180">
         <f t="shared" si="16"/>
         <v>1.5921052631578949</v>
       </c>
-      <c r="N99" s="170"/>
-      <c r="O99" s="55">
+      <c r="N99" s="181"/>
+      <c r="O99" s="51">
         <f t="shared" si="17"/>
         <v>1976.1403508771932</v>
       </c>
     </row>
     <row r="100" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D100" s="81">
+      <c r="D100" s="77">
         <v>1.2</v>
       </c>
-      <c r="E100" s="153">
+      <c r="E100" s="145">
         <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
-      <c r="F100" s="157">
+      <c r="F100" s="149">
         <f t="shared" si="21"/>
         <v>0.72</v>
       </c>
-      <c r="G100" s="162">
+      <c r="G100" s="192">
         <f t="shared" si="22"/>
         <v>6.6</v>
       </c>
-      <c r="H100" s="164"/>
-      <c r="I100" s="215">
+      <c r="H100" s="193"/>
+      <c r="I100" s="227">
         <f t="shared" si="19"/>
         <v>6.6</v>
       </c>
-      <c r="J100" s="163"/>
-      <c r="K100" s="162">
+      <c r="J100" s="196"/>
+      <c r="K100" s="192">
         <f t="shared" si="20"/>
         <v>3.3</v>
       </c>
-      <c r="L100" s="163"/>
-      <c r="M100" s="162">
+      <c r="L100" s="196"/>
+      <c r="M100" s="192">
         <f t="shared" si="16"/>
         <v>1.7368421052631575</v>
       </c>
-      <c r="N100" s="164"/>
-      <c r="O100" s="56">
+      <c r="N100" s="193"/>
+      <c r="O100" s="52">
         <f t="shared" si="17"/>
         <v>2155.78947368421</v>
       </c>
     </row>
     <row r="102" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C102" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="104" spans="3:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D104" s="210" t="s">
+      <c r="D104" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="E104" s="213" t="s">
+      <c r="E104" s="222" t="s">
+        <v>223</v>
+      </c>
+      <c r="F104" s="223"/>
+      <c r="G104" s="224" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="225"/>
+      <c r="I104" s="225"/>
+      <c r="J104" s="226"/>
+      <c r="K104" s="25"/>
+    </row>
+    <row r="105" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="D105" s="220"/>
+      <c r="E105" s="234" t="s">
         <v>23</v>
       </c>
-      <c r="F104" s="214"/>
-      <c r="G104" s="198" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" s="196"/>
-      <c r="I104" s="196"/>
-      <c r="J104" s="199"/>
-      <c r="K104" s="29"/>
-    </row>
-    <row r="105" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D105" s="211"/>
-      <c r="E105" s="209" t="s">
+      <c r="F105" s="235"/>
+      <c r="G105" s="234" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="236"/>
+      <c r="I105" s="236" t="s">
+        <v>19</v>
+      </c>
+      <c r="J105" s="235"/>
+      <c r="K105" s="26"/>
+    </row>
+    <row r="106" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="D106" s="220"/>
+      <c r="E106" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F105" s="201"/>
-      <c r="G105" s="209" t="s">
-        <v>18</v>
-      </c>
-      <c r="H105" s="200"/>
-      <c r="I105" s="200" t="s">
-        <v>19</v>
-      </c>
-      <c r="J105" s="201"/>
-      <c r="K105" s="30"/>
-    </row>
-    <row r="106" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D106" s="211"/>
-      <c r="E106" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F106" s="13">
+      <c r="F106" s="11">
         <v>0.1</v>
       </c>
-      <c r="G106" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H106" s="11">
+      <c r="G106" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H106" s="9">
         <v>4.7</v>
       </c>
-      <c r="I106" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="J106" s="13">
+      <c r="I106" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="J106" s="11">
         <v>2.7</v>
       </c>
-      <c r="K106" s="31" t="s">
+      <c r="K106" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="107" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D107" s="212"/>
+      <c r="D107" s="221"/>
       <c r="E107" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F107" s="19">
+        <v>27</v>
+      </c>
+      <c r="F107" s="15">
         <v>10</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="H107" s="32">
+        <v>214</v>
+      </c>
+      <c r="H107" s="28">
         <v>4.7</v>
       </c>
-      <c r="I107" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="J107" s="19">
+      <c r="I107" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J107" s="15">
         <v>3</v>
       </c>
-      <c r="K107" s="34" t="s">
+      <c r="K107" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="108" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D108" s="35">
+      <c r="D108" s="31">
         <v>0</v>
       </c>
-      <c r="E108" s="206">
+      <c r="E108" s="170">
         <f>D108*F$107/(F$106+F$107)</f>
         <v>0</v>
       </c>
-      <c r="F108" s="207"/>
-      <c r="G108" s="206">
+      <c r="F108" s="171"/>
+      <c r="G108" s="170">
         <f>E108*H$107/(H$106+H$107)</f>
         <v>0</v>
       </c>
-      <c r="H108" s="208"/>
-      <c r="I108" s="208">
+      <c r="H108" s="172"/>
+      <c r="I108" s="172">
         <f>G108*J$107/(J$106+J$107)</f>
         <v>0</v>
       </c>
-      <c r="J108" s="207"/>
-      <c r="K108" s="36">
+      <c r="J108" s="171"/>
+      <c r="K108" s="32">
         <f>I108*4096/3.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D109" s="37">
+      <c r="D109" s="33">
         <v>1</v>
       </c>
-      <c r="E109" s="206">
+      <c r="E109" s="170">
         <f t="shared" ref="E109:E120" si="23">D109*F$107/(F$106+F$107)</f>
         <v>0.99009900990099009</v>
       </c>
-      <c r="F109" s="207"/>
-      <c r="G109" s="206">
+      <c r="F109" s="171"/>
+      <c r="G109" s="170">
         <f t="shared" ref="G109:G120" si="24">E109*H$107/(H$106+H$107)</f>
         <v>0.49504950495049499</v>
       </c>
-      <c r="H109" s="208"/>
-      <c r="I109" s="208">
+      <c r="H109" s="172"/>
+      <c r="I109" s="172">
         <f t="shared" ref="I109:I120" si="25">G109*J$107/(J$106+J$107)</f>
         <v>0.2605523710265763</v>
       </c>
-      <c r="J109" s="207"/>
-      <c r="K109" s="23">
+      <c r="J109" s="171"/>
+      <c r="K109" s="19">
         <f>I109*4096/3.3</f>
         <v>323.40076112874442</v>
       </c>
     </row>
     <row r="110" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D110" s="37">
+      <c r="D110" s="33">
         <v>2</v>
       </c>
-      <c r="E110" s="206">
+      <c r="E110" s="170">
         <f t="shared" si="23"/>
         <v>1.9801980198019802</v>
       </c>
-      <c r="F110" s="207"/>
-      <c r="G110" s="206">
+      <c r="F110" s="171"/>
+      <c r="G110" s="170">
         <f t="shared" si="24"/>
         <v>0.99009900990098998</v>
       </c>
-      <c r="H110" s="208"/>
-      <c r="I110" s="208">
+      <c r="H110" s="172"/>
+      <c r="I110" s="172">
         <f t="shared" si="25"/>
         <v>0.5211047420531526</v>
       </c>
-      <c r="J110" s="207"/>
-      <c r="K110" s="23">
+      <c r="J110" s="171"/>
+      <c r="K110" s="19">
         <f>I110*4096/3.3</f>
         <v>646.80152225748884</v>
       </c>
     </row>
     <row r="111" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D111" s="37">
+      <c r="D111" s="33">
         <v>3</v>
       </c>
-      <c r="E111" s="206">
+      <c r="E111" s="170">
         <f t="shared" si="23"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="F111" s="207"/>
-      <c r="G111" s="206">
+      <c r="F111" s="171"/>
+      <c r="G111" s="170">
         <f t="shared" si="24"/>
         <v>1.4851485148514851</v>
       </c>
-      <c r="H111" s="208"/>
-      <c r="I111" s="208">
+      <c r="H111" s="172"/>
+      <c r="I111" s="172">
         <f t="shared" si="25"/>
         <v>0.78165711307972907</v>
       </c>
-      <c r="J111" s="207"/>
-      <c r="K111" s="23">
+      <c r="J111" s="171"/>
+      <c r="K111" s="19">
         <f t="shared" ref="K111:K120" si="26">I111*4096/3.3</f>
         <v>970.20228338623349</v>
       </c>
     </row>
     <row r="112" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D112" s="37">
+      <c r="D112" s="33">
         <v>4</v>
       </c>
-      <c r="E112" s="206">
+      <c r="E112" s="170">
         <f t="shared" si="23"/>
         <v>3.9603960396039604</v>
       </c>
-      <c r="F112" s="207"/>
-      <c r="G112" s="206">
+      <c r="F112" s="171"/>
+      <c r="G112" s="170">
         <f t="shared" si="24"/>
         <v>1.98019801980198</v>
       </c>
-      <c r="H112" s="208"/>
-      <c r="I112" s="208">
+      <c r="H112" s="172"/>
+      <c r="I112" s="172">
         <f t="shared" si="25"/>
         <v>1.0422094841063052</v>
       </c>
-      <c r="J112" s="207"/>
-      <c r="K112" s="23">
+      <c r="J112" s="171"/>
+      <c r="K112" s="19">
         <f t="shared" si="26"/>
         <v>1293.6030445149777</v>
       </c>
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D113" s="37">
+      <c r="D113" s="33">
         <v>5</v>
       </c>
-      <c r="E113" s="206">
+      <c r="E113" s="170">
         <f t="shared" si="23"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="F113" s="207"/>
-      <c r="G113" s="206">
+      <c r="F113" s="171"/>
+      <c r="G113" s="170">
         <f t="shared" si="24"/>
         <v>2.4752475247524752</v>
       </c>
-      <c r="H113" s="208"/>
-      <c r="I113" s="208">
+      <c r="H113" s="172"/>
+      <c r="I113" s="172">
         <f t="shared" si="25"/>
         <v>1.3027618551328817</v>
       </c>
-      <c r="J113" s="207"/>
-      <c r="K113" s="23">
+      <c r="J113" s="171"/>
+      <c r="K113" s="19">
         <f t="shared" si="26"/>
         <v>1617.0038056437222</v>
       </c>
     </row>
     <row r="114" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D114" s="37">
+      <c r="D114" s="33">
         <v>6</v>
       </c>
-      <c r="E114" s="206">
+      <c r="E114" s="170">
         <f t="shared" si="23"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="F114" s="207"/>
-      <c r="G114" s="206">
+      <c r="F114" s="171"/>
+      <c r="G114" s="170">
         <f t="shared" si="24"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="H114" s="208"/>
-      <c r="I114" s="208">
+      <c r="H114" s="172"/>
+      <c r="I114" s="172">
         <f t="shared" si="25"/>
         <v>1.5633142261594581</v>
       </c>
-      <c r="J114" s="207"/>
-      <c r="K114" s="23">
+      <c r="J114" s="171"/>
+      <c r="K114" s="19">
         <f t="shared" si="26"/>
         <v>1940.404566772467</v>
       </c>
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D115" s="39">
+      <c r="D115" s="35">
         <v>7</v>
       </c>
-      <c r="E115" s="203">
+      <c r="E115" s="164">
         <f t="shared" si="23"/>
         <v>6.9306930693069306</v>
       </c>
-      <c r="F115" s="204"/>
-      <c r="G115" s="203">
+      <c r="F115" s="165"/>
+      <c r="G115" s="164">
         <f t="shared" si="24"/>
         <v>3.4653465346534649</v>
       </c>
-      <c r="H115" s="205"/>
-      <c r="I115" s="205">
+      <c r="H115" s="166"/>
+      <c r="I115" s="166">
         <f t="shared" si="25"/>
         <v>1.8238665971860342</v>
       </c>
-      <c r="J115" s="204"/>
-      <c r="K115" s="40">
+      <c r="J115" s="165"/>
+      <c r="K115" s="36">
         <f t="shared" si="26"/>
         <v>2263.8053279012111</v>
       </c>
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D116" s="39">
+      <c r="D116" s="35">
         <v>8</v>
       </c>
-      <c r="E116" s="203">
+      <c r="E116" s="164">
         <f t="shared" si="23"/>
         <v>7.9207920792079207</v>
       </c>
-      <c r="F116" s="204"/>
-      <c r="G116" s="203">
+      <c r="F116" s="165"/>
+      <c r="G116" s="164">
         <f t="shared" si="24"/>
         <v>3.9603960396039599</v>
       </c>
-      <c r="H116" s="205"/>
-      <c r="I116" s="205">
+      <c r="H116" s="166"/>
+      <c r="I116" s="166">
         <f t="shared" si="25"/>
         <v>2.0844189682126104</v>
       </c>
-      <c r="J116" s="204"/>
-      <c r="K116" s="40">
+      <c r="J116" s="165"/>
+      <c r="K116" s="36">
         <f t="shared" si="26"/>
         <v>2587.2060890299554</v>
       </c>
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D117" s="39">
+      <c r="D117" s="35">
         <v>9</v>
       </c>
-      <c r="E117" s="203">
+      <c r="E117" s="164">
         <f t="shared" si="23"/>
         <v>8.9108910891089117</v>
       </c>
-      <c r="F117" s="204"/>
-      <c r="G117" s="203">
+      <c r="F117" s="165"/>
+      <c r="G117" s="164">
         <f t="shared" si="24"/>
         <v>4.4554455445544559</v>
       </c>
-      <c r="H117" s="205"/>
-      <c r="I117" s="205">
+      <c r="H117" s="166"/>
+      <c r="I117" s="166">
         <f t="shared" si="25"/>
         <v>2.3449713392391871</v>
       </c>
-      <c r="J117" s="204"/>
-      <c r="K117" s="40">
+      <c r="J117" s="165"/>
+      <c r="K117" s="36">
         <f t="shared" si="26"/>
         <v>2910.6068501587001</v>
       </c>
     </row>
     <row r="118" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D118" s="39">
+      <c r="D118" s="35">
         <v>10</v>
       </c>
-      <c r="E118" s="203">
+      <c r="E118" s="164">
         <f t="shared" si="23"/>
         <v>9.9009900990099009</v>
       </c>
-      <c r="F118" s="204"/>
-      <c r="G118" s="203">
+      <c r="F118" s="165"/>
+      <c r="G118" s="164">
         <f t="shared" si="24"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="H118" s="205"/>
-      <c r="I118" s="205">
+      <c r="H118" s="166"/>
+      <c r="I118" s="166">
         <f t="shared" si="25"/>
         <v>2.6055237102657633</v>
       </c>
-      <c r="J118" s="204"/>
-      <c r="K118" s="40">
+      <c r="J118" s="165"/>
+      <c r="K118" s="36">
         <f t="shared" si="26"/>
         <v>3234.0076112874444</v>
       </c>
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D119" s="39">
+      <c r="D119" s="35">
         <v>11</v>
       </c>
-      <c r="E119" s="203">
+      <c r="E119" s="164">
         <f t="shared" si="23"/>
         <v>10.891089108910892</v>
       </c>
-      <c r="F119" s="204"/>
-      <c r="G119" s="203">
+      <c r="F119" s="165"/>
+      <c r="G119" s="164">
         <f t="shared" si="24"/>
         <v>5.4455445544554459</v>
       </c>
-      <c r="H119" s="205"/>
-      <c r="I119" s="205">
+      <c r="H119" s="166"/>
+      <c r="I119" s="166">
         <f t="shared" si="25"/>
         <v>2.86607608129234</v>
       </c>
-      <c r="J119" s="204"/>
-      <c r="K119" s="40">
+      <c r="J119" s="165"/>
+      <c r="K119" s="36">
         <f t="shared" si="26"/>
         <v>3557.4083724161896</v>
       </c>
     </row>
     <row r="120" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D120" s="39">
+      <c r="D120" s="35">
         <v>12</v>
       </c>
-      <c r="E120" s="192">
+      <c r="E120" s="167">
         <f t="shared" si="23"/>
         <v>11.881188118811881</v>
       </c>
-      <c r="F120" s="193"/>
-      <c r="G120" s="192">
+      <c r="F120" s="168"/>
+      <c r="G120" s="167">
         <f t="shared" si="24"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="H120" s="202"/>
-      <c r="I120" s="202">
+      <c r="H120" s="169"/>
+      <c r="I120" s="169">
         <f t="shared" si="25"/>
         <v>3.1266284523189163</v>
       </c>
-      <c r="J120" s="193"/>
-      <c r="K120" s="41">
+      <c r="J120" s="168"/>
+      <c r="K120" s="37">
         <f t="shared" si="26"/>
         <v>3880.809133544934</v>
       </c>
     </row>
     <row r="122" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C122" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="124" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D124" s="210" t="s">
+      <c r="D124" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="E124" s="213" t="s">
+      <c r="E124" s="222" t="s">
+        <v>223</v>
+      </c>
+      <c r="F124" s="223"/>
+      <c r="G124" s="224" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="225"/>
+      <c r="I124" s="225"/>
+      <c r="J124" s="226"/>
+      <c r="K124" s="25"/>
+    </row>
+    <row r="125" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="D125" s="220"/>
+      <c r="E125" s="234" t="s">
         <v>23</v>
       </c>
-      <c r="F124" s="214"/>
-      <c r="G124" s="198" t="s">
-        <v>12</v>
-      </c>
-      <c r="H124" s="196"/>
-      <c r="I124" s="196"/>
-      <c r="J124" s="199"/>
-      <c r="K124" s="29"/>
-    </row>
-    <row r="125" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D125" s="211"/>
-      <c r="E125" s="209" t="s">
+      <c r="F125" s="235"/>
+      <c r="G125" s="234" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" s="236"/>
+      <c r="I125" s="236" t="s">
+        <v>19</v>
+      </c>
+      <c r="J125" s="235"/>
+      <c r="K125" s="26"/>
+    </row>
+    <row r="126" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="D126" s="220"/>
+      <c r="E126" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="F125" s="201"/>
-      <c r="G125" s="209" t="s">
-        <v>18</v>
-      </c>
-      <c r="H125" s="200"/>
-      <c r="I125" s="200" t="s">
-        <v>19</v>
-      </c>
-      <c r="J125" s="201"/>
-      <c r="K125" s="30"/>
-    </row>
-    <row r="126" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D126" s="211"/>
-      <c r="E126" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="F126" s="13">
+      <c r="F126" s="11">
         <v>0.1</v>
       </c>
-      <c r="G126" s="124" t="s">
-        <v>224</v>
-      </c>
-      <c r="H126" s="11">
+      <c r="G126" s="116" t="s">
+        <v>218</v>
+      </c>
+      <c r="H126" s="9">
         <v>4.7</v>
       </c>
-      <c r="I126" s="125" t="s">
-        <v>226</v>
-      </c>
-      <c r="J126" s="13">
+      <c r="I126" s="117" t="s">
+        <v>220</v>
+      </c>
+      <c r="J126" s="11">
         <v>2.7</v>
       </c>
-      <c r="K126" s="31" t="s">
+      <c r="K126" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="127" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D127" s="212"/>
+      <c r="D127" s="221"/>
       <c r="E127" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F127" s="19">
+        <v>27</v>
+      </c>
+      <c r="F127" s="15">
         <v>10</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H127" s="32">
+        <v>219</v>
+      </c>
+      <c r="H127" s="28">
         <v>4.7</v>
       </c>
-      <c r="I127" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="J127" s="19">
+      <c r="I127" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J127" s="15">
         <v>3</v>
       </c>
-      <c r="K127" s="34" t="s">
+      <c r="K127" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="128" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D128" s="35">
+      <c r="D128" s="31">
         <v>0</v>
       </c>
-      <c r="E128" s="206">
+      <c r="E128" s="170">
         <f>D128*F$107/(F$106+F$107)</f>
         <v>0</v>
       </c>
-      <c r="F128" s="207"/>
-      <c r="G128" s="206">
+      <c r="F128" s="171"/>
+      <c r="G128" s="170">
         <f>E128*H$107/(H$106+H$107)</f>
         <v>0</v>
       </c>
-      <c r="H128" s="208"/>
-      <c r="I128" s="208">
+      <c r="H128" s="172"/>
+      <c r="I128" s="172">
         <f>G128*J$107/(J$106+J$107)</f>
         <v>0</v>
       </c>
-      <c r="J128" s="207"/>
-      <c r="K128" s="36">
+      <c r="J128" s="171"/>
+      <c r="K128" s="32">
         <f>I128*4096/3.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D129" s="37">
+      <c r="D129" s="33">
         <v>1</v>
       </c>
-      <c r="E129" s="206">
+      <c r="E129" s="170">
         <f t="shared" ref="E129:E140" si="27">D129*F$107/(F$106+F$107)</f>
         <v>0.99009900990099009</v>
       </c>
-      <c r="F129" s="207"/>
-      <c r="G129" s="206">
+      <c r="F129" s="171"/>
+      <c r="G129" s="170">
         <f t="shared" ref="G129:G140" si="28">E129*H$107/(H$106+H$107)</f>
         <v>0.49504950495049499</v>
       </c>
-      <c r="H129" s="208"/>
-      <c r="I129" s="208">
+      <c r="H129" s="172"/>
+      <c r="I129" s="172">
         <f t="shared" ref="I129:I140" si="29">G129*J$107/(J$106+J$107)</f>
         <v>0.2605523710265763</v>
       </c>
-      <c r="J129" s="207"/>
-      <c r="K129" s="23">
+      <c r="J129" s="171"/>
+      <c r="K129" s="19">
         <f>I129*4096/3.3</f>
         <v>323.40076112874442</v>
       </c>
     </row>
     <row r="130" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D130" s="37">
+      <c r="D130" s="33">
         <v>2</v>
       </c>
-      <c r="E130" s="206">
+      <c r="E130" s="170">
         <f t="shared" si="27"/>
         <v>1.9801980198019802</v>
       </c>
-      <c r="F130" s="207"/>
-      <c r="G130" s="206">
+      <c r="F130" s="171"/>
+      <c r="G130" s="170">
         <f t="shared" si="28"/>
         <v>0.99009900990098998</v>
       </c>
-      <c r="H130" s="208"/>
-      <c r="I130" s="208">
+      <c r="H130" s="172"/>
+      <c r="I130" s="172">
         <f t="shared" si="29"/>
         <v>0.5211047420531526</v>
       </c>
-      <c r="J130" s="207"/>
-      <c r="K130" s="23">
+      <c r="J130" s="171"/>
+      <c r="K130" s="19">
         <f>I130*4096/3.3</f>
         <v>646.80152225748884</v>
       </c>
     </row>
     <row r="131" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D131" s="37">
+      <c r="D131" s="33">
         <v>3</v>
       </c>
-      <c r="E131" s="206">
+      <c r="E131" s="170">
         <f t="shared" si="27"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="F131" s="207"/>
-      <c r="G131" s="206">
+      <c r="F131" s="171"/>
+      <c r="G131" s="170">
         <f t="shared" si="28"/>
         <v>1.4851485148514851</v>
       </c>
-      <c r="H131" s="208"/>
-      <c r="I131" s="208">
+      <c r="H131" s="172"/>
+      <c r="I131" s="172">
         <f t="shared" si="29"/>
         <v>0.78165711307972907</v>
       </c>
-      <c r="J131" s="207"/>
-      <c r="K131" s="23">
+      <c r="J131" s="171"/>
+      <c r="K131" s="19">
         <f t="shared" ref="K131:K140" si="30">I131*4096/3.3</f>
         <v>970.20228338623349</v>
       </c>
     </row>
     <row r="132" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D132" s="37">
+      <c r="D132" s="33">
         <v>4</v>
       </c>
-      <c r="E132" s="206">
+      <c r="E132" s="170">
         <f t="shared" si="27"/>
         <v>3.9603960396039604</v>
       </c>
-      <c r="F132" s="207"/>
-      <c r="G132" s="206">
+      <c r="F132" s="171"/>
+      <c r="G132" s="170">
         <f t="shared" si="28"/>
         <v>1.98019801980198</v>
       </c>
-      <c r="H132" s="208"/>
-      <c r="I132" s="208">
+      <c r="H132" s="172"/>
+      <c r="I132" s="172">
         <f t="shared" si="29"/>
         <v>1.0422094841063052</v>
       </c>
-      <c r="J132" s="207"/>
-      <c r="K132" s="23">
+      <c r="J132" s="171"/>
+      <c r="K132" s="19">
         <f t="shared" si="30"/>
         <v>1293.6030445149777</v>
       </c>
     </row>
     <row r="133" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D133" s="37">
+      <c r="D133" s="33">
         <v>5</v>
       </c>
-      <c r="E133" s="206">
+      <c r="E133" s="170">
         <f t="shared" si="27"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="F133" s="207"/>
-      <c r="G133" s="206">
+      <c r="F133" s="171"/>
+      <c r="G133" s="170">
         <f t="shared" si="28"/>
         <v>2.4752475247524752</v>
       </c>
-      <c r="H133" s="208"/>
-      <c r="I133" s="208">
+      <c r="H133" s="172"/>
+      <c r="I133" s="172">
         <f t="shared" si="29"/>
         <v>1.3027618551328817</v>
       </c>
-      <c r="J133" s="207"/>
-      <c r="K133" s="23">
+      <c r="J133" s="171"/>
+      <c r="K133" s="19">
         <f t="shared" si="30"/>
         <v>1617.0038056437222</v>
       </c>
     </row>
     <row r="134" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D134" s="37">
+      <c r="D134" s="33">
         <v>6</v>
       </c>
-      <c r="E134" s="206">
+      <c r="E134" s="170">
         <f t="shared" si="27"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="F134" s="207"/>
-      <c r="G134" s="206">
+      <c r="F134" s="171"/>
+      <c r="G134" s="170">
         <f t="shared" si="28"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="H134" s="208"/>
-      <c r="I134" s="208">
+      <c r="H134" s="172"/>
+      <c r="I134" s="172">
         <f t="shared" si="29"/>
         <v>1.5633142261594581</v>
       </c>
-      <c r="J134" s="207"/>
-      <c r="K134" s="23">
+      <c r="J134" s="171"/>
+      <c r="K134" s="19">
         <f t="shared" si="30"/>
         <v>1940.404566772467</v>
       </c>
     </row>
     <row r="135" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D135" s="39">
+      <c r="D135" s="35">
         <v>7</v>
       </c>
-      <c r="E135" s="203">
+      <c r="E135" s="164">
         <f t="shared" si="27"/>
         <v>6.9306930693069306</v>
       </c>
-      <c r="F135" s="204"/>
-      <c r="G135" s="203">
+      <c r="F135" s="165"/>
+      <c r="G135" s="164">
         <f t="shared" si="28"/>
         <v>3.4653465346534649</v>
       </c>
-      <c r="H135" s="205"/>
-      <c r="I135" s="205">
+      <c r="H135" s="166"/>
+      <c r="I135" s="166">
         <f t="shared" si="29"/>
         <v>1.8238665971860342</v>
       </c>
-      <c r="J135" s="204"/>
-      <c r="K135" s="40">
+      <c r="J135" s="165"/>
+      <c r="K135" s="36">
         <f t="shared" si="30"/>
         <v>2263.8053279012111</v>
       </c>
     </row>
     <row r="136" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D136" s="39">
+      <c r="D136" s="35">
         <v>8</v>
       </c>
-      <c r="E136" s="203">
+      <c r="E136" s="164">
         <f t="shared" si="27"/>
         <v>7.9207920792079207</v>
       </c>
-      <c r="F136" s="204"/>
-      <c r="G136" s="203">
+      <c r="F136" s="165"/>
+      <c r="G136" s="164">
         <f t="shared" si="28"/>
         <v>3.9603960396039599</v>
       </c>
-      <c r="H136" s="205"/>
-      <c r="I136" s="205">
+      <c r="H136" s="166"/>
+      <c r="I136" s="166">
         <f t="shared" si="29"/>
         <v>2.0844189682126104</v>
       </c>
-      <c r="J136" s="204"/>
-      <c r="K136" s="40">
+      <c r="J136" s="165"/>
+      <c r="K136" s="36">
         <f t="shared" si="30"/>
         <v>2587.2060890299554</v>
       </c>
     </row>
     <row r="137" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D137" s="39">
+      <c r="D137" s="35">
         <v>9</v>
       </c>
-      <c r="E137" s="203">
+      <c r="E137" s="164">
         <f t="shared" si="27"/>
         <v>8.9108910891089117</v>
       </c>
-      <c r="F137" s="204"/>
-      <c r="G137" s="203">
+      <c r="F137" s="165"/>
+      <c r="G137" s="164">
         <f t="shared" si="28"/>
         <v>4.4554455445544559</v>
       </c>
-      <c r="H137" s="205"/>
-      <c r="I137" s="205">
+      <c r="H137" s="166"/>
+      <c r="I137" s="166">
         <f t="shared" si="29"/>
         <v>2.3449713392391871</v>
       </c>
-      <c r="J137" s="204"/>
-      <c r="K137" s="40">
+      <c r="J137" s="165"/>
+      <c r="K137" s="36">
         <f t="shared" si="30"/>
         <v>2910.6068501587001</v>
       </c>
     </row>
     <row r="138" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D138" s="39">
+      <c r="D138" s="35">
         <v>10</v>
       </c>
-      <c r="E138" s="203">
+      <c r="E138" s="164">
         <f t="shared" si="27"/>
         <v>9.9009900990099009</v>
       </c>
-      <c r="F138" s="204"/>
-      <c r="G138" s="203">
+      <c r="F138" s="165"/>
+      <c r="G138" s="164">
         <f t="shared" si="28"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="H138" s="205"/>
-      <c r="I138" s="205">
+      <c r="H138" s="166"/>
+      <c r="I138" s="166">
         <f t="shared" si="29"/>
         <v>2.6055237102657633</v>
       </c>
-      <c r="J138" s="204"/>
-      <c r="K138" s="40">
+      <c r="J138" s="165"/>
+      <c r="K138" s="36">
         <f t="shared" si="30"/>
         <v>3234.0076112874444</v>
       </c>
     </row>
     <row r="139" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D139" s="39">
+      <c r="D139" s="35">
         <v>11</v>
       </c>
-      <c r="E139" s="203">
+      <c r="E139" s="164">
         <f t="shared" si="27"/>
         <v>10.891089108910892</v>
       </c>
-      <c r="F139" s="204"/>
-      <c r="G139" s="203">
+      <c r="F139" s="165"/>
+      <c r="G139" s="164">
         <f t="shared" si="28"/>
         <v>5.4455445544554459</v>
       </c>
-      <c r="H139" s="205"/>
-      <c r="I139" s="205">
+      <c r="H139" s="166"/>
+      <c r="I139" s="166">
         <f t="shared" si="29"/>
         <v>2.86607608129234</v>
       </c>
-      <c r="J139" s="204"/>
-      <c r="K139" s="40">
+      <c r="J139" s="165"/>
+      <c r="K139" s="36">
         <f t="shared" si="30"/>
         <v>3557.4083724161896</v>
       </c>
     </row>
     <row r="140" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D140" s="39">
+      <c r="D140" s="35">
         <v>12</v>
       </c>
-      <c r="E140" s="192">
+      <c r="E140" s="167">
         <f t="shared" si="27"/>
         <v>11.881188118811881</v>
       </c>
-      <c r="F140" s="193"/>
-      <c r="G140" s="192">
+      <c r="F140" s="168"/>
+      <c r="G140" s="167">
         <f t="shared" si="28"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="H140" s="202"/>
-      <c r="I140" s="202">
+      <c r="H140" s="169"/>
+      <c r="I140" s="169">
         <f t="shared" si="29"/>
         <v>3.1266284523189163</v>
       </c>
-      <c r="J140" s="193"/>
-      <c r="K140" s="41">
+      <c r="J140" s="168"/>
+      <c r="K140" s="37">
         <f t="shared" si="30"/>
         <v>3880.809133544934</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="274">
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="I138:J138"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="E84:J84"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="I95:J95"/>
     <mergeCell ref="E128:F128"/>
     <mergeCell ref="G128:H128"/>
     <mergeCell ref="I128:J128"/>
@@ -6369,6 +7224,55 @@
     <mergeCell ref="G94:H94"/>
     <mergeCell ref="G95:H95"/>
     <mergeCell ref="G96:H96"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
     <mergeCell ref="G97:H97"/>
     <mergeCell ref="G98:H98"/>
     <mergeCell ref="G99:H99"/>
@@ -6378,41 +7282,163 @@
     <mergeCell ref="G90:H90"/>
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="G92:H92"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="I138:J138"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6425,7 +7451,7 @@
   <dimension ref="B3:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="L22" sqref="L22:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6436,49 +7462,49 @@
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="41">
+        <v>3435</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>89</v>
-      </c>
-      <c r="E5" s="45">
-        <v>3435</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="29">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="E6" s="33">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -6487,8 +7513,8 @@
     <row r="8" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="85" t="s">
-        <v>94</v>
+      <c r="D8" s="81" t="s">
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -6496,8 +7522,8 @@
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="85" t="s">
-        <v>95</v>
+      <c r="D9" s="81" t="s">
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -6505,8 +7531,8 @@
     <row r="10" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="98" t="s">
-        <v>111</v>
+      <c r="D10" s="90" t="s">
+        <v>105</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -6516,20 +7542,20 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="263" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="264"/>
-      <c r="H11" s="264"/>
-      <c r="I11" s="265"/>
-      <c r="J11" s="189" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="190"/>
-      <c r="L11" s="190"/>
-      <c r="M11" s="191"/>
-      <c r="N11" s="86" t="s">
-        <v>37</v>
+      <c r="F11" s="248" t="s">
+        <v>222</v>
+      </c>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="250"/>
+      <c r="J11" s="173" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="176"/>
+      <c r="N11" s="82" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.4">
@@ -6537,27 +7563,27 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="273">
         <v>12</v>
       </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="6" t="s">
+      <c r="H12" s="274"/>
+      <c r="I12" s="274"/>
+      <c r="J12" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="273">
         <v>5</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="273">
         <v>3.3</v>
       </c>
-      <c r="N12" s="88" t="s">
+      <c r="N12" s="275" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6566,32 +7592,32 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="F13" s="123" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="159">
         <v>2</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="13">
+      <c r="H13" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="159">
         <v>0.47</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K13" s="13">
+      <c r="J13" s="123" t="s">
+        <v>226</v>
+      </c>
+      <c r="K13" s="159">
         <v>2</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="M13" s="13">
+      <c r="L13" s="123" t="s">
+        <v>224</v>
+      </c>
+      <c r="M13" s="159">
         <v>2.7</v>
       </c>
-      <c r="N13" s="89" t="s">
-        <v>92</v>
+      <c r="N13" s="276" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6599,1055 +7625,1113 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="17">
+      <c r="F14" s="124" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="160">
         <v>2</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="160">
         <v>47</v>
       </c>
-      <c r="I14" s="17">
-        <v>47</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" s="17">
+      <c r="J14" s="124" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="160">
         <v>20</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="17">
+      <c r="L14" s="124" t="s">
+        <v>225</v>
+      </c>
+      <c r="M14" s="160">
         <v>3</v>
       </c>
-      <c r="N14" s="90" t="s">
-        <v>92</v>
+      <c r="N14" s="277" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="173" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="G15" s="174"/>
+      <c r="H15" s="249" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="189" t="s">
+      <c r="I15" s="250"/>
+      <c r="J15" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="216"/>
-      <c r="H15" s="264" t="s">
+      <c r="K15" s="176"/>
+      <c r="L15" s="205" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="265"/>
-      <c r="J15" s="189" t="s">
-        <v>105</v>
-      </c>
-      <c r="K15" s="191"/>
-      <c r="L15" s="229" t="s">
-        <v>106</v>
-      </c>
-      <c r="M15" s="190"/>
-      <c r="N15" s="91"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="83"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="47">
+      <c r="D16" s="43">
         <v>0</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="44">
         <f t="shared" ref="E16:E43" si="0">10*EXP(E$5*(1/(D16+273)-1/(25+273)))</f>
         <v>28.736182350842125</v>
       </c>
-      <c r="F16" s="206">
-        <f t="shared" ref="F16:F43" si="1">G$12*G$14/(G$13+$E16+G$14)</f>
+      <c r="F16" s="170">
+        <f>G$12*G$14/(G$13+$E16+G$14)</f>
         <v>0.7331337461034948</v>
       </c>
-      <c r="G16" s="233"/>
-      <c r="H16" s="206">
+      <c r="G16" s="195"/>
+      <c r="H16" s="170">
         <f>F16*I$14/(I$13/2+I$14)</f>
         <v>0.72948631453084067</v>
       </c>
-      <c r="I16" s="233"/>
-      <c r="J16" s="206">
-        <f>F16*K$14/(K$13+K$14)</f>
-        <v>0.66648522373044983</v>
-      </c>
-      <c r="K16" s="207"/>
-      <c r="L16" s="262">
-        <f t="shared" ref="L16:L43" si="2">J16*M$14/(M$13+M$14)</f>
-        <v>0.35078169670023673</v>
-      </c>
-      <c r="M16" s="208"/>
-      <c r="N16" s="36">
+      <c r="I16" s="195"/>
+      <c r="J16" s="170">
+        <f>H16*K$14/(K$13+K$14)</f>
+        <v>0.66316937684621879</v>
+      </c>
+      <c r="K16" s="171"/>
+      <c r="L16" s="251">
+        <f>J16*M$14/(M$13+M$14)</f>
+        <v>0.3490365141295888</v>
+      </c>
+      <c r="M16" s="172"/>
+      <c r="N16" s="32">
         <f>L16*4096/3.3</f>
-        <v>435.39449384368783</v>
+        <v>433.22835208327149</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>5</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="18">
         <f t="shared" si="0"/>
         <v>22.916440146739884</v>
       </c>
-      <c r="F17" s="168">
-        <f t="shared" si="1"/>
+      <c r="F17" s="180">
+        <f t="shared" ref="F16:F43" si="1">G$12*G$14/(G$13+$E17+G$14)</f>
         <v>0.89164837062998015</v>
       </c>
-      <c r="G17" s="169"/>
-      <c r="H17" s="206">
-        <f t="shared" ref="H17:H43" si="3">F17*I$14/(I$13/2+I$14)</f>
+      <c r="G17" s="194"/>
+      <c r="H17" s="170">
+        <f t="shared" ref="H17:H43" si="2">F17*I$14/(I$13/2+I$14)</f>
         <v>0.88721230908455739</v>
       </c>
-      <c r="I17" s="233"/>
-      <c r="J17" s="168">
-        <f t="shared" ref="J17:J43" si="4">F17*K$14/(K$13+K$14)</f>
-        <v>0.81058942784543653</v>
-      </c>
-      <c r="K17" s="170"/>
-      <c r="L17" s="186">
-        <f t="shared" si="2"/>
-        <v>0.42662601465549288</v>
-      </c>
-      <c r="M17" s="188"/>
-      <c r="N17" s="36">
+      <c r="I17" s="195"/>
+      <c r="J17" s="170">
+        <f t="shared" ref="J17:J43" si="3">H17*K$14/(K$13+K$14)</f>
+        <v>0.80655664462232479</v>
+      </c>
+      <c r="K17" s="171"/>
+      <c r="L17" s="198">
+        <f t="shared" ref="L16:L43" si="4">J17*M$14/(M$13+M$14)</f>
+        <v>0.42450349716964458</v>
+      </c>
+      <c r="M17" s="199"/>
+      <c r="N17" s="32">
         <f t="shared" ref="N17:N43" si="5">L17*4096/3.3</f>
-        <v>529.53338061481782</v>
+        <v>526.8988861838983</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>10</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="18">
         <f t="shared" si="0"/>
         <v>18.422056005235852</v>
       </c>
-      <c r="F18" s="168">
+      <c r="F18" s="180">
         <f t="shared" si="1"/>
         <v>1.0703746344401102</v>
       </c>
-      <c r="G18" s="169"/>
-      <c r="H18" s="206">
+      <c r="G18" s="194"/>
+      <c r="H18" s="170">
+        <f t="shared" si="2"/>
+        <v>1.0650493875025973</v>
+      </c>
+      <c r="I18" s="195"/>
+      <c r="J18" s="170">
         <f t="shared" si="3"/>
-        <v>1.0650493875025973</v>
-      </c>
-      <c r="I18" s="233"/>
-      <c r="J18" s="168">
+        <v>0.96822671591145204</v>
+      </c>
+      <c r="K18" s="171"/>
+      <c r="L18" s="198">
         <f t="shared" si="4"/>
-        <v>0.97306784949100933</v>
-      </c>
-      <c r="K18" s="170"/>
-      <c r="L18" s="186">
-        <f t="shared" si="2"/>
-        <v>0.5121409734163207</v>
-      </c>
-      <c r="M18" s="188"/>
-      <c r="N18" s="36">
+        <v>0.50959300837444843</v>
+      </c>
+      <c r="M18" s="199"/>
+      <c r="N18" s="32">
         <f t="shared" si="5"/>
-        <v>635.67558397371204</v>
+        <v>632.51301887931538</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <v>15</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="18">
         <f t="shared" si="0"/>
         <v>14.921793401776517</v>
       </c>
-      <c r="F19" s="168">
+      <c r="F19" s="180">
         <f t="shared" si="1"/>
         <v>1.2683787149767052</v>
       </c>
-      <c r="G19" s="169"/>
-      <c r="H19" s="206">
+      <c r="G19" s="194"/>
+      <c r="H19" s="170">
+        <f t="shared" si="2"/>
+        <v>1.2620683731111495</v>
+      </c>
+      <c r="I19" s="195"/>
+      <c r="J19" s="170">
         <f t="shared" si="3"/>
-        <v>1.2620683731111495</v>
-      </c>
-      <c r="I19" s="233"/>
-      <c r="J19" s="168">
+        <v>1.1473348846464995</v>
+      </c>
+      <c r="K19" s="171"/>
+      <c r="L19" s="198">
         <f t="shared" si="4"/>
-        <v>1.153071559069732</v>
-      </c>
-      <c r="K19" s="170"/>
-      <c r="L19" s="186">
-        <f t="shared" si="2"/>
-        <v>0.60687976793143794</v>
-      </c>
-      <c r="M19" s="188"/>
-      <c r="N19" s="36">
+        <v>0.60386046560342077</v>
+      </c>
+      <c r="M19" s="199"/>
+      <c r="N19" s="32">
         <f t="shared" si="5"/>
-        <v>753.26652407489996</v>
+        <v>749.51892942776112</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>20</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="18">
         <f t="shared" si="0"/>
         <v>12.173834597770357</v>
       </c>
-      <c r="F20" s="168">
+      <c r="F20" s="180">
         <f t="shared" si="1"/>
         <v>1.4838781647555934</v>
       </c>
-      <c r="G20" s="169"/>
-      <c r="H20" s="206">
+      <c r="G20" s="194"/>
+      <c r="H20" s="170">
+        <f t="shared" si="2"/>
+        <v>1.4764956863239738</v>
+      </c>
+      <c r="I20" s="195"/>
+      <c r="J20" s="170">
         <f t="shared" si="3"/>
-        <v>1.4764956863239738</v>
-      </c>
-      <c r="I20" s="233"/>
-      <c r="J20" s="168">
+        <v>1.342268805749067</v>
+      </c>
+      <c r="K20" s="171"/>
+      <c r="L20" s="198">
         <f t="shared" si="4"/>
-        <v>1.3489801497778122</v>
-      </c>
-      <c r="K20" s="170"/>
-      <c r="L20" s="186">
-        <f t="shared" si="2"/>
-        <v>0.70998955251463791</v>
-      </c>
-      <c r="M20" s="188"/>
-      <c r="N20" s="36">
+        <v>0.7064572661837194</v>
+      </c>
+      <c r="M20" s="199"/>
+      <c r="N20" s="32">
         <f t="shared" si="5"/>
-        <v>881.24763851513853</v>
+        <v>876.86332190561052</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>25</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F21" s="168">
+      <c r="F21" s="180">
         <f t="shared" si="1"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="G21" s="169"/>
-      <c r="H21" s="206">
+      <c r="G21" s="194"/>
+      <c r="H21" s="170">
+        <f t="shared" si="2"/>
+        <v>1.7057569296375266</v>
+      </c>
+      <c r="I21" s="195"/>
+      <c r="J21" s="170">
         <f t="shared" si="3"/>
-        <v>1.7057569296375266</v>
-      </c>
-      <c r="I21" s="233"/>
-      <c r="J21" s="168">
+        <v>1.5506881178522969</v>
+      </c>
+      <c r="K21" s="171"/>
+      <c r="L21" s="198">
         <f t="shared" si="4"/>
-        <v>1.5584415584415583</v>
-      </c>
-      <c r="K21" s="170"/>
-      <c r="L21" s="186">
-        <f t="shared" si="2"/>
-        <v>0.82023239917976754</v>
-      </c>
-      <c r="M21" s="188"/>
-      <c r="N21" s="36">
+        <v>0.81615164097489312</v>
+      </c>
+      <c r="M21" s="199"/>
+      <c r="N21" s="32">
         <f t="shared" si="5"/>
-        <v>1018.0823960728267</v>
+        <v>1013.0173095252007</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <v>30</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="18">
         <f t="shared" si="0"/>
         <v>8.2678385850558751</v>
       </c>
-      <c r="F22" s="168">
+      <c r="F22" s="180">
         <f t="shared" si="1"/>
         <v>1.9563348371110549</v>
       </c>
-      <c r="G22" s="169"/>
-      <c r="H22" s="206">
+      <c r="G22" s="194"/>
+      <c r="H22" s="170">
+        <f t="shared" si="2"/>
+        <v>1.9466018279711987</v>
+      </c>
+      <c r="I22" s="195"/>
+      <c r="J22" s="170">
         <f t="shared" si="3"/>
-        <v>1.9466018279711987</v>
-      </c>
-      <c r="I22" s="233"/>
-      <c r="J22" s="168">
+        <v>1.7696380254283626</v>
+      </c>
+      <c r="K22" s="171"/>
+      <c r="L22" s="198">
         <f t="shared" si="4"/>
-        <v>1.7784862155555046</v>
-      </c>
-      <c r="K22" s="170"/>
-      <c r="L22" s="186">
-        <f t="shared" si="2"/>
-        <v>0.93604537660816023</v>
-      </c>
-      <c r="M22" s="188"/>
-      <c r="N22" s="36">
+        <v>0.93138843443598029</v>
+      </c>
+      <c r="M22" s="199"/>
+      <c r="N22" s="32">
         <f t="shared" si="5"/>
-        <v>1161.8308674506136</v>
+        <v>1156.05061437872</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <v>35</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="18">
         <f t="shared" si="0"/>
         <v>6.8780615308459092</v>
       </c>
-      <c r="F23" s="168">
+      <c r="F23" s="180">
         <f t="shared" si="1"/>
         <v>2.2062754408904039</v>
       </c>
-      <c r="G23" s="169"/>
-      <c r="H23" s="206">
+      <c r="G23" s="194"/>
+      <c r="H23" s="170">
+        <f t="shared" si="2"/>
+        <v>2.195298946159606</v>
+      </c>
+      <c r="I23" s="195"/>
+      <c r="J23" s="170">
         <f t="shared" si="3"/>
-        <v>2.195298946159606</v>
-      </c>
-      <c r="I23" s="233"/>
-      <c r="J23" s="168">
+        <v>1.9957263146905511</v>
+      </c>
+      <c r="K23" s="171"/>
+      <c r="L23" s="198">
         <f t="shared" si="4"/>
-        <v>2.0057049462640038</v>
-      </c>
-      <c r="K23" s="170"/>
-      <c r="L23" s="186">
-        <f t="shared" si="2"/>
-        <v>1.0556341822442126</v>
-      </c>
-      <c r="M23" s="188"/>
-      <c r="N23" s="36">
+        <v>1.0503822708897637</v>
+      </c>
+      <c r="M23" s="199"/>
+      <c r="N23" s="32">
         <f t="shared" si="5"/>
-        <v>1310.2659425673621</v>
+        <v>1303.7472065346885</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="15">
+      <c r="D24" s="13">
         <v>40</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="18">
         <f t="shared" si="0"/>
         <v>5.7556406120696577</v>
       </c>
-      <c r="F24" s="168">
+      <c r="F24" s="180">
         <f t="shared" si="1"/>
         <v>2.4601152250634621</v>
       </c>
-      <c r="G24" s="169"/>
-      <c r="H24" s="206">
+      <c r="G24" s="194"/>
+      <c r="H24" s="170">
+        <f t="shared" si="2"/>
+        <v>2.4478758458342909</v>
+      </c>
+      <c r="I24" s="195"/>
+      <c r="J24" s="170">
         <f t="shared" si="3"/>
-        <v>2.4478758458342909</v>
-      </c>
-      <c r="I24" s="233"/>
-      <c r="J24" s="168">
+        <v>2.2253416780311737</v>
+      </c>
+      <c r="K24" s="171"/>
+      <c r="L24" s="198">
         <f t="shared" si="4"/>
-        <v>2.2364683864213291</v>
-      </c>
-      <c r="K24" s="170"/>
-      <c r="L24" s="186">
-        <f t="shared" si="2"/>
-        <v>1.1770886244322785</v>
-      </c>
-      <c r="M24" s="188"/>
-      <c r="N24" s="36">
+        <v>1.1712324621216703</v>
+      </c>
+      <c r="M24" s="199"/>
+      <c r="N24" s="32">
         <f t="shared" si="5"/>
-        <v>1461.0166683862462</v>
+        <v>1453.747928742534</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="15">
+      <c r="D25" s="13">
         <v>45</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="18">
         <f t="shared" si="0"/>
         <v>4.8434450167968297</v>
       </c>
-      <c r="F25" s="168">
+      <c r="F25" s="180">
         <f t="shared" si="1"/>
         <v>2.7138745086802158</v>
       </c>
-      <c r="G25" s="169"/>
-      <c r="H25" s="206">
+      <c r="G25" s="194"/>
+      <c r="H25" s="170">
+        <f t="shared" si="2"/>
+        <v>2.7003726454529509</v>
+      </c>
+      <c r="I25" s="195"/>
+      <c r="J25" s="170">
         <f t="shared" si="3"/>
-        <v>2.7003726454529509</v>
-      </c>
-      <c r="I25" s="233"/>
-      <c r="J25" s="168">
+        <v>2.4548842231390462</v>
+      </c>
+      <c r="K25" s="171"/>
+      <c r="L25" s="198">
         <f t="shared" si="4"/>
-        <v>2.467158644254742</v>
-      </c>
-      <c r="K25" s="170"/>
-      <c r="L25" s="186">
-        <f t="shared" si="2"/>
-        <v>1.298504549607759</v>
-      </c>
-      <c r="M25" s="188"/>
-      <c r="N25" s="36">
+        <v>1.292044327967919</v>
+      </c>
+      <c r="M25" s="199"/>
+      <c r="N25" s="32">
         <f t="shared" si="5"/>
-        <v>1611.7195864222367</v>
+        <v>1603.7010810171505</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="15">
+      <c r="D26" s="13">
         <v>50</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="18">
         <f t="shared" si="0"/>
         <v>4.0976530296287903</v>
       </c>
-      <c r="F26" s="168">
+      <c r="F26" s="180">
         <f t="shared" si="1"/>
         <v>2.9638217286151365</v>
       </c>
-      <c r="G26" s="169"/>
-      <c r="H26" s="206">
+      <c r="G26" s="194"/>
+      <c r="H26" s="170">
+        <f t="shared" si="2"/>
+        <v>2.9490763468807328</v>
+      </c>
+      <c r="I26" s="195"/>
+      <c r="J26" s="170">
         <f t="shared" si="3"/>
-        <v>2.9490763468807328</v>
-      </c>
-      <c r="I26" s="233"/>
-      <c r="J26" s="168">
+        <v>2.6809784971643027</v>
+      </c>
+      <c r="K26" s="171"/>
+      <c r="L26" s="198">
         <f t="shared" si="4"/>
-        <v>2.6943833896501244</v>
-      </c>
-      <c r="K26" s="170"/>
-      <c r="L26" s="186">
-        <f t="shared" si="2"/>
-        <v>1.4180965208684866</v>
-      </c>
-      <c r="M26" s="188"/>
-      <c r="N26" s="36">
+        <v>1.4110413142970015</v>
+      </c>
+      <c r="M26" s="199"/>
+      <c r="N26" s="32">
         <f t="shared" si="5"/>
-        <v>1760.1585907507035</v>
+        <v>1751.4015828365207</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="15">
+      <c r="D27" s="13">
         <v>55</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="18">
         <f t="shared" si="0"/>
         <v>3.4844159169752453</v>
       </c>
-      <c r="F27" s="168">
+      <c r="F27" s="180">
         <f t="shared" si="1"/>
         <v>3.2066630537683118</v>
       </c>
-      <c r="G27" s="169"/>
-      <c r="H27" s="206">
+      <c r="G27" s="194"/>
+      <c r="H27" s="170">
+        <f t="shared" si="2"/>
+        <v>3.190709506237126</v>
+      </c>
+      <c r="I27" s="195"/>
+      <c r="J27" s="170">
         <f t="shared" si="3"/>
-        <v>3.190709506237126</v>
-      </c>
-      <c r="I27" s="233"/>
-      <c r="J27" s="168">
+        <v>2.9006450056701145</v>
+      </c>
+      <c r="K27" s="171"/>
+      <c r="L27" s="198">
         <f t="shared" si="4"/>
-        <v>2.9151482306984651</v>
-      </c>
-      <c r="K27" s="170"/>
-      <c r="L27" s="186">
-        <f t="shared" si="2"/>
-        <v>1.5342885424728763</v>
-      </c>
-      <c r="M27" s="188"/>
-      <c r="N27" s="36">
+        <v>1.5266552661421655</v>
+      </c>
+      <c r="M27" s="199"/>
+      <c r="N27" s="32">
         <f t="shared" si="5"/>
-        <v>1904.3775363542127</v>
+        <v>1894.9030212479729</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="15">
+      <c r="D28" s="13">
         <v>60</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="18">
         <f t="shared" si="0"/>
         <v>2.9774129048675317</v>
       </c>
-      <c r="F28" s="168">
+      <c r="F28" s="180">
         <f t="shared" si="1"/>
         <v>3.4396703086407996</v>
       </c>
-      <c r="G28" s="169"/>
-      <c r="H28" s="206">
+      <c r="G28" s="194"/>
+      <c r="H28" s="170">
+        <f t="shared" si="2"/>
+        <v>3.4225575210356212</v>
+      </c>
+      <c r="I28" s="195"/>
+      <c r="J28" s="170">
         <f t="shared" si="3"/>
-        <v>3.4225575210356212</v>
-      </c>
-      <c r="I28" s="233"/>
-      <c r="J28" s="168">
+        <v>3.1114159282142011</v>
+      </c>
+      <c r="K28" s="171"/>
+      <c r="L28" s="198">
         <f t="shared" si="4"/>
-        <v>3.1269730078552724</v>
-      </c>
-      <c r="K28" s="170"/>
-      <c r="L28" s="186">
-        <f t="shared" si="2"/>
-        <v>1.6457752672922485</v>
-      </c>
-      <c r="M28" s="188"/>
-      <c r="N28" s="36">
+        <v>1.6375873306390532</v>
+      </c>
+      <c r="M28" s="199"/>
+      <c r="N28" s="32">
         <f t="shared" si="5"/>
-        <v>2042.7562105542577</v>
+        <v>2032.5932443325946</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="26">
+      <c r="D29" s="22">
         <v>65</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="21">
         <f t="shared" si="0"/>
         <v>2.5560455288640753</v>
       </c>
-      <c r="F29" s="234">
+      <c r="F29" s="184">
         <f t="shared" si="1"/>
         <v>3.6607433390045916</v>
       </c>
-      <c r="G29" s="257"/>
-      <c r="H29" s="258">
+      <c r="G29" s="258"/>
+      <c r="H29" s="259">
+        <f t="shared" si="2"/>
+        <v>3.6425306855767081</v>
+      </c>
+      <c r="I29" s="260"/>
+      <c r="J29" s="259">
         <f t="shared" si="3"/>
-        <v>3.6425306855767081</v>
-      </c>
-      <c r="I29" s="259"/>
-      <c r="J29" s="234">
+        <v>3.3113915323424621</v>
+      </c>
+      <c r="K29" s="278"/>
+      <c r="L29" s="261">
         <f t="shared" si="4"/>
-        <v>3.3279484900041738</v>
-      </c>
-      <c r="K29" s="235"/>
-      <c r="L29" s="260">
-        <f t="shared" si="2"/>
-        <v>1.7515518368443019</v>
-      </c>
-      <c r="M29" s="261"/>
-      <c r="N29" s="97">
+        <v>1.7428376486012958</v>
+      </c>
+      <c r="M29" s="262"/>
+      <c r="N29" s="89">
         <f t="shared" si="5"/>
-        <v>2174.0473708225036</v>
+        <v>2163.2312147487601</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="15">
+      <c r="D30" s="13">
         <v>70</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="18">
         <f t="shared" si="0"/>
         <v>2.2040943852236698</v>
       </c>
-      <c r="F30" s="168">
+      <c r="F30" s="180">
         <f t="shared" si="1"/>
         <v>3.8684131010580609</v>
       </c>
-      <c r="G30" s="169"/>
-      <c r="H30" s="206">
+      <c r="G30" s="194"/>
+      <c r="H30" s="170">
+        <f t="shared" si="2"/>
+        <v>3.8491672647343891</v>
+      </c>
+      <c r="I30" s="195"/>
+      <c r="J30" s="170">
         <f t="shared" si="3"/>
-        <v>3.8491672647343891</v>
-      </c>
-      <c r="I30" s="233"/>
-      <c r="J30" s="168">
+        <v>3.4992429679403538</v>
+      </c>
+      <c r="K30" s="171"/>
+      <c r="L30" s="198">
         <f t="shared" si="4"/>
-        <v>3.5167391827800554</v>
-      </c>
-      <c r="K30" s="170"/>
-      <c r="L30" s="186">
-        <f t="shared" si="2"/>
-        <v>1.8509153593579237</v>
-      </c>
-      <c r="M30" s="188"/>
-      <c r="N30" s="36">
+        <v>1.841706825231765</v>
+      </c>
+      <c r="M30" s="199"/>
+      <c r="N30" s="32">
         <f t="shared" si="5"/>
-        <v>2297.3785793727443</v>
+        <v>2285.9488351967607</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="92">
+      <c r="D31" s="84">
         <v>75</v>
       </c>
-      <c r="E31" s="93">
+      <c r="E31" s="85">
         <f t="shared" si="0"/>
         <v>1.9087128427862368</v>
       </c>
-      <c r="F31" s="250">
+      <c r="F31" s="252">
         <f t="shared" si="1"/>
         <v>4.0617983372302229</v>
       </c>
-      <c r="G31" s="251"/>
-      <c r="H31" s="252">
+      <c r="G31" s="253"/>
+      <c r="H31" s="254">
+        <f t="shared" si="2"/>
+        <v>4.0415903853037038</v>
+      </c>
+      <c r="I31" s="255"/>
+      <c r="J31" s="254">
         <f t="shared" si="3"/>
-        <v>4.0415903853037038</v>
-      </c>
-      <c r="I31" s="253"/>
-      <c r="J31" s="250">
+        <v>3.6741730775488217</v>
+      </c>
+      <c r="K31" s="279"/>
+      <c r="L31" s="256">
         <f t="shared" si="4"/>
-        <v>3.6925439429365663</v>
-      </c>
-      <c r="K31" s="254"/>
-      <c r="L31" s="255">
-        <f t="shared" si="2"/>
-        <v>1.9434441804929294</v>
-      </c>
-      <c r="M31" s="256"/>
-      <c r="N31" s="96">
+        <v>1.9337753039730639</v>
+      </c>
+      <c r="M31" s="257"/>
+      <c r="N31" s="88">
         <f t="shared" si="5"/>
-        <v>2412.2264737269816</v>
+        <v>2400.2253469920211</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="15">
+      <c r="D32" s="13">
         <v>80</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="18">
         <f t="shared" si="0"/>
         <v>1.659668099602003</v>
       </c>
-      <c r="F32" s="168">
+      <c r="F32" s="180">
         <f t="shared" si="1"/>
         <v>4.2405313487707375</v>
       </c>
-      <c r="G32" s="169"/>
-      <c r="H32" s="206">
+      <c r="G32" s="194"/>
+      <c r="H32" s="170">
+        <f t="shared" si="2"/>
+        <v>4.2194341778813307</v>
+      </c>
+      <c r="I32" s="195"/>
+      <c r="J32" s="170">
         <f t="shared" si="3"/>
-        <v>4.2194341778813307</v>
-      </c>
-      <c r="I32" s="233"/>
-      <c r="J32" s="168">
+        <v>3.8358492526193917</v>
+      </c>
+      <c r="K32" s="171"/>
+      <c r="L32" s="198">
         <f t="shared" si="4"/>
-        <v>3.8550284988824886</v>
-      </c>
-      <c r="K32" s="170"/>
-      <c r="L32" s="186">
-        <f t="shared" si="2"/>
-        <v>2.0289623678328885</v>
-      </c>
-      <c r="M32" s="188"/>
-      <c r="N32" s="36">
+        <v>2.0188680276944164</v>
+      </c>
+      <c r="M32" s="199"/>
+      <c r="N32" s="32">
         <f t="shared" si="5"/>
-        <v>2518.3726844374278</v>
+        <v>2505.8434671019181</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="94">
+      <c r="D33" s="86">
         <v>85</v>
       </c>
-      <c r="E33" s="95">
+      <c r="E33" s="87">
         <f t="shared" si="0"/>
         <v>1.4487650768972604</v>
       </c>
-      <c r="F33" s="243">
+      <c r="F33" s="263">
         <f t="shared" si="1"/>
         <v>4.4046677845884554</v>
       </c>
-      <c r="G33" s="244"/>
-      <c r="H33" s="245">
+      <c r="G33" s="264"/>
+      <c r="H33" s="265">
+        <f t="shared" si="2"/>
+        <v>4.3827540145158759</v>
+      </c>
+      <c r="I33" s="266"/>
+      <c r="J33" s="170">
         <f t="shared" si="3"/>
-        <v>4.3827540145158759</v>
-      </c>
-      <c r="I33" s="246"/>
-      <c r="J33" s="243">
+        <v>3.9843218313780686</v>
+      </c>
+      <c r="K33" s="171"/>
+      <c r="L33" s="267">
         <f t="shared" si="4"/>
-        <v>4.0042434405349594</v>
-      </c>
-      <c r="K33" s="247"/>
-      <c r="L33" s="248">
-        <f t="shared" si="2"/>
-        <v>2.1074965476499785</v>
-      </c>
-      <c r="M33" s="249"/>
-      <c r="N33" s="36">
+        <v>2.0970114901989834</v>
+      </c>
+      <c r="M33" s="268"/>
+      <c r="N33" s="32">
         <f t="shared" si="5"/>
-        <v>2615.8502603558522</v>
+        <v>2602.8360799560714</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="15">
+      <c r="D34" s="13">
         <v>90</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="18">
         <f t="shared" si="0"/>
         <v>1.269406378592723</v>
       </c>
-      <c r="F34" s="168">
+      <c r="F34" s="180">
         <f t="shared" si="1"/>
         <v>4.5545927331589811</v>
       </c>
-      <c r="G34" s="169"/>
-      <c r="H34" s="206">
+      <c r="G34" s="194"/>
+      <c r="H34" s="170">
+        <f t="shared" si="2"/>
+        <v>4.5319330678198817</v>
+      </c>
+      <c r="I34" s="195"/>
+      <c r="J34" s="170">
         <f t="shared" si="3"/>
-        <v>4.5319330678198817</v>
-      </c>
-      <c r="I34" s="233"/>
-      <c r="J34" s="168">
+        <v>4.1199391525635285</v>
+      </c>
+      <c r="K34" s="171"/>
+      <c r="L34" s="198">
         <f t="shared" si="4"/>
-        <v>4.1405388483263463</v>
-      </c>
-      <c r="K34" s="170"/>
-      <c r="L34" s="186">
-        <f t="shared" si="2"/>
-        <v>2.1792309728033401</v>
-      </c>
-      <c r="M34" s="188"/>
-      <c r="N34" s="36">
+        <v>2.1683890276650151</v>
+      </c>
+      <c r="M34" s="199"/>
+      <c r="N34" s="32">
         <f t="shared" si="5"/>
-        <v>2704.8878983643885</v>
+        <v>2691.4307446411826</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="15">
+      <c r="D35" s="13">
         <v>95</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="18">
         <f t="shared" si="0"/>
         <v>1.1162541665631174</v>
       </c>
-      <c r="F35" s="168">
+      <c r="F35" s="180">
         <f t="shared" si="1"/>
         <v>4.6909319237597966</v>
       </c>
-      <c r="G35" s="169"/>
-      <c r="H35" s="206">
+      <c r="G35" s="194"/>
+      <c r="H35" s="170">
+        <f t="shared" si="2"/>
+        <v>4.6675939539898472</v>
+      </c>
+      <c r="I35" s="195"/>
+      <c r="J35" s="170">
         <f t="shared" si="3"/>
-        <v>4.6675939539898472</v>
-      </c>
-      <c r="I35" s="233"/>
-      <c r="J35" s="168">
+        <v>4.2432672308998614</v>
+      </c>
+      <c r="K35" s="171"/>
+      <c r="L35" s="198">
         <f t="shared" si="4"/>
-        <v>4.264483567054361</v>
-      </c>
-      <c r="K35" s="170"/>
-      <c r="L35" s="186">
-        <f t="shared" si="2"/>
-        <v>2.244465035291769</v>
-      </c>
-      <c r="M35" s="188"/>
-      <c r="N35" s="36">
+        <v>2.2332985425788743</v>
+      </c>
+      <c r="M35" s="199"/>
+      <c r="N35" s="32">
         <f t="shared" si="5"/>
-        <v>2785.8572074409353</v>
+        <v>2771.9972213342635</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="15">
+      <c r="D36" s="13">
         <v>100</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="18">
         <f t="shared" si="0"/>
         <v>0.9849688495932919</v>
       </c>
-      <c r="F36" s="168">
+      <c r="F36" s="180">
         <f t="shared" si="1"/>
         <v>4.8144734148054074</v>
       </c>
-      <c r="G36" s="169"/>
-      <c r="H36" s="206">
+      <c r="G36" s="194"/>
+      <c r="H36" s="170">
+        <f t="shared" si="2"/>
+        <v>4.7905208107516488</v>
+      </c>
+      <c r="I36" s="195"/>
+      <c r="J36" s="170">
         <f t="shared" si="3"/>
-        <v>4.7905208107516488</v>
-      </c>
-      <c r="I36" s="233"/>
-      <c r="J36" s="168">
+        <v>4.3550189188651354</v>
+      </c>
+      <c r="K36" s="171"/>
+      <c r="L36" s="198">
         <f t="shared" si="4"/>
-        <v>4.3767940134594605</v>
-      </c>
-      <c r="K36" s="170"/>
-      <c r="L36" s="186">
-        <f t="shared" si="2"/>
-        <v>2.3035757965576109</v>
-      </c>
-      <c r="M36" s="188"/>
-      <c r="N36" s="36">
+        <v>2.2921152204553343</v>
+      </c>
+      <c r="M36" s="199"/>
+      <c r="N36" s="32">
         <f t="shared" si="5"/>
-        <v>2859.2262008181742</v>
+        <v>2845.0011948439546</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="15">
+      <c r="D37" s="13">
         <v>105</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="18">
         <f t="shared" si="0"/>
         <v>0.87200601488917528</v>
       </c>
-      <c r="F37" s="168">
+      <c r="F37" s="180">
         <f t="shared" si="1"/>
         <v>4.9261022927012821</v>
       </c>
-      <c r="G37" s="169"/>
-      <c r="H37" s="206">
+      <c r="G37" s="194"/>
+      <c r="H37" s="170">
+        <f t="shared" si="2"/>
+        <v>4.9015943210958035</v>
+      </c>
+      <c r="I37" s="195"/>
+      <c r="J37" s="170">
         <f t="shared" si="3"/>
-        <v>4.9015943210958035</v>
-      </c>
-      <c r="I37" s="233"/>
-      <c r="J37" s="168">
+        <v>4.455994837359821</v>
+      </c>
+      <c r="K37" s="171"/>
+      <c r="L37" s="198">
         <f t="shared" si="4"/>
-        <v>4.47827481154662</v>
-      </c>
-      <c r="K37" s="170"/>
-      <c r="L37" s="186">
-        <f t="shared" si="2"/>
-        <v>2.3569867429192737</v>
-      </c>
-      <c r="M37" s="188"/>
-      <c r="N37" s="36">
+        <v>2.3452604407156952</v>
+      </c>
+      <c r="M37" s="199"/>
+      <c r="N37" s="32">
         <f t="shared" si="5"/>
-        <v>2925.5205148476803</v>
+        <v>2910.9656864156022</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="15">
+      <c r="D38" s="13">
         <v>110</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="18">
         <f t="shared" si="0"/>
         <v>0.77445777684075767</v>
       </c>
-      <c r="F38" s="168">
+      <c r="F38" s="180">
         <f t="shared" si="1"/>
         <v>5.0267488208641602</v>
       </c>
-      <c r="G38" s="169"/>
-      <c r="H38" s="206">
+      <c r="G38" s="194"/>
+      <c r="H38" s="170">
+        <f t="shared" si="2"/>
+        <v>5.0017401202628458</v>
+      </c>
+      <c r="I38" s="195"/>
+      <c r="J38" s="170">
         <f t="shared" si="3"/>
-        <v>5.0017401202628458</v>
-      </c>
-      <c r="I38" s="233"/>
-      <c r="J38" s="168">
+        <v>4.5470364729662229</v>
+      </c>
+      <c r="K38" s="171"/>
+      <c r="L38" s="198">
         <f t="shared" si="4"/>
-        <v>4.5697716553310546</v>
-      </c>
-      <c r="K38" s="170"/>
-      <c r="L38" s="186">
-        <f t="shared" si="2"/>
-        <v>2.4051429764900285</v>
-      </c>
-      <c r="M38" s="188"/>
-      <c r="N38" s="36">
+        <v>2.393177091034854</v>
+      </c>
+      <c r="M38" s="199"/>
+      <c r="N38" s="32">
         <f t="shared" si="5"/>
-        <v>2985.2926156676235</v>
+        <v>2970.4404135996251</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D39" s="15">
+      <c r="D39" s="13">
         <v>115</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="18">
         <f t="shared" si="0"/>
         <v>0.68992818874834783</v>
       </c>
-      <c r="F39" s="168">
+      <c r="F39" s="180">
         <f t="shared" si="1"/>
         <v>5.1173491435494967</v>
       </c>
-      <c r="G39" s="169"/>
-      <c r="H39" s="206">
+      <c r="G39" s="194"/>
+      <c r="H39" s="170">
+        <f t="shared" si="2"/>
+        <v>5.0918896950741264</v>
+      </c>
+      <c r="I39" s="195"/>
+      <c r="J39" s="170">
         <f t="shared" si="3"/>
-        <v>5.0918896950741264</v>
-      </c>
-      <c r="I39" s="233"/>
-      <c r="J39" s="168">
+        <v>4.6289906318855696</v>
+      </c>
+      <c r="K39" s="171"/>
+      <c r="L39" s="198">
         <f t="shared" si="4"/>
-        <v>4.6521355850449968</v>
-      </c>
-      <c r="K39" s="170"/>
-      <c r="L39" s="186">
-        <f t="shared" si="2"/>
-        <v>2.4484924131815773</v>
-      </c>
-      <c r="M39" s="188"/>
-      <c r="N39" s="36">
+        <v>2.4363108588871416</v>
+      </c>
+      <c r="M39" s="199"/>
+      <c r="N39" s="32">
         <f t="shared" si="5"/>
-        <v>3039.0984619368915</v>
+        <v>3023.9785690914341</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D40" s="15">
+      <c r="D40" s="13">
         <v>120</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="18">
         <f t="shared" si="0"/>
         <v>0.61643491771497372</v>
       </c>
-      <c r="F40" s="168">
+      <c r="F40" s="180">
         <f t="shared" si="1"/>
         <v>5.1988169286007029</v>
       </c>
-      <c r="G40" s="169"/>
-      <c r="H40" s="206">
+      <c r="G40" s="194"/>
+      <c r="H40" s="170">
+        <f t="shared" si="2"/>
+        <v>5.1729521677618937</v>
+      </c>
+      <c r="I40" s="195"/>
+      <c r="J40" s="170">
         <f t="shared" si="3"/>
-        <v>5.1729521677618937</v>
-      </c>
-      <c r="I40" s="233"/>
-      <c r="J40" s="168">
+        <v>4.7026837888744488</v>
+      </c>
+      <c r="K40" s="171"/>
+      <c r="L40" s="198">
         <f t="shared" si="4"/>
-        <v>4.7261972078188208</v>
-      </c>
-      <c r="K40" s="170"/>
-      <c r="L40" s="186">
-        <f t="shared" si="2"/>
-        <v>2.4874722146414845</v>
-      </c>
-      <c r="M40" s="188"/>
-      <c r="N40" s="36">
+        <v>2.4750967309865519</v>
+      </c>
+      <c r="M40" s="199"/>
+      <c r="N40" s="32">
         <f t="shared" si="5"/>
-        <v>3087.48066399137</v>
+        <v>3072.120063673005</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D41" s="15">
+      <c r="D41" s="13">
         <v>125</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="18">
         <f t="shared" si="0"/>
         <v>0.55233127421944694</v>
       </c>
-      <c r="F41" s="168">
+      <c r="F41" s="180">
         <f t="shared" si="1"/>
         <v>5.2720240585116676</v>
       </c>
-      <c r="G41" s="169"/>
-      <c r="H41" s="206">
+      <c r="G41" s="194"/>
+      <c r="H41" s="170">
+        <f t="shared" si="2"/>
+        <v>5.245795083096187</v>
+      </c>
+      <c r="I41" s="195"/>
+      <c r="J41" s="170">
         <f t="shared" si="3"/>
-        <v>5.245795083096187</v>
-      </c>
-      <c r="I41" s="233"/>
-      <c r="J41" s="168">
+        <v>4.7689046209965333</v>
+      </c>
+      <c r="K41" s="171"/>
+      <c r="L41" s="198">
         <f t="shared" si="4"/>
-        <v>4.7927491441015162</v>
-      </c>
-      <c r="K41" s="170"/>
-      <c r="L41" s="186">
-        <f t="shared" si="2"/>
-        <v>2.5224995495271134</v>
-      </c>
-      <c r="M41" s="188"/>
-      <c r="N41" s="36">
+        <v>2.5099498005244913</v>
+      </c>
+      <c r="M41" s="199"/>
+      <c r="N41" s="32">
         <f t="shared" si="5"/>
-        <v>3130.9570166251688</v>
+        <v>3115.3801160449448</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D42" s="15">
+      <c r="D42" s="13">
         <v>130</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="18">
         <f t="shared" si="0"/>
         <v>0.49624409633915206</v>
       </c>
-      <c r="F42" s="168">
+      <c r="F42" s="180">
         <f t="shared" si="1"/>
         <v>5.3377884931871984</v>
       </c>
-      <c r="G42" s="169"/>
-      <c r="H42" s="206">
+      <c r="G42" s="194"/>
+      <c r="H42" s="170">
+        <f t="shared" si="2"/>
+        <v>5.3112323315295509</v>
+      </c>
+      <c r="I42" s="195"/>
+      <c r="J42" s="170">
         <f t="shared" si="3"/>
-        <v>5.3112323315295509</v>
-      </c>
-      <c r="I42" s="233"/>
-      <c r="J42" s="168">
+        <v>4.8283930286632284</v>
+      </c>
+      <c r="K42" s="171"/>
+      <c r="L42" s="198">
         <f t="shared" si="4"/>
-        <v>4.8525349938065441</v>
-      </c>
-      <c r="K42" s="170"/>
-      <c r="L42" s="186">
-        <f t="shared" si="2"/>
-        <v>2.5539657862139706</v>
-      </c>
-      <c r="M42" s="188"/>
-      <c r="N42" s="36">
+        <v>2.5412594887701201</v>
+      </c>
+      <c r="M42" s="199"/>
+      <c r="N42" s="32">
         <f t="shared" si="5"/>
-        <v>3170.0132910098255</v>
+        <v>3154.2420806067917</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D43" s="18">
+      <c r="D43" s="14">
         <v>135</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="23">
         <f t="shared" si="0"/>
         <v>0.44702404336298512</v>
       </c>
-      <c r="F43" s="162">
+      <c r="F43" s="192">
         <f t="shared" si="1"/>
         <v>5.3968676053863689</v>
       </c>
-      <c r="G43" s="163"/>
-      <c r="H43" s="206">
+      <c r="G43" s="196"/>
+      <c r="H43" s="170">
+        <f t="shared" si="2"/>
+        <v>5.3700175177973817</v>
+      </c>
+      <c r="I43" s="195"/>
+      <c r="J43" s="170">
         <f t="shared" si="3"/>
-        <v>5.3700175177973817</v>
-      </c>
-      <c r="I43" s="233"/>
-      <c r="J43" s="162">
+        <v>4.8818341070885287</v>
+      </c>
+      <c r="K43" s="171"/>
+      <c r="L43" s="227">
         <f t="shared" si="4"/>
-        <v>4.9062432776239717</v>
-      </c>
-      <c r="K43" s="164"/>
-      <c r="L43" s="215">
-        <f t="shared" si="2"/>
-        <v>2.5822333040126164</v>
-      </c>
-      <c r="M43" s="187"/>
-      <c r="N43" s="36">
+        <v>2.5693863721518571</v>
+      </c>
+      <c r="M43" s="269"/>
+      <c r="N43" s="32">
         <f t="shared" si="5"/>
-        <v>3205.099276738084</v>
+        <v>3189.1535091921232</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="J22:K22"/>
@@ -7664,86 +8748,28 @@
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7772,114 +8798,114 @@
   <sheetData>
     <row r="3" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C5" s="270" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="57" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C5" s="266" t="s">
+      <c r="D5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="9" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C6" s="271"/>
+      <c r="D6" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C7" s="271"/>
+      <c r="D7" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C8" s="271"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C9" s="271" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C6" s="194"/>
-      <c r="D6" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C7" s="194"/>
-      <c r="D7" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C8" s="194"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C9" s="194" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C10" s="271"/>
+      <c r="D10" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C11" s="271"/>
+      <c r="D11" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C12" s="271"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C13" s="271" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C10" s="194"/>
-      <c r="D10" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="194"/>
-      <c r="D11" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C12" s="194"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C13" s="194" t="s">
+      <c r="D13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C14" s="194"/>
-      <c r="D14" s="13" t="s">
-        <v>124</v>
+      <c r="C14" s="271"/>
+      <c r="D14" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C15" s="194"/>
-      <c r="D15" s="123" t="s">
-        <v>161</v>
+      <c r="C15" s="271"/>
+      <c r="D15" s="115" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C16" s="194"/>
-      <c r="D16" s="123" t="s">
-        <v>162</v>
+      <c r="C16" s="271"/>
+      <c r="D16" s="115" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="195"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="272"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C18" s="194" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>181</v>
+      <c r="C18" s="271" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C19" s="194"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="271"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C20" s="194"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="271"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C21" s="194"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="271"/>
+      <c r="D21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7905,7 +8931,7 @@
   <cols>
     <col min="1" max="1" width="3.59765625" customWidth="1"/>
     <col min="2" max="2" width="4.69921875" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" style="76" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" style="72" customWidth="1"/>
     <col min="4" max="4" width="30.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="44.5" bestFit="1" customWidth="1"/>
@@ -7914,419 +8940,419 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="72"/>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="108" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="95">
+        <v>1</v>
+      </c>
+      <c r="D6" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="114" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="111"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C7" s="96">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C8" s="96">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C9" s="96">
+        <v>4</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C10" s="96">
+        <v>5</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C11" s="96">
+        <v>6</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="140" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C12" s="96">
+        <v>7</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="140" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C13" s="96">
+        <v>8</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="140" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C14" s="96">
+        <v>9</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C15" s="96">
+        <v>10</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="97">
+        <v>11</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="55"/>
+    </row>
+    <row r="19" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="112" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="113" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C21" s="95">
+        <v>1</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="76"/>
-      <c r="C4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="114" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="115" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="115" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="115" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="65" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" s="116" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="103">
+      <c r="F21" s="102">
         <v>1</v>
       </c>
-      <c r="D6" s="122" t="s">
+    </row>
+    <row r="22" spans="2:8" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="97">
+        <v>2</v>
+      </c>
+      <c r="D22" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="98" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C26" s="95">
+        <v>1</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="F26" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C27" s="96">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="122" t="s">
+      <c r="F27" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C28" s="96">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="119"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C7" s="104">
-        <v>2</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C8" s="104">
-        <v>3</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="C9" s="104">
+      <c r="F28" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="C29" s="96">
         <v>4</v>
       </c>
-      <c r="D9" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="C10" s="104">
+      <c r="D29" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C30" s="96">
         <v>5</v>
       </c>
-      <c r="D10" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="C11" s="104">
+      <c r="D30" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="109" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C31" s="96">
         <v>6</v>
       </c>
-      <c r="D11" s="99" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="148" t="s">
-        <v>190</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C12" s="104">
+      <c r="D31" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="109" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C32" s="97">
         <v>7</v>
       </c>
-      <c r="D12" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="148" t="s">
-        <v>197</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C13" s="104">
-        <v>8</v>
-      </c>
-      <c r="D13" s="99" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="148" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C14" s="104">
-        <v>9</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="99" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C15" s="104">
-        <v>10</v>
-      </c>
-      <c r="D15" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="105">
-        <v>11</v>
-      </c>
-      <c r="D16" s="102" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C17" s="112"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="59"/>
-    </row>
-    <row r="19" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="120" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="121" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C21" s="103">
-        <v>1</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="105">
-        <v>2</v>
-      </c>
-      <c r="D22" s="102" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="111" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="106" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C26" s="103">
-        <v>1</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C27" s="104">
-        <v>2</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C28" s="104">
-        <v>3</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="C29" s="104">
-        <v>4</v>
-      </c>
-      <c r="D29" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="99" t="s">
+      <c r="D32" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="F29" s="117" t="s">
+      <c r="F32" s="110" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="C30" s="104">
-        <v>5</v>
-      </c>
-      <c r="D30" s="99" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="117" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="C31" s="104">
-        <v>6</v>
-      </c>
-      <c r="D31" s="99" t="s">
-        <v>155</v>
-      </c>
-      <c r="E31" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" s="117" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="105">
-        <v>7</v>
-      </c>
-      <c r="D32" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="E32" s="102" t="s">
-        <v>157</v>
-      </c>
-      <c r="F32" s="118" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -8351,22 +9377,22 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/1_Schematic/Build V1.0/RF Generator Review Data_20191104.xlsx
+++ b/1_Schematic/Build V1.0/RF Generator Review Data_20191104.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7C78A7-9DCC-4222-A920-F35CE6EC7CD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ADC" sheetId="4" r:id="rId1"/>
@@ -13,8 +12,9 @@
     <sheet name="Operation MODE" sheetId="6" r:id="rId3"/>
     <sheet name="FW Function" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="CPU Pin-map" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="358">
   <si>
     <t>VIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1023,17 +1023,502 @@
     <t>R2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_IN10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No-PULL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDC_IN_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+48 input Voltage monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Under INPUT Voltage : 40V 이하
+Over INPUT Voltage : 56V 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_IN11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDC_OUT_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Over OUTPUT Voltage : 48V 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>ADC_IN12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No-PULL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW_IS_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW_IS_AD : 1.81V 이상(ADC : 2246)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>ADC_IN13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN_PW_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN_PW_AD : 0.83V 이하(ADC : 1029)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_IN0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RV_CT_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reflected Power monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_IN1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FW_CT_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward Power monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>ADC_IN2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FET_T_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Temperature</t>
+  </si>
+  <si>
+    <t>RF Transistor Over(65℃) temp 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>TIM16_CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULL-DOWN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA6_FAN_PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN 속도 제어(25KHz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buck, RF FET 냉각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO_OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS_SLEEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH : Power Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS_RESET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH : Reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PULL-UP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS_FSYNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB10</t>
+  </si>
+  <si>
+    <t>I2C2_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
+    <t>I2C2_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB12</t>
+  </si>
+  <si>
+    <t>GPIO_EXTI12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB12_LIMIT_SW_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Cable detect error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB13</t>
+  </si>
+  <si>
+    <t>GPIO_EXTI13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB13_LIMIT_SW_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case detect error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB14</t>
+  </si>
+  <si>
+    <t>GPIO_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JP_BIAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>TIM3_CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC6_PW_PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50KHz</t>
+  </si>
+  <si>
+    <t>Buck Vout control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PC7_PWR_ENA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF 48V 전원 control</t>
+  </si>
+  <si>
+    <t>PC6_PW_PWM Path On/Off control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>PC8_PRE_AMP_ENA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF PCB의 Bias control</t>
+  </si>
+  <si>
+    <t>PWR PCB의 RF pre-amp On/Off control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA9</t>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD와 통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD와 RS-232 통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA10</t>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+  </si>
+  <si>
+    <t>PD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD2_GPIO_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO Drive IC On/Off control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>COM_LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD 통신 상태 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>WDT_LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU watch-dog 상태 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>EPROM_WP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEPROM write protection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>PB6_BIAS_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF FET bias +9V On/Off control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>I2C1_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEPROM I2C 통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>I2C1_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB9</t>
+  </si>
+  <si>
+    <t>RF ON 상태 LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buck output Voltage monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과전류 상태 monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN 동작 상태 monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0&quot;%&quot;"/>
     <numFmt numFmtId="178" formatCode="0.0&quot;V&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1086,6 +1571,21 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1999,7 +2499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2133,7 +2633,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2300,332 +2799,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2638,10 +2813,423 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2667,7 +3255,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -2681,6 +3269,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2921,7 +3510,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3004-4634-9C34-79DC09E6C663}"/>
             </c:ext>
@@ -2935,12 +3524,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="582145240"/>
-        <c:axId val="582151472"/>
+        <c:axId val="206706688"/>
+        <c:axId val="197505536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="582145240"/>
+        <c:axId val="206706688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,7 +3573,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582151472"/>
+        <c:crossAx val="197505536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2991,7 +3581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="582151472"/>
+        <c:axId val="197505536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3042,7 +3632,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582145240"/>
+        <c:crossAx val="206706688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3056,14 +3646,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3674,7 +4264,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB107259-0367-470F-9CFD-CE7EC231CCE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB107259-0367-470F-9CFD-CE7EC231CCE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3718,7 +4308,7 @@
         <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CA2094-6349-4FC9-9C2E-379947A73744}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5CA2094-6349-4FC9-9C2E-379947A73744}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3782,7 +4372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3815,26 +4405,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3867,23 +4440,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4059,65 +4615,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C050669B-C29A-4E1F-A278-B86E63B41E45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T140"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N123" sqref="N123"/>
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P111" sqref="P111:P112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="4.69921875" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
-    <col min="6" max="12" width="7.69921875" customWidth="1"/>
+    <col min="1" max="3" width="4.75" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="12" width="7.75" customWidth="1"/>
     <col min="13" max="13" width="8.5" customWidth="1"/>
-    <col min="14" max="14" width="5.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.69921875" customWidth="1"/>
-    <col min="17" max="17" width="16.59765625" customWidth="1"/>
-    <col min="18" max="20" width="7.69921875" customWidth="1"/>
+    <col min="14" max="14" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.75" customWidth="1"/>
+    <col min="17" max="17" width="16.625" customWidth="1"/>
+    <col min="18" max="20" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="40" t="s">
@@ -4130,7 +4686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="65">
@@ -4145,70 +4701,70 @@
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
     </row>
-    <row r="11" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="173" t="s">
+      <c r="D12" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="174"/>
-      <c r="F12" s="173" t="s">
+      <c r="E12" s="220"/>
+      <c r="F12" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="176"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="201"/>
       <c r="J12" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="D13" s="118" t="s">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D13" s="117" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="71">
         <v>24</v>
       </c>
-      <c r="F13" s="118" t="s">
+      <c r="F13" s="117" t="s">
         <v>193</v>
       </c>
       <c r="G13" s="71">
         <v>4.7</v>
       </c>
-      <c r="H13" s="118" t="s">
+      <c r="H13" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="119">
+      <c r="I13" s="118">
         <v>2.7</v>
       </c>
-      <c r="J13" s="155" t="s">
+      <c r="J13" s="154" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="120" t="s">
+    <row r="14" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="121">
+      <c r="E14" s="120">
         <v>4.99</v>
       </c>
-      <c r="F14" s="120" t="s">
+      <c r="F14" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="121">
+      <c r="G14" s="120">
         <v>4.7</v>
       </c>
-      <c r="H14" s="120" t="s">
+      <c r="H14" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="122">
+      <c r="I14" s="121">
         <v>3</v>
       </c>
-      <c r="J14" s="156" t="s">
+      <c r="J14" s="155" t="s">
         <v>14</v>
       </c>
       <c r="P14" t="s">
@@ -4229,21 +4785,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="59" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="177" t="s">
+      <c r="F15" s="250" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="178"/>
-      <c r="H15" s="177" t="s">
+      <c r="G15" s="251"/>
+      <c r="H15" s="250" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="179"/>
+      <c r="I15" s="252"/>
       <c r="J15" s="62" t="s">
         <v>13</v>
       </c>
@@ -4263,7 +4819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D16" s="6">
         <v>0</v>
       </c>
@@ -4271,16 +4827,16 @@
         <f t="shared" ref="E16:E33" si="0">$D16*E$14/(E$13+E$14)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="182">
+      <c r="F16" s="192">
         <f t="shared" ref="F16:F28" si="1">E16*G$14/(G$13+G$14)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="183"/>
-      <c r="H16" s="182">
+      <c r="G16" s="194"/>
+      <c r="H16" s="192">
         <f t="shared" ref="H16:H28" si="2">F16*I$14/(I$13+I$14)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="183"/>
+      <c r="I16" s="194"/>
       <c r="J16" s="17">
         <f>H16*4095/3.3</f>
         <v>0</v>
@@ -4301,7 +4857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D17" s="13">
         <v>4</v>
       </c>
@@ -4309,16 +4865,16 @@
         <f t="shared" si="0"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="F17" s="180">
+      <c r="F17" s="177">
         <f t="shared" si="1"/>
         <v>0.3442566402207658</v>
       </c>
-      <c r="G17" s="181"/>
-      <c r="H17" s="180">
+      <c r="G17" s="179"/>
+      <c r="H17" s="177">
         <f t="shared" si="2"/>
         <v>0.18118770537935042</v>
       </c>
-      <c r="I17" s="181"/>
+      <c r="I17" s="179"/>
       <c r="J17" s="19">
         <f t="shared" ref="J17:J30" si="3">H17*4095/3.3</f>
         <v>224.83747076619395</v>
@@ -4342,7 +4898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D18" s="13">
         <v>8</v>
       </c>
@@ -4350,16 +4906,16 @@
         <f t="shared" si="0"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="F18" s="180">
+      <c r="F18" s="177">
         <f t="shared" si="1"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="G18" s="181"/>
-      <c r="H18" s="180">
+      <c r="G18" s="179"/>
+      <c r="H18" s="177">
         <f t="shared" si="2"/>
         <v>0.36237541075870083</v>
       </c>
-      <c r="I18" s="181"/>
+      <c r="I18" s="179"/>
       <c r="J18" s="19">
         <f t="shared" si="3"/>
         <v>449.67494153238789</v>
@@ -4383,7 +4939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D19" s="13">
         <v>12</v>
       </c>
@@ -4391,16 +4947,16 @@
         <f t="shared" si="0"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="F19" s="180">
+      <c r="F19" s="177">
         <f t="shared" si="1"/>
         <v>1.0327699206622973</v>
       </c>
-      <c r="G19" s="181"/>
-      <c r="H19" s="180">
+      <c r="G19" s="179"/>
+      <c r="H19" s="177">
         <f t="shared" si="2"/>
         <v>0.54356311613805119</v>
       </c>
-      <c r="I19" s="181"/>
+      <c r="I19" s="179"/>
       <c r="J19" s="19">
         <f t="shared" si="3"/>
         <v>674.51241229858169</v>
@@ -4424,7 +4980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D20" s="13">
         <v>16</v>
       </c>
@@ -4432,22 +4988,22 @@
         <f t="shared" si="0"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="F20" s="180">
+      <c r="F20" s="177">
         <f t="shared" si="1"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="G20" s="181"/>
-      <c r="H20" s="180">
+      <c r="G20" s="179"/>
+      <c r="H20" s="177">
         <f t="shared" si="2"/>
         <v>0.72475082151740167</v>
       </c>
-      <c r="I20" s="181"/>
+      <c r="I20" s="179"/>
       <c r="J20" s="19">
         <f t="shared" si="3"/>
         <v>899.34988306477578</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D21" s="13">
         <v>20</v>
       </c>
@@ -4455,22 +5011,22 @@
         <f t="shared" si="0"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="F21" s="180">
+      <c r="F21" s="177">
         <f t="shared" si="1"/>
         <v>1.721283201103829</v>
       </c>
-      <c r="G21" s="181"/>
-      <c r="H21" s="180">
+      <c r="G21" s="179"/>
+      <c r="H21" s="177">
         <f t="shared" si="2"/>
         <v>0.90593852689675203</v>
       </c>
-      <c r="I21" s="181"/>
+      <c r="I21" s="179"/>
       <c r="J21" s="19">
         <f t="shared" si="3"/>
         <v>1124.1873538309696</v>
       </c>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D22" s="13">
         <v>24</v>
       </c>
@@ -4478,22 +5034,22 @@
         <f t="shared" si="0"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="F22" s="180">
+      <c r="F22" s="177">
         <f t="shared" si="1"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="G22" s="181"/>
-      <c r="H22" s="180">
+      <c r="G22" s="179"/>
+      <c r="H22" s="177">
         <f t="shared" si="2"/>
         <v>1.0871262322761024</v>
       </c>
-      <c r="I22" s="181"/>
+      <c r="I22" s="179"/>
       <c r="J22" s="19">
         <f t="shared" si="3"/>
         <v>1349.0248245971634</v>
       </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D23" s="13">
         <v>28</v>
       </c>
@@ -4501,22 +5057,22 @@
         <f t="shared" si="0"/>
         <v>4.8195929630907202</v>
       </c>
-      <c r="F23" s="180">
+      <c r="F23" s="177">
         <f t="shared" si="1"/>
         <v>2.4097964815453601</v>
       </c>
-      <c r="G23" s="181"/>
-      <c r="H23" s="180">
+      <c r="G23" s="179"/>
+      <c r="H23" s="177">
         <f t="shared" si="2"/>
         <v>1.2683139376554526</v>
       </c>
-      <c r="I23" s="181"/>
+      <c r="I23" s="179"/>
       <c r="J23" s="19">
         <f t="shared" si="3"/>
         <v>1573.8622953633571</v>
       </c>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D24" s="13">
         <v>32</v>
       </c>
@@ -4524,22 +5080,22 @@
         <f t="shared" si="0"/>
         <v>5.5081062435322528</v>
       </c>
-      <c r="F24" s="180">
+      <c r="F24" s="177">
         <f t="shared" si="1"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="G24" s="181"/>
-      <c r="H24" s="180">
+      <c r="G24" s="179"/>
+      <c r="H24" s="177">
         <f t="shared" si="2"/>
         <v>1.4495016430348033</v>
       </c>
-      <c r="I24" s="181"/>
+      <c r="I24" s="179"/>
       <c r="J24" s="19">
         <f t="shared" si="3"/>
         <v>1798.6997661295516</v>
       </c>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D25" s="13">
         <v>36</v>
       </c>
@@ -4547,22 +5103,22 @@
         <f t="shared" si="0"/>
         <v>6.1966195239737845</v>
       </c>
-      <c r="F25" s="180">
+      <c r="F25" s="177">
         <f t="shared" si="1"/>
         <v>3.0983097619868922</v>
       </c>
-      <c r="G25" s="181"/>
-      <c r="H25" s="180">
+      <c r="G25" s="179"/>
+      <c r="H25" s="177">
         <f t="shared" si="2"/>
         <v>1.6306893484141538</v>
       </c>
-      <c r="I25" s="181"/>
+      <c r="I25" s="179"/>
       <c r="J25" s="19">
         <f t="shared" si="3"/>
         <v>2023.5372368957455</v>
       </c>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D26" s="22">
         <v>40</v>
       </c>
@@ -4570,22 +5126,22 @@
         <f t="shared" si="0"/>
         <v>6.8851328044153162</v>
       </c>
-      <c r="F26" s="184">
+      <c r="F26" s="244">
         <f t="shared" si="1"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="G26" s="185"/>
-      <c r="H26" s="184">
+      <c r="G26" s="245"/>
+      <c r="H26" s="244">
         <f t="shared" si="2"/>
         <v>1.8118770537935041</v>
       </c>
-      <c r="I26" s="185"/>
+      <c r="I26" s="245"/>
       <c r="J26" s="34">
         <f t="shared" si="3"/>
         <v>2248.3747076619393</v>
       </c>
     </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D27" s="22">
         <v>44</v>
       </c>
@@ -4593,22 +5149,22 @@
         <f t="shared" si="0"/>
         <v>7.573646084856847</v>
       </c>
-      <c r="F27" s="184">
+      <c r="F27" s="244">
         <f t="shared" si="1"/>
         <v>3.786823042428423</v>
       </c>
-      <c r="G27" s="185"/>
-      <c r="H27" s="184">
+      <c r="G27" s="245"/>
+      <c r="H27" s="244">
         <f t="shared" si="2"/>
         <v>1.9930647591728541</v>
       </c>
-      <c r="I27" s="185"/>
+      <c r="I27" s="245"/>
       <c r="J27" s="34">
         <f t="shared" si="3"/>
         <v>2473.2121784281326</v>
       </c>
     </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D28" s="20">
         <v>48</v>
       </c>
@@ -4616,22 +5172,22 @@
         <f t="shared" si="0"/>
         <v>8.2621593652983787</v>
       </c>
-      <c r="F28" s="186">
+      <c r="F28" s="180">
         <f t="shared" si="1"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="G28" s="187"/>
-      <c r="H28" s="186">
+      <c r="G28" s="182"/>
+      <c r="H28" s="180">
         <f t="shared" si="2"/>
         <v>2.1742524645522048</v>
       </c>
-      <c r="I28" s="187"/>
+      <c r="I28" s="182"/>
       <c r="J28" s="64">
         <f>H28*4095/3.3</f>
         <v>2698.0496491943268</v>
       </c>
     </row>
-    <row r="29" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D29" s="22">
         <v>52</v>
       </c>
@@ -4639,22 +5195,22 @@
         <f t="shared" si="0"/>
         <v>8.9506726457399104</v>
       </c>
-      <c r="F29" s="184">
+      <c r="F29" s="244">
         <f>E29*G$14/(G$13+G$14)</f>
         <v>4.4753363228699552</v>
       </c>
-      <c r="G29" s="185"/>
-      <c r="H29" s="184">
+      <c r="G29" s="245"/>
+      <c r="H29" s="244">
         <f>F29*I$14/(I$13+I$14)</f>
         <v>2.3554401699315552</v>
       </c>
-      <c r="I29" s="185"/>
+      <c r="I29" s="245"/>
       <c r="J29" s="34">
         <f t="shared" si="3"/>
         <v>2922.887119960521</v>
       </c>
     </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D30" s="22">
         <v>56</v>
       </c>
@@ -4662,22 +5218,22 @@
         <f t="shared" si="0"/>
         <v>9.6391859261814403</v>
       </c>
-      <c r="F30" s="184">
+      <c r="F30" s="244">
         <f>E30*G$14/(G$13+G$14)</f>
         <v>4.8195929630907202</v>
       </c>
-      <c r="G30" s="185"/>
-      <c r="H30" s="184">
+      <c r="G30" s="245"/>
+      <c r="H30" s="244">
         <f>F30*I$14/(I$13+I$14)</f>
         <v>2.5366278753109053</v>
       </c>
-      <c r="I30" s="185"/>
+      <c r="I30" s="245"/>
       <c r="J30" s="34">
         <f t="shared" si="3"/>
         <v>3147.7245907267143</v>
       </c>
     </row>
-    <row r="31" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D31" s="13">
         <v>60</v>
       </c>
@@ -4685,22 +5241,22 @@
         <f t="shared" si="0"/>
         <v>10.327699206622974</v>
       </c>
-      <c r="F31" s="188">
+      <c r="F31" s="246">
         <f>E31*G$14/(G$13+G$14)</f>
         <v>5.1638496033114869</v>
       </c>
-      <c r="G31" s="189"/>
-      <c r="H31" s="180">
+      <c r="G31" s="247"/>
+      <c r="H31" s="177">
         <f>F31*I$14/(I$13+I$14)</f>
         <v>2.7178155806902562</v>
       </c>
-      <c r="I31" s="181"/>
+      <c r="I31" s="179"/>
       <c r="J31" s="19">
         <f t="shared" ref="J31" si="4">H31*4095/3.3</f>
         <v>3372.5620614929089</v>
       </c>
     </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D32" s="13">
         <v>64</v>
       </c>
@@ -4708,22 +5264,22 @@
         <f t="shared" si="0"/>
         <v>11.016212487064506</v>
       </c>
-      <c r="F32" s="188">
+      <c r="F32" s="246">
         <f>E32*G$14/(G$13+G$14)</f>
         <v>5.5081062435322528</v>
       </c>
-      <c r="G32" s="189"/>
-      <c r="H32" s="180">
+      <c r="G32" s="247"/>
+      <c r="H32" s="177">
         <f>F32*I$14/(I$13+I$14)</f>
         <v>2.8990032860696067</v>
       </c>
-      <c r="I32" s="181"/>
+      <c r="I32" s="179"/>
       <c r="J32" s="19">
         <f t="shared" ref="J32:J33" si="5">H32*4095/3.3</f>
         <v>3597.3995322591031</v>
       </c>
     </row>
-    <row r="33" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D33" s="14">
         <v>68</v>
       </c>
@@ -4731,22 +5287,22 @@
         <f t="shared" si="0"/>
         <v>11.704725767506035</v>
       </c>
-      <c r="F33" s="190">
+      <c r="F33" s="248">
         <f>E33*G$14/(G$13+G$14)</f>
         <v>5.8523628837530177</v>
       </c>
-      <c r="G33" s="191"/>
-      <c r="H33" s="192">
+      <c r="G33" s="249"/>
+      <c r="H33" s="171">
         <f>F33*I$14/(I$13+I$14)</f>
         <v>3.0801909914489567</v>
       </c>
-      <c r="I33" s="193"/>
+      <c r="I33" s="173"/>
       <c r="J33" s="24">
         <f t="shared" si="5"/>
         <v>3822.2370030252964</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D34" s="55"/>
       <c r="E34" s="56"/>
       <c r="F34" s="57"/>
@@ -4755,21 +5311,21 @@
       <c r="I34" s="57"/>
       <c r="J34" s="58"/>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C35" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D36" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D37" s="153">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D37" s="152">
         <v>48</v>
       </c>
-      <c r="E37" s="152">
+      <c r="E37" s="151">
         <v>80</v>
       </c>
       <c r="F37">
@@ -4777,90 +5333,90 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="38" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D39" s="173" t="s">
+    <row r="39" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="174"/>
-      <c r="F39" s="173" t="s">
+      <c r="E39" s="220"/>
+      <c r="F39" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="175"/>
-      <c r="H39" s="175"/>
-      <c r="I39" s="176"/>
+      <c r="G39" s="200"/>
+      <c r="H39" s="200"/>
+      <c r="I39" s="201"/>
       <c r="J39" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D40" s="123" t="s">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="122" t="s">
         <v>28</v>
       </c>
       <c r="E40" s="12">
         <v>24</v>
       </c>
-      <c r="F40" s="123" t="s">
+      <c r="F40" s="122" t="s">
         <v>194</v>
       </c>
       <c r="G40" s="12">
         <v>4.7</v>
       </c>
-      <c r="H40" s="118" t="s">
+      <c r="H40" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="I40" s="119">
+      <c r="I40" s="118">
         <v>2.7</v>
       </c>
-      <c r="J40" s="157" t="s">
+      <c r="J40" s="156" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D41" s="124" t="s">
+    <row r="41" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="125">
+      <c r="E41" s="124">
         <v>4.99</v>
       </c>
-      <c r="F41" s="124" t="s">
+      <c r="F41" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="125">
+      <c r="G41" s="124">
         <v>4.7</v>
       </c>
-      <c r="H41" s="124" t="s">
+      <c r="H41" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="I41" s="126">
+      <c r="I41" s="125">
         <v>3</v>
       </c>
-      <c r="J41" s="158" t="s">
+      <c r="J41" s="157" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D42" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E42" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="173" t="s">
+      <c r="F42" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="174"/>
-      <c r="H42" s="173" t="s">
+      <c r="G42" s="220"/>
+      <c r="H42" s="199" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="176"/>
+      <c r="I42" s="201"/>
       <c r="J42" s="49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D43" s="6">
         <v>0</v>
       </c>
@@ -4868,22 +5424,22 @@
         <f t="shared" ref="E43:E57" si="6">$D43*E$41/(E$40+E$41)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="170">
+      <c r="F43" s="196">
         <f t="shared" ref="F43:F57" si="7">E43*G$41/(G$40+G$41)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="195"/>
-      <c r="H43" s="170">
+      <c r="G43" s="243"/>
+      <c r="H43" s="196">
         <f t="shared" ref="H43:H57" si="8">F43*I$41/(I$40+I$41)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="171"/>
+      <c r="I43" s="197"/>
       <c r="J43" s="66">
         <f>H43*4095/3.3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D44" s="13">
         <v>4</v>
       </c>
@@ -4891,22 +5447,22 @@
         <f t="shared" si="6"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="F44" s="180">
+      <c r="F44" s="177">
         <f t="shared" si="7"/>
         <v>0.3442566402207658</v>
       </c>
-      <c r="G44" s="194"/>
-      <c r="H44" s="180">
+      <c r="G44" s="178"/>
+      <c r="H44" s="177">
         <f t="shared" si="8"/>
         <v>0.18118770537935042</v>
       </c>
-      <c r="I44" s="181"/>
+      <c r="I44" s="179"/>
       <c r="J44" s="51">
         <f>H44*4095/3.3</f>
         <v>224.83747076619395</v>
       </c>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D45" s="13">
         <v>8</v>
       </c>
@@ -4914,22 +5470,22 @@
         <f t="shared" si="6"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="F45" s="180">
+      <c r="F45" s="177">
         <f t="shared" si="7"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="G45" s="194"/>
-      <c r="H45" s="180">
+      <c r="G45" s="178"/>
+      <c r="H45" s="177">
         <f t="shared" si="8"/>
         <v>0.36237541075870083</v>
       </c>
-      <c r="I45" s="181"/>
+      <c r="I45" s="179"/>
       <c r="J45" s="51">
         <f t="shared" ref="J45:J57" si="9">H45*4095/3.3</f>
         <v>449.67494153238789</v>
       </c>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D46" s="13">
         <v>12</v>
       </c>
@@ -4937,22 +5493,22 @@
         <f t="shared" si="6"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="F46" s="180">
+      <c r="F46" s="177">
         <f t="shared" si="7"/>
         <v>1.0327699206622973</v>
       </c>
-      <c r="G46" s="194"/>
-      <c r="H46" s="180">
+      <c r="G46" s="178"/>
+      <c r="H46" s="177">
         <f t="shared" si="8"/>
         <v>0.54356311613805119</v>
       </c>
-      <c r="I46" s="181"/>
+      <c r="I46" s="179"/>
       <c r="J46" s="51">
         <f t="shared" si="9"/>
         <v>674.51241229858169</v>
       </c>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D47" s="13">
         <v>16</v>
       </c>
@@ -4960,22 +5516,22 @@
         <f t="shared" si="6"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="F47" s="180">
+      <c r="F47" s="177">
         <f t="shared" si="7"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="G47" s="194"/>
-      <c r="H47" s="180">
+      <c r="G47" s="178"/>
+      <c r="H47" s="177">
         <f t="shared" si="8"/>
         <v>0.72475082151740167</v>
       </c>
-      <c r="I47" s="181"/>
+      <c r="I47" s="179"/>
       <c r="J47" s="51">
         <f t="shared" si="9"/>
         <v>899.34988306477578</v>
       </c>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D48" s="13">
         <v>20</v>
       </c>
@@ -4983,22 +5539,22 @@
         <f t="shared" si="6"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="F48" s="180">
+      <c r="F48" s="177">
         <f t="shared" si="7"/>
         <v>1.721283201103829</v>
       </c>
-      <c r="G48" s="194"/>
-      <c r="H48" s="180">
+      <c r="G48" s="178"/>
+      <c r="H48" s="177">
         <f t="shared" si="8"/>
         <v>0.90593852689675203</v>
       </c>
-      <c r="I48" s="181"/>
+      <c r="I48" s="179"/>
       <c r="J48" s="51">
         <f t="shared" si="9"/>
         <v>1124.1873538309696</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D49" s="13">
         <v>24</v>
       </c>
@@ -5006,22 +5562,22 @@
         <f t="shared" si="6"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="F49" s="180">
+      <c r="F49" s="177">
         <f t="shared" si="7"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="G49" s="194"/>
-      <c r="H49" s="180">
+      <c r="G49" s="178"/>
+      <c r="H49" s="177">
         <f t="shared" si="8"/>
         <v>1.0871262322761024</v>
       </c>
-      <c r="I49" s="181"/>
+      <c r="I49" s="179"/>
       <c r="J49" s="51">
         <f>H49*4095/3.3</f>
         <v>1349.0248245971634</v>
       </c>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D50" s="13">
         <v>28</v>
       </c>
@@ -5029,22 +5585,22 @@
         <f t="shared" si="6"/>
         <v>4.8195929630907202</v>
       </c>
-      <c r="F50" s="180">
+      <c r="F50" s="177">
         <f t="shared" si="7"/>
         <v>2.4097964815453601</v>
       </c>
-      <c r="G50" s="194"/>
-      <c r="H50" s="180">
+      <c r="G50" s="178"/>
+      <c r="H50" s="177">
         <f t="shared" si="8"/>
         <v>1.2683139376554526</v>
       </c>
-      <c r="I50" s="181"/>
+      <c r="I50" s="179"/>
       <c r="J50" s="51">
         <f t="shared" si="9"/>
         <v>1573.8622953633571</v>
       </c>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D51" s="13">
         <v>32</v>
       </c>
@@ -5052,22 +5608,22 @@
         <f t="shared" si="6"/>
         <v>5.5081062435322528</v>
       </c>
-      <c r="F51" s="180">
+      <c r="F51" s="177">
         <f t="shared" si="7"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="G51" s="194"/>
-      <c r="H51" s="180">
+      <c r="G51" s="178"/>
+      <c r="H51" s="177">
         <f t="shared" si="8"/>
         <v>1.4495016430348033</v>
       </c>
-      <c r="I51" s="181"/>
+      <c r="I51" s="179"/>
       <c r="J51" s="51">
         <f t="shared" si="9"/>
         <v>1798.6997661295516</v>
       </c>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D52" s="13">
         <v>38.4</v>
       </c>
@@ -5075,22 +5631,22 @@
         <f t="shared" si="6"/>
         <v>6.6097274922387026</v>
       </c>
-      <c r="F52" s="180">
+      <c r="F52" s="177">
         <f t="shared" si="7"/>
         <v>3.3048637461193513</v>
       </c>
-      <c r="G52" s="194"/>
-      <c r="H52" s="180">
+      <c r="G52" s="178"/>
+      <c r="H52" s="177">
         <f t="shared" si="8"/>
         <v>1.7394019716417637</v>
       </c>
-      <c r="I52" s="181"/>
+      <c r="I52" s="179"/>
       <c r="J52" s="51">
         <f t="shared" si="9"/>
         <v>2158.4397193554614</v>
       </c>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D53" s="13">
         <v>40</v>
       </c>
@@ -5098,22 +5654,22 @@
         <f t="shared" si="6"/>
         <v>6.8851328044153162</v>
       </c>
-      <c r="F53" s="180">
+      <c r="F53" s="177">
         <f t="shared" si="7"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="G53" s="194"/>
-      <c r="H53" s="180">
+      <c r="G53" s="178"/>
+      <c r="H53" s="177">
         <f t="shared" si="8"/>
         <v>1.8118770537935041</v>
       </c>
-      <c r="I53" s="181"/>
+      <c r="I53" s="179"/>
       <c r="J53" s="51">
         <f t="shared" si="9"/>
         <v>2248.3747076619393</v>
       </c>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D54" s="13">
         <v>44</v>
       </c>
@@ -5121,22 +5677,22 @@
         <f t="shared" si="6"/>
         <v>7.573646084856847</v>
       </c>
-      <c r="F54" s="180">
+      <c r="F54" s="177">
         <f t="shared" si="7"/>
         <v>3.786823042428423</v>
       </c>
-      <c r="G54" s="194"/>
-      <c r="H54" s="180">
+      <c r="G54" s="178"/>
+      <c r="H54" s="177">
         <f t="shared" si="8"/>
         <v>1.9930647591728541</v>
       </c>
-      <c r="I54" s="181"/>
+      <c r="I54" s="179"/>
       <c r="J54" s="51">
         <f t="shared" si="9"/>
         <v>2473.2121784281326</v>
       </c>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D55" s="20">
         <v>48</v>
       </c>
@@ -5144,22 +5700,22 @@
         <f t="shared" si="6"/>
         <v>8.2621593652983787</v>
       </c>
-      <c r="F55" s="186">
+      <c r="F55" s="180">
         <f t="shared" si="7"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="G55" s="197"/>
-      <c r="H55" s="186">
+      <c r="G55" s="181"/>
+      <c r="H55" s="180">
         <f t="shared" si="8"/>
         <v>2.1742524645522048</v>
       </c>
-      <c r="I55" s="187"/>
+      <c r="I55" s="182"/>
       <c r="J55" s="67">
         <f t="shared" si="9"/>
         <v>2698.0496491943268</v>
       </c>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D56" s="13">
         <v>52</v>
       </c>
@@ -5167,22 +5723,22 @@
         <f t="shared" si="6"/>
         <v>8.9506726457399104</v>
       </c>
-      <c r="F56" s="180">
+      <c r="F56" s="177">
         <f t="shared" si="7"/>
         <v>4.4753363228699552</v>
       </c>
-      <c r="G56" s="194"/>
-      <c r="H56" s="180">
+      <c r="G56" s="178"/>
+      <c r="H56" s="177">
         <f t="shared" si="8"/>
         <v>2.3554401699315552</v>
       </c>
-      <c r="I56" s="181"/>
+      <c r="I56" s="179"/>
       <c r="J56" s="51">
         <f t="shared" si="9"/>
         <v>2922.887119960521</v>
       </c>
     </row>
-    <row r="57" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="14">
         <v>56</v>
       </c>
@@ -5190,39 +5746,39 @@
         <f t="shared" si="6"/>
         <v>9.6391859261814403</v>
       </c>
-      <c r="F57" s="192">
+      <c r="F57" s="171">
         <f t="shared" si="7"/>
         <v>4.8195929630907202</v>
       </c>
-      <c r="G57" s="196"/>
-      <c r="H57" s="192">
+      <c r="G57" s="172"/>
+      <c r="H57" s="171">
         <f t="shared" si="8"/>
         <v>2.5366278753109053</v>
       </c>
-      <c r="I57" s="193"/>
+      <c r="I57" s="173"/>
       <c r="J57" s="52">
         <f t="shared" si="9"/>
         <v>3147.7245907267143</v>
       </c>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C59" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C62" s="2"/>
       <c r="D62" t="s">
         <v>161</v>
@@ -5237,7 +5793,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
         <v>159</v>
@@ -5252,7 +5808,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="3:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:10" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
         <v>163</v>
@@ -5268,157 +5824,157 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D65" s="243" t="s">
+    <row r="65" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D65" s="169" t="s">
         <v>166</v>
       </c>
-      <c r="E65" s="244"/>
-      <c r="F65" s="203" t="s">
+      <c r="E65" s="170"/>
+      <c r="F65" s="237" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="203"/>
-      <c r="H65" s="203"/>
-      <c r="I65" s="204"/>
-      <c r="J65" s="173" t="s">
+      <c r="G65" s="237"/>
+      <c r="H65" s="237"/>
+      <c r="I65" s="238"/>
+      <c r="J65" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="K65" s="175"/>
-      <c r="L65" s="175"/>
-      <c r="M65" s="176"/>
+      <c r="K65" s="200"/>
+      <c r="L65" s="200"/>
+      <c r="M65" s="201"/>
       <c r="N65" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D66" s="123" t="s">
+    <row r="66" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D66" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="E66" s="159">
+      <c r="E66" s="158">
         <v>20</v>
       </c>
-      <c r="F66" s="129" t="s">
+      <c r="F66" s="128" t="s">
         <v>197</v>
       </c>
-      <c r="G66" s="130">
+      <c r="G66" s="129">
         <v>0.47</v>
       </c>
-      <c r="H66" s="131" t="s">
+      <c r="H66" s="130" t="s">
         <v>20</v>
       </c>
       <c r="I66" s="21">
         <v>20</v>
       </c>
-      <c r="J66" s="129" t="s">
+      <c r="J66" s="128" t="s">
         <v>198</v>
       </c>
-      <c r="K66" s="130">
+      <c r="K66" s="129">
         <v>4.7</v>
       </c>
-      <c r="L66" s="131" t="s">
+      <c r="L66" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="M66" s="132">
+      <c r="M66" s="131">
         <v>2.7</v>
       </c>
-      <c r="N66" s="157" t="s">
+      <c r="N66" s="156" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="4:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D67" s="124" t="s">
+    <row r="67" spans="4:14" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D67" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="E67" s="160">
+      <c r="E67" s="159">
         <v>4</v>
       </c>
-      <c r="F67" s="133" t="s">
+      <c r="F67" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="134">
+      <c r="G67" s="133">
         <v>10</v>
       </c>
-      <c r="H67" s="135" t="s">
+      <c r="H67" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="I67" s="122">
+      <c r="I67" s="121">
         <v>10</v>
       </c>
-      <c r="J67" s="133" t="s">
+      <c r="J67" s="132" t="s">
         <v>199</v>
       </c>
-      <c r="K67" s="134">
+      <c r="K67" s="133">
         <v>4.7</v>
       </c>
-      <c r="L67" s="135" t="s">
+      <c r="L67" s="134" t="s">
         <v>200</v>
       </c>
-      <c r="M67" s="136">
+      <c r="M67" s="135">
         <v>3</v>
       </c>
-      <c r="N67" s="158" t="s">
+      <c r="N67" s="157" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D68" s="100" t="s">
+    <row r="68" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D68" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="E68" s="128" t="s">
+      <c r="E68" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="F68" s="205" t="s">
+      <c r="F68" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="175"/>
-      <c r="H68" s="175" t="s">
+      <c r="G68" s="200"/>
+      <c r="H68" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="176"/>
-      <c r="J68" s="206" t="s">
+      <c r="I68" s="201"/>
+      <c r="J68" s="240" t="s">
         <v>18</v>
       </c>
-      <c r="K68" s="207"/>
-      <c r="L68" s="207" t="s">
+      <c r="K68" s="241"/>
+      <c r="L68" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="M68" s="208"/>
+      <c r="M68" s="242"/>
       <c r="N68" s="69" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="69" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D69" s="43">
         <v>0</v>
       </c>
       <c r="E69" s="44">
         <v>0</v>
       </c>
-      <c r="F69" s="200">
+      <c r="F69" s="222">
         <f t="shared" ref="F69:F79" si="10">E69*G$67/(G$66+G$67)</f>
         <v>0</v>
       </c>
-      <c r="G69" s="201"/>
-      <c r="H69" s="201">
+      <c r="G69" s="236"/>
+      <c r="H69" s="236">
         <f t="shared" ref="H69:H79" si="11">F69*(1+I$66/I$67)</f>
         <v>0</v>
       </c>
-      <c r="I69" s="183"/>
-      <c r="J69" s="200">
+      <c r="I69" s="194"/>
+      <c r="J69" s="222">
         <f t="shared" ref="J69:J79" si="12">H69*K$67/(K$66+K$67)</f>
         <v>0</v>
       </c>
-      <c r="K69" s="201"/>
-      <c r="L69" s="201">
+      <c r="K69" s="236"/>
+      <c r="L69" s="236">
         <f t="shared" ref="L69:L79" si="13">J69*M$67/(M$66+M$67)</f>
         <v>0</v>
       </c>
-      <c r="M69" s="202"/>
+      <c r="M69" s="193"/>
       <c r="N69" s="17">
         <f>L69*4096/3.3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="70" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D70" s="13">
         <v>2</v>
       </c>
@@ -5426,32 +5982,32 @@
         <f>$E$67*D70/$E$66</f>
         <v>0.4</v>
       </c>
-      <c r="F70" s="198">
+      <c r="F70" s="195">
         <f t="shared" si="10"/>
         <v>0.38204393505253104</v>
       </c>
-      <c r="G70" s="199"/>
-      <c r="H70" s="199">
+      <c r="G70" s="235"/>
+      <c r="H70" s="235">
         <f t="shared" si="11"/>
         <v>1.1461318051575931</v>
       </c>
-      <c r="I70" s="181"/>
-      <c r="J70" s="198">
+      <c r="I70" s="179"/>
+      <c r="J70" s="195">
         <f t="shared" si="12"/>
         <v>0.57306590257879653</v>
       </c>
-      <c r="K70" s="199"/>
-      <c r="L70" s="199">
+      <c r="K70" s="235"/>
+      <c r="L70" s="235">
         <f t="shared" si="13"/>
         <v>0.30161363293620869</v>
       </c>
-      <c r="M70" s="194"/>
+      <c r="M70" s="178"/>
       <c r="N70" s="19">
         <f>L70*4096/3.3</f>
         <v>374.36649712324572</v>
       </c>
     </row>
-    <row r="71" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="71" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D71" s="13">
         <v>4</v>
       </c>
@@ -5459,32 +6015,32 @@
         <f t="shared" ref="E71:E79" si="14">$E$67*D71/$E$66</f>
         <v>0.8</v>
       </c>
-      <c r="F71" s="198">
+      <c r="F71" s="195">
         <f t="shared" si="10"/>
         <v>0.76408787010506207</v>
       </c>
-      <c r="G71" s="199"/>
-      <c r="H71" s="199">
+      <c r="G71" s="235"/>
+      <c r="H71" s="235">
         <f t="shared" si="11"/>
         <v>2.2922636103151861</v>
       </c>
-      <c r="I71" s="181"/>
-      <c r="J71" s="198">
+      <c r="I71" s="179"/>
+      <c r="J71" s="195">
         <f t="shared" si="12"/>
         <v>1.1461318051575931</v>
       </c>
-      <c r="K71" s="199"/>
-      <c r="L71" s="199">
+      <c r="K71" s="235"/>
+      <c r="L71" s="235">
         <f t="shared" si="13"/>
         <v>0.60322726587241737</v>
       </c>
-      <c r="M71" s="194"/>
+      <c r="M71" s="178"/>
       <c r="N71" s="19">
         <f t="shared" ref="N71:N79" si="15">L71*4096/3.3</f>
         <v>748.73299424649144</v>
       </c>
     </row>
-    <row r="72" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="72" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D72" s="13">
         <v>6</v>
       </c>
@@ -5492,32 +6048,32 @@
         <f t="shared" si="14"/>
         <v>1.2</v>
       </c>
-      <c r="F72" s="198">
+      <c r="F72" s="195">
         <f t="shared" si="10"/>
         <v>1.1461318051575931</v>
       </c>
-      <c r="G72" s="199"/>
-      <c r="H72" s="199">
+      <c r="G72" s="235"/>
+      <c r="H72" s="235">
         <f t="shared" si="11"/>
         <v>3.4383954154727792</v>
       </c>
-      <c r="I72" s="181"/>
-      <c r="J72" s="198">
+      <c r="I72" s="179"/>
+      <c r="J72" s="195">
         <f t="shared" si="12"/>
         <v>1.7191977077363894</v>
       </c>
-      <c r="K72" s="199"/>
-      <c r="L72" s="199">
+      <c r="K72" s="235"/>
+      <c r="L72" s="235">
         <f t="shared" si="13"/>
         <v>0.90484089880862584</v>
       </c>
-      <c r="M72" s="194"/>
+      <c r="M72" s="178"/>
       <c r="N72" s="19">
         <f t="shared" si="15"/>
         <v>1123.0994913697368</v>
       </c>
     </row>
-    <row r="73" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="73" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D73" s="13">
         <v>8</v>
       </c>
@@ -5525,32 +6081,32 @@
         <f t="shared" si="14"/>
         <v>1.6</v>
       </c>
-      <c r="F73" s="198">
+      <c r="F73" s="195">
         <f t="shared" si="10"/>
         <v>1.5281757402101241</v>
       </c>
-      <c r="G73" s="199"/>
-      <c r="H73" s="199">
+      <c r="G73" s="235"/>
+      <c r="H73" s="235">
         <f t="shared" si="11"/>
         <v>4.5845272206303722</v>
       </c>
-      <c r="I73" s="181"/>
-      <c r="J73" s="198">
+      <c r="I73" s="179"/>
+      <c r="J73" s="195">
         <f t="shared" si="12"/>
         <v>2.2922636103151861</v>
       </c>
-      <c r="K73" s="199"/>
-      <c r="L73" s="199">
+      <c r="K73" s="235"/>
+      <c r="L73" s="235">
         <f t="shared" si="13"/>
         <v>1.2064545317448347</v>
       </c>
-      <c r="M73" s="194"/>
+      <c r="M73" s="178"/>
       <c r="N73" s="19">
         <f t="shared" si="15"/>
         <v>1497.4659884929829</v>
       </c>
     </row>
-    <row r="74" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="74" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D74" s="20">
         <v>10</v>
       </c>
@@ -5558,65 +6114,65 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="F74" s="217">
+      <c r="F74" s="225">
         <f t="shared" si="10"/>
         <v>1.910219675262655</v>
       </c>
-      <c r="G74" s="218"/>
-      <c r="H74" s="218">
+      <c r="G74" s="234"/>
+      <c r="H74" s="234">
         <f t="shared" si="11"/>
         <v>5.7306590257879648</v>
       </c>
-      <c r="I74" s="187"/>
-      <c r="J74" s="217">
+      <c r="I74" s="182"/>
+      <c r="J74" s="225">
         <f t="shared" si="12"/>
         <v>2.8653295128939824</v>
       </c>
-      <c r="K74" s="218"/>
-      <c r="L74" s="218">
+      <c r="K74" s="234"/>
+      <c r="L74" s="234">
         <f t="shared" si="13"/>
         <v>1.5080681646810434</v>
       </c>
-      <c r="M74" s="197"/>
+      <c r="M74" s="181"/>
       <c r="N74" s="64">
         <f t="shared" si="15"/>
         <v>1871.8324856162285</v>
       </c>
     </row>
-    <row r="75" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D75" s="84">
+    <row r="75" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D75" s="83">
         <v>12</v>
       </c>
-      <c r="E75" s="85">
+      <c r="E75" s="84">
         <f t="shared" si="14"/>
         <v>2.4</v>
       </c>
-      <c r="F75" s="213">
+      <c r="F75" s="230">
         <f t="shared" si="10"/>
         <v>2.2922636103151861</v>
       </c>
-      <c r="G75" s="214"/>
-      <c r="H75" s="214">
+      <c r="G75" s="231"/>
+      <c r="H75" s="231">
         <f t="shared" si="11"/>
         <v>6.8767908309455583</v>
       </c>
-      <c r="I75" s="215"/>
-      <c r="J75" s="213">
+      <c r="I75" s="232"/>
+      <c r="J75" s="230">
         <f t="shared" si="12"/>
         <v>3.4383954154727787</v>
       </c>
-      <c r="K75" s="214"/>
-      <c r="L75" s="214">
+      <c r="K75" s="231"/>
+      <c r="L75" s="231">
         <f t="shared" si="13"/>
         <v>1.8096817976172517</v>
       </c>
-      <c r="M75" s="216"/>
-      <c r="N75" s="154">
+      <c r="M75" s="233"/>
+      <c r="N75" s="153">
         <f t="shared" si="15"/>
         <v>2246.1989827394736</v>
       </c>
     </row>
-    <row r="76" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D76" s="13">
         <v>14</v>
       </c>
@@ -5624,32 +6180,32 @@
         <f t="shared" si="14"/>
         <v>2.8</v>
       </c>
-      <c r="F76" s="209">
+      <c r="F76" s="226">
         <f t="shared" si="10"/>
         <v>2.674307545367717</v>
       </c>
-      <c r="G76" s="210"/>
-      <c r="H76" s="210">
+      <c r="G76" s="227"/>
+      <c r="H76" s="227">
         <f t="shared" si="11"/>
         <v>8.02292263610315</v>
       </c>
-      <c r="I76" s="211"/>
-      <c r="J76" s="209">
+      <c r="I76" s="228"/>
+      <c r="J76" s="226">
         <f t="shared" si="12"/>
         <v>4.011461318051575</v>
       </c>
-      <c r="K76" s="210"/>
-      <c r="L76" s="210">
+      <c r="K76" s="227"/>
+      <c r="L76" s="227">
         <f t="shared" si="13"/>
         <v>2.1112954305534606</v>
       </c>
-      <c r="M76" s="212"/>
-      <c r="N76" s="127">
+      <c r="M76" s="229"/>
+      <c r="N76" s="126">
         <f t="shared" si="15"/>
         <v>2620.5654798627197</v>
       </c>
     </row>
-    <row r="77" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="77" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D77" s="13">
         <v>16</v>
       </c>
@@ -5657,32 +6213,32 @@
         <f t="shared" si="14"/>
         <v>3.2</v>
       </c>
-      <c r="F77" s="209">
+      <c r="F77" s="226">
         <f t="shared" si="10"/>
         <v>3.0563514804202483</v>
       </c>
-      <c r="G77" s="210"/>
-      <c r="H77" s="210">
+      <c r="G77" s="227"/>
+      <c r="H77" s="227">
         <f t="shared" si="11"/>
         <v>9.1690544412607444</v>
       </c>
-      <c r="I77" s="211"/>
-      <c r="J77" s="209">
+      <c r="I77" s="228"/>
+      <c r="J77" s="226">
         <f t="shared" si="12"/>
         <v>4.5845272206303722</v>
       </c>
-      <c r="K77" s="210"/>
-      <c r="L77" s="210">
+      <c r="K77" s="227"/>
+      <c r="L77" s="227">
         <f t="shared" si="13"/>
         <v>2.4129090634896695</v>
       </c>
-      <c r="M77" s="212"/>
-      <c r="N77" s="127">
+      <c r="M77" s="229"/>
+      <c r="N77" s="126">
         <f t="shared" si="15"/>
         <v>2994.9319769859658</v>
       </c>
     </row>
-    <row r="78" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="78" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D78" s="13">
         <v>18</v>
       </c>
@@ -5690,32 +6246,32 @@
         <f t="shared" si="14"/>
         <v>3.6</v>
       </c>
-      <c r="F78" s="209">
+      <c r="F78" s="226">
         <f t="shared" si="10"/>
         <v>3.4383954154727792</v>
       </c>
-      <c r="G78" s="210"/>
-      <c r="H78" s="210">
+      <c r="G78" s="227"/>
+      <c r="H78" s="227">
         <f t="shared" si="11"/>
         <v>10.315186246418337</v>
       </c>
-      <c r="I78" s="211"/>
-      <c r="J78" s="209">
+      <c r="I78" s="228"/>
+      <c r="J78" s="226">
         <f t="shared" si="12"/>
         <v>5.1575931232091685</v>
       </c>
-      <c r="K78" s="210"/>
-      <c r="L78" s="210">
+      <c r="K78" s="227"/>
+      <c r="L78" s="227">
         <f t="shared" si="13"/>
         <v>2.7145226964258784</v>
       </c>
-      <c r="M78" s="212"/>
-      <c r="N78" s="127">
+      <c r="M78" s="229"/>
+      <c r="N78" s="126">
         <f t="shared" si="15"/>
         <v>3369.2984741092118</v>
       </c>
     </row>
-    <row r="79" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="79" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D79" s="13">
         <v>20</v>
       </c>
@@ -5723,690 +6279,690 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="F79" s="209">
+      <c r="F79" s="226">
         <f t="shared" si="10"/>
         <v>3.82043935052531</v>
       </c>
-      <c r="G79" s="210"/>
-      <c r="H79" s="210">
+      <c r="G79" s="227"/>
+      <c r="H79" s="227">
         <f t="shared" si="11"/>
         <v>11.46131805157593</v>
       </c>
-      <c r="I79" s="211"/>
-      <c r="J79" s="209">
+      <c r="I79" s="228"/>
+      <c r="J79" s="226">
         <f t="shared" si="12"/>
         <v>5.7306590257879648</v>
       </c>
-      <c r="K79" s="210"/>
-      <c r="L79" s="210">
+      <c r="K79" s="227"/>
+      <c r="L79" s="227">
         <f t="shared" si="13"/>
         <v>3.0161363293620869</v>
       </c>
-      <c r="M79" s="212"/>
-      <c r="N79" s="127">
+      <c r="M79" s="229"/>
+      <c r="N79" s="126">
         <f t="shared" si="15"/>
         <v>3743.664971232457</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C81" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="3:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="3:15" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C84" s="2"/>
-      <c r="D84" s="245" t="s">
+      <c r="D84" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="E84" s="173" t="s">
+      <c r="E84" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="F84" s="175"/>
-      <c r="G84" s="175"/>
-      <c r="H84" s="175"/>
-      <c r="I84" s="175"/>
-      <c r="J84" s="174"/>
-      <c r="K84" s="173" t="s">
+      <c r="F84" s="200"/>
+      <c r="G84" s="200"/>
+      <c r="H84" s="200"/>
+      <c r="I84" s="200"/>
+      <c r="J84" s="220"/>
+      <c r="K84" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="L84" s="175"/>
-      <c r="M84" s="175"/>
-      <c r="N84" s="176"/>
+      <c r="L84" s="200"/>
+      <c r="M84" s="200"/>
+      <c r="N84" s="201"/>
       <c r="O84" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D85" s="246"/>
-      <c r="E85" s="137" t="s">
+    <row r="85" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D85" s="175"/>
+      <c r="E85" s="136" t="s">
         <v>203</v>
       </c>
-      <c r="F85" s="161">
+      <c r="F85" s="160">
         <v>0.5</v>
       </c>
-      <c r="G85" s="137" t="s">
+      <c r="G85" s="136" t="s">
         <v>204</v>
       </c>
-      <c r="H85" s="139">
+      <c r="H85" s="138">
         <v>10</v>
       </c>
-      <c r="I85" s="162" t="s">
+      <c r="I85" s="161" t="s">
         <v>206</v>
       </c>
-      <c r="J85" s="138">
+      <c r="J85" s="137">
         <v>0</v>
       </c>
-      <c r="K85" s="137" t="s">
+      <c r="K85" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="L85" s="138">
+      <c r="L85" s="137">
         <v>4.7</v>
       </c>
-      <c r="M85" s="137" t="s">
+      <c r="M85" s="136" t="s">
         <v>210</v>
       </c>
-      <c r="N85" s="139">
+      <c r="N85" s="138">
         <v>2.7</v>
       </c>
-      <c r="O85" s="163" t="s">
+      <c r="O85" s="162" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D86" s="247"/>
-      <c r="E86" s="124"/>
-      <c r="F86" s="125"/>
-      <c r="G86" s="120" t="s">
+    <row r="86" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D86" s="176"/>
+      <c r="E86" s="123"/>
+      <c r="F86" s="124"/>
+      <c r="G86" s="119" t="s">
         <v>205</v>
       </c>
-      <c r="H86" s="122">
+      <c r="H86" s="121">
         <v>1</v>
       </c>
-      <c r="I86" s="133" t="s">
+      <c r="I86" s="132" t="s">
         <v>207</v>
       </c>
-      <c r="J86" s="136">
+      <c r="J86" s="135">
         <v>10000</v>
       </c>
-      <c r="K86" s="120" t="s">
+      <c r="K86" s="119" t="s">
         <v>209</v>
       </c>
-      <c r="L86" s="136">
+      <c r="L86" s="135">
         <v>4.7</v>
       </c>
-      <c r="M86" s="120" t="s">
+      <c r="M86" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="N86" s="122">
+      <c r="N86" s="121">
         <v>3</v>
       </c>
-      <c r="O86" s="156" t="s">
+      <c r="O86" s="155" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="3:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="3:15" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D87" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E87" s="100" t="s">
+      <c r="E87" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="F87" s="101" t="s">
+      <c r="F87" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="G87" s="237" t="s">
+      <c r="G87" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="H87" s="238"/>
-      <c r="I87" s="228" t="s">
+      <c r="H87" s="191"/>
+      <c r="I87" s="221" t="s">
         <v>81</v>
       </c>
-      <c r="J87" s="229"/>
-      <c r="K87" s="237" t="s">
+      <c r="J87" s="190"/>
+      <c r="K87" s="189" t="s">
         <v>18</v>
       </c>
-      <c r="L87" s="229"/>
-      <c r="M87" s="237" t="s">
+      <c r="L87" s="190"/>
+      <c r="M87" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="N87" s="238"/>
+      <c r="N87" s="191"/>
       <c r="O87" s="75" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D88" s="68">
         <v>0</v>
       </c>
-      <c r="E88" s="143">
+      <c r="E88" s="142">
         <f>D88*F$85</f>
         <v>0</v>
       </c>
-      <c r="F88" s="147">
+      <c r="F88" s="146">
         <f>D88*E88</f>
         <v>0</v>
       </c>
-      <c r="G88" s="182">
+      <c r="G88" s="192">
         <f>E88*(1+H$85/H$86)</f>
         <v>0</v>
       </c>
-      <c r="H88" s="183"/>
-      <c r="I88" s="200">
+      <c r="H88" s="194"/>
+      <c r="I88" s="222">
         <f>G88*J$86/(J$85+J$86)</f>
         <v>0</v>
       </c>
-      <c r="J88" s="202"/>
-      <c r="K88" s="182">
+      <c r="J88" s="193"/>
+      <c r="K88" s="192">
         <f>I88*L$86/(L$85+L$86)</f>
         <v>0</v>
       </c>
-      <c r="L88" s="202"/>
-      <c r="M88" s="182">
+      <c r="L88" s="193"/>
+      <c r="M88" s="192">
         <f t="shared" ref="M88:M100" si="16">K88*N$86/(N$85+N$86)</f>
         <v>0</v>
       </c>
-      <c r="N88" s="183"/>
+      <c r="N88" s="194"/>
       <c r="O88" s="50">
         <f t="shared" ref="O88:O100" si="17">M88*4096/3.3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D89" s="33">
         <v>0.1</v>
       </c>
-      <c r="E89" s="144">
+      <c r="E89" s="143">
         <f t="shared" ref="E89:E100" si="18">D89*F$85</f>
         <v>0.05</v>
       </c>
-      <c r="F89" s="148">
+      <c r="F89" s="147">
         <f>D89*E89</f>
         <v>5.000000000000001E-3</v>
       </c>
-      <c r="G89" s="180">
+      <c r="G89" s="177">
         <f>E89*(1+H$85/H$86)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H89" s="181"/>
-      <c r="I89" s="198">
+      <c r="H89" s="179"/>
+      <c r="I89" s="195">
         <f t="shared" ref="I89:I100" si="19">G89*J$86/(J$85+J$86)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="J89" s="194"/>
-      <c r="K89" s="180">
+      <c r="J89" s="178"/>
+      <c r="K89" s="177">
         <f t="shared" ref="K89:K100" si="20">I89*L$86/(L$85+L$86)</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="L89" s="194"/>
-      <c r="M89" s="180">
+      <c r="L89" s="178"/>
+      <c r="M89" s="177">
         <f t="shared" si="16"/>
         <v>0.14473684210526316</v>
       </c>
-      <c r="N89" s="181"/>
+      <c r="N89" s="179"/>
       <c r="O89" s="51">
         <f t="shared" si="17"/>
         <v>179.64912280701756</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D90" s="76">
         <v>0.2</v>
       </c>
-      <c r="E90" s="141">
+      <c r="E90" s="140">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="F90" s="148">
+      <c r="F90" s="147">
         <f t="shared" ref="F90:F100" si="21">D90*E90</f>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="G90" s="239">
+      <c r="G90" s="183">
         <f>E90*(1+H$85/H$86)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H90" s="240"/>
-      <c r="I90" s="230">
+      <c r="H90" s="185"/>
+      <c r="I90" s="223">
         <f t="shared" si="19"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="J90" s="231"/>
-      <c r="K90" s="239">
+      <c r="J90" s="184"/>
+      <c r="K90" s="183">
         <f t="shared" si="20"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="L90" s="231"/>
-      <c r="M90" s="239">
+      <c r="L90" s="184"/>
+      <c r="M90" s="183">
         <f t="shared" si="16"/>
         <v>0.28947368421052633</v>
       </c>
-      <c r="N90" s="240"/>
+      <c r="N90" s="185"/>
       <c r="O90" s="54">
         <f t="shared" si="17"/>
         <v>359.29824561403512</v>
       </c>
     </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D91" s="74">
         <v>0.3</v>
       </c>
-      <c r="E91" s="142">
+      <c r="E91" s="141">
         <f t="shared" si="18"/>
         <v>0.15</v>
       </c>
-      <c r="F91" s="150">
+      <c r="F91" s="149">
         <f t="shared" si="21"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G91" s="241">
+      <c r="G91" s="186">
         <f t="shared" ref="G91:G100" si="22">E91*(1+H$85/H$86)</f>
         <v>1.65</v>
       </c>
-      <c r="H91" s="242"/>
-      <c r="I91" s="232">
+      <c r="H91" s="188"/>
+      <c r="I91" s="224">
         <f t="shared" si="19"/>
         <v>1.65</v>
       </c>
-      <c r="J91" s="233"/>
-      <c r="K91" s="241">
+      <c r="J91" s="187"/>
+      <c r="K91" s="186">
         <f t="shared" si="20"/>
         <v>0.82499999999999996</v>
       </c>
-      <c r="L91" s="233"/>
-      <c r="M91" s="241">
+      <c r="L91" s="187"/>
+      <c r="M91" s="186">
         <f t="shared" si="16"/>
         <v>0.43421052631578938</v>
       </c>
-      <c r="N91" s="242"/>
+      <c r="N91" s="188"/>
       <c r="O91" s="78">
         <f t="shared" si="17"/>
         <v>538.94736842105249</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D92" s="76">
         <v>0.4</v>
       </c>
-      <c r="E92" s="144">
+      <c r="E92" s="143">
         <f t="shared" si="18"/>
         <v>0.2</v>
       </c>
-      <c r="F92" s="148">
+      <c r="F92" s="147">
         <f t="shared" si="21"/>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="G92" s="180">
+      <c r="G92" s="177">
         <f t="shared" si="22"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H92" s="181"/>
-      <c r="I92" s="198">
+      <c r="H92" s="179"/>
+      <c r="I92" s="195">
         <f t="shared" si="19"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="J92" s="194"/>
-      <c r="K92" s="180">
+      <c r="J92" s="178"/>
+      <c r="K92" s="177">
         <f t="shared" si="20"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L92" s="194"/>
-      <c r="M92" s="180">
+      <c r="L92" s="178"/>
+      <c r="M92" s="177">
         <f t="shared" si="16"/>
         <v>0.57894736842105265</v>
       </c>
-      <c r="N92" s="181"/>
+      <c r="N92" s="179"/>
       <c r="O92" s="51">
         <f t="shared" si="17"/>
         <v>718.59649122807025</v>
       </c>
     </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D93" s="33">
         <v>0.5</v>
       </c>
-      <c r="E93" s="144">
+      <c r="E93" s="143">
         <f t="shared" si="18"/>
         <v>0.25</v>
       </c>
-      <c r="F93" s="148">
+      <c r="F93" s="147">
         <f t="shared" si="21"/>
         <v>0.125</v>
       </c>
-      <c r="G93" s="180">
+      <c r="G93" s="177">
         <f t="shared" si="22"/>
         <v>2.75</v>
       </c>
-      <c r="H93" s="181"/>
-      <c r="I93" s="198">
+      <c r="H93" s="179"/>
+      <c r="I93" s="195">
         <f t="shared" si="19"/>
         <v>2.75</v>
       </c>
-      <c r="J93" s="194"/>
-      <c r="K93" s="180">
+      <c r="J93" s="178"/>
+      <c r="K93" s="177">
         <f t="shared" si="20"/>
         <v>1.375</v>
       </c>
-      <c r="L93" s="194"/>
-      <c r="M93" s="180">
+      <c r="L93" s="178"/>
+      <c r="M93" s="177">
         <f t="shared" si="16"/>
         <v>0.72368421052631582</v>
       </c>
-      <c r="N93" s="181"/>
+      <c r="N93" s="179"/>
       <c r="O93" s="51">
         <f t="shared" si="17"/>
         <v>898.24561403508778</v>
       </c>
     </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D94" s="73">
         <v>0.6</v>
       </c>
-      <c r="E94" s="146">
+      <c r="E94" s="145">
         <f t="shared" si="18"/>
         <v>0.3</v>
       </c>
-      <c r="F94" s="151">
+      <c r="F94" s="150">
         <f t="shared" si="21"/>
         <v>0.18</v>
       </c>
-      <c r="G94" s="186">
+      <c r="G94" s="180">
         <f t="shared" si="22"/>
         <v>3.3</v>
       </c>
-      <c r="H94" s="187"/>
-      <c r="I94" s="217">
+      <c r="H94" s="182"/>
+      <c r="I94" s="225">
         <f t="shared" si="19"/>
         <v>3.3</v>
       </c>
-      <c r="J94" s="197"/>
-      <c r="K94" s="186">
+      <c r="J94" s="181"/>
+      <c r="K94" s="180">
         <f t="shared" si="20"/>
         <v>1.65</v>
       </c>
-      <c r="L94" s="197"/>
-      <c r="M94" s="186">
+      <c r="L94" s="181"/>
+      <c r="M94" s="180">
         <f t="shared" si="16"/>
         <v>0.86842105263157876</v>
       </c>
-      <c r="N94" s="187"/>
+      <c r="N94" s="182"/>
       <c r="O94" s="67">
         <f t="shared" si="17"/>
         <v>1077.894736842105</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D95" s="33">
         <v>0.7</v>
       </c>
-      <c r="E95" s="144">
+      <c r="E95" s="143">
         <f t="shared" si="18"/>
         <v>0.35</v>
       </c>
-      <c r="F95" s="148">
+      <c r="F95" s="147">
         <f t="shared" si="21"/>
         <v>0.24499999999999997</v>
       </c>
-      <c r="G95" s="180">
+      <c r="G95" s="177">
         <f t="shared" si="22"/>
         <v>3.8499999999999996</v>
       </c>
-      <c r="H95" s="181"/>
-      <c r="I95" s="198">
+      <c r="H95" s="179"/>
+      <c r="I95" s="195">
         <f t="shared" si="19"/>
         <v>3.85</v>
       </c>
-      <c r="J95" s="194"/>
-      <c r="K95" s="180">
+      <c r="J95" s="178"/>
+      <c r="K95" s="177">
         <f t="shared" si="20"/>
         <v>1.9250000000000003</v>
       </c>
-      <c r="L95" s="194"/>
-      <c r="M95" s="180">
+      <c r="L95" s="178"/>
+      <c r="M95" s="177">
         <f t="shared" si="16"/>
         <v>1.013157894736842</v>
       </c>
-      <c r="N95" s="181"/>
+      <c r="N95" s="179"/>
       <c r="O95" s="51">
         <f t="shared" si="17"/>
         <v>1257.5438596491229</v>
       </c>
     </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D96" s="76">
         <v>0.8</v>
       </c>
-      <c r="E96" s="144">
+      <c r="E96" s="143">
         <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
-      <c r="F96" s="148">
+      <c r="F96" s="147">
         <f t="shared" si="21"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="G96" s="180">
+      <c r="G96" s="177">
         <f t="shared" si="22"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="H96" s="181"/>
-      <c r="I96" s="198">
+      <c r="H96" s="179"/>
+      <c r="I96" s="195">
         <f t="shared" si="19"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="J96" s="194"/>
-      <c r="K96" s="180">
+      <c r="J96" s="178"/>
+      <c r="K96" s="177">
         <f t="shared" si="20"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L96" s="194"/>
-      <c r="M96" s="180">
+      <c r="L96" s="178"/>
+      <c r="M96" s="177">
         <f t="shared" si="16"/>
         <v>1.1578947368421053</v>
       </c>
-      <c r="N96" s="181"/>
+      <c r="N96" s="179"/>
       <c r="O96" s="51">
         <f t="shared" si="17"/>
         <v>1437.1929824561405</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D97" s="33">
         <v>0.9</v>
       </c>
-      <c r="E97" s="144">
+      <c r="E97" s="143">
         <f t="shared" si="18"/>
         <v>0.45</v>
       </c>
-      <c r="F97" s="148">
+      <c r="F97" s="147">
         <f t="shared" si="21"/>
         <v>0.40500000000000003</v>
       </c>
-      <c r="G97" s="180">
+      <c r="G97" s="177">
         <f t="shared" si="22"/>
         <v>4.95</v>
       </c>
-      <c r="H97" s="181"/>
-      <c r="I97" s="198">
+      <c r="H97" s="179"/>
+      <c r="I97" s="195">
         <f t="shared" si="19"/>
         <v>4.95</v>
       </c>
-      <c r="J97" s="194"/>
-      <c r="K97" s="180">
+      <c r="J97" s="178"/>
+      <c r="K97" s="177">
         <f t="shared" si="20"/>
         <v>2.4750000000000001</v>
       </c>
-      <c r="L97" s="194"/>
-      <c r="M97" s="180">
+      <c r="L97" s="178"/>
+      <c r="M97" s="177">
         <f t="shared" si="16"/>
         <v>1.3026315789473686</v>
       </c>
-      <c r="N97" s="181"/>
+      <c r="N97" s="179"/>
       <c r="O97" s="51">
         <f t="shared" si="17"/>
         <v>1616.8421052631581</v>
       </c>
     </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="98" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D98" s="76">
         <v>1</v>
       </c>
-      <c r="E98" s="144">
+      <c r="E98" s="143">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="F98" s="148">
+      <c r="F98" s="147">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="G98" s="180">
+      <c r="G98" s="177">
         <f t="shared" si="22"/>
         <v>5.5</v>
       </c>
-      <c r="H98" s="181"/>
-      <c r="I98" s="198">
+      <c r="H98" s="179"/>
+      <c r="I98" s="195">
         <f t="shared" si="19"/>
         <v>5.5</v>
       </c>
-      <c r="J98" s="194"/>
-      <c r="K98" s="180">
+      <c r="J98" s="178"/>
+      <c r="K98" s="177">
         <f t="shared" si="20"/>
         <v>2.75</v>
       </c>
-      <c r="L98" s="194"/>
-      <c r="M98" s="180">
+      <c r="L98" s="178"/>
+      <c r="M98" s="177">
         <f t="shared" si="16"/>
         <v>1.4473684210526316</v>
       </c>
-      <c r="N98" s="181"/>
+      <c r="N98" s="179"/>
       <c r="O98" s="51">
         <f t="shared" si="17"/>
         <v>1796.4912280701756</v>
       </c>
     </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="99" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D99" s="33">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E99" s="144">
+      <c r="E99" s="143">
         <f t="shared" si="18"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="F99" s="148">
+      <c r="F99" s="147">
         <f t="shared" si="21"/>
         <v>0.60500000000000009</v>
       </c>
-      <c r="G99" s="180">
+      <c r="G99" s="177">
         <f t="shared" si="22"/>
         <v>6.0500000000000007</v>
       </c>
-      <c r="H99" s="181"/>
-      <c r="I99" s="198">
+      <c r="H99" s="179"/>
+      <c r="I99" s="195">
         <f t="shared" si="19"/>
         <v>6.0500000000000007</v>
       </c>
-      <c r="J99" s="194"/>
-      <c r="K99" s="180">
+      <c r="J99" s="178"/>
+      <c r="K99" s="177">
         <f t="shared" si="20"/>
         <v>3.0250000000000004</v>
       </c>
-      <c r="L99" s="194"/>
-      <c r="M99" s="180">
+      <c r="L99" s="178"/>
+      <c r="M99" s="177">
         <f t="shared" si="16"/>
         <v>1.5921052631578949</v>
       </c>
-      <c r="N99" s="181"/>
+      <c r="N99" s="179"/>
       <c r="O99" s="51">
         <f t="shared" si="17"/>
         <v>1976.1403508771932</v>
       </c>
     </row>
-    <row r="100" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D100" s="77">
         <v>1.2</v>
       </c>
-      <c r="E100" s="145">
+      <c r="E100" s="144">
         <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
-      <c r="F100" s="149">
+      <c r="F100" s="148">
         <f t="shared" si="21"/>
         <v>0.72</v>
       </c>
-      <c r="G100" s="192">
+      <c r="G100" s="171">
         <f t="shared" si="22"/>
         <v>6.6</v>
       </c>
-      <c r="H100" s="193"/>
-      <c r="I100" s="227">
+      <c r="H100" s="173"/>
+      <c r="I100" s="219">
         <f t="shared" si="19"/>
         <v>6.6</v>
       </c>
-      <c r="J100" s="196"/>
-      <c r="K100" s="192">
+      <c r="J100" s="172"/>
+      <c r="K100" s="171">
         <f t="shared" si="20"/>
         <v>3.3</v>
       </c>
-      <c r="L100" s="196"/>
-      <c r="M100" s="192">
+      <c r="L100" s="172"/>
+      <c r="M100" s="171">
         <f t="shared" si="16"/>
         <v>1.7368421052631575</v>
       </c>
-      <c r="N100" s="193"/>
+      <c r="N100" s="173"/>
       <c r="O100" s="52">
         <f t="shared" si="17"/>
         <v>2155.78947368421</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C102" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="103" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="104" spans="3:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D104" s="219" t="s">
+    <row r="103" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="3:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D104" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="E104" s="222" t="s">
+      <c r="E104" s="211" t="s">
         <v>223</v>
       </c>
-      <c r="F104" s="223"/>
-      <c r="G104" s="224" t="s">
+      <c r="F104" s="212"/>
+      <c r="G104" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="H104" s="225"/>
-      <c r="I104" s="225"/>
-      <c r="J104" s="226"/>
+      <c r="H104" s="214"/>
+      <c r="I104" s="214"/>
+      <c r="J104" s="215"/>
       <c r="K104" s="25"/>
     </row>
-    <row r="105" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D105" s="220"/>
-      <c r="E105" s="234" t="s">
+    <row r="105" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D105" s="209"/>
+      <c r="E105" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="F105" s="235"/>
-      <c r="G105" s="234" t="s">
+      <c r="F105" s="217"/>
+      <c r="G105" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="H105" s="236"/>
-      <c r="I105" s="236" t="s">
+      <c r="H105" s="218"/>
+      <c r="I105" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="J105" s="235"/>
+      <c r="J105" s="217"/>
       <c r="K105" s="26"/>
     </row>
-    <row r="106" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D106" s="220"/>
+    <row r="106" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D106" s="209"/>
       <c r="E106" s="8" t="s">
         <v>24</v>
       </c>
@@ -6429,8 +6985,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D107" s="221"/>
+    <row r="107" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D107" s="210"/>
       <c r="E107" s="4" t="s">
         <v>27</v>
       </c>
@@ -6453,371 +7009,371 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="108" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D108" s="31">
         <v>0</v>
       </c>
-      <c r="E108" s="170">
+      <c r="E108" s="196">
         <f>D108*F$107/(F$106+F$107)</f>
         <v>0</v>
       </c>
-      <c r="F108" s="171"/>
-      <c r="G108" s="170">
+      <c r="F108" s="197"/>
+      <c r="G108" s="196">
         <f>E108*H$107/(H$106+H$107)</f>
         <v>0</v>
       </c>
-      <c r="H108" s="172"/>
-      <c r="I108" s="172">
+      <c r="H108" s="198"/>
+      <c r="I108" s="198">
         <f>G108*J$107/(J$106+J$107)</f>
         <v>0</v>
       </c>
-      <c r="J108" s="171"/>
+      <c r="J108" s="197"/>
       <c r="K108" s="32">
         <f>I108*4096/3.3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="109" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D109" s="33">
         <v>1</v>
       </c>
-      <c r="E109" s="170">
+      <c r="E109" s="196">
         <f t="shared" ref="E109:E120" si="23">D109*F$107/(F$106+F$107)</f>
         <v>0.99009900990099009</v>
       </c>
-      <c r="F109" s="171"/>
-      <c r="G109" s="170">
+      <c r="F109" s="197"/>
+      <c r="G109" s="196">
         <f t="shared" ref="G109:G120" si="24">E109*H$107/(H$106+H$107)</f>
         <v>0.49504950495049499</v>
       </c>
-      <c r="H109" s="172"/>
-      <c r="I109" s="172">
+      <c r="H109" s="198"/>
+      <c r="I109" s="198">
         <f t="shared" ref="I109:I120" si="25">G109*J$107/(J$106+J$107)</f>
         <v>0.2605523710265763</v>
       </c>
-      <c r="J109" s="171"/>
+      <c r="J109" s="197"/>
       <c r="K109" s="19">
         <f>I109*4096/3.3</f>
         <v>323.40076112874442</v>
       </c>
     </row>
-    <row r="110" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="110" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D110" s="33">
         <v>2</v>
       </c>
-      <c r="E110" s="170">
+      <c r="E110" s="196">
         <f t="shared" si="23"/>
         <v>1.9801980198019802</v>
       </c>
-      <c r="F110" s="171"/>
-      <c r="G110" s="170">
+      <c r="F110" s="197"/>
+      <c r="G110" s="196">
         <f t="shared" si="24"/>
         <v>0.99009900990098998</v>
       </c>
-      <c r="H110" s="172"/>
-      <c r="I110" s="172">
+      <c r="H110" s="198"/>
+      <c r="I110" s="198">
         <f t="shared" si="25"/>
         <v>0.5211047420531526</v>
       </c>
-      <c r="J110" s="171"/>
+      <c r="J110" s="197"/>
       <c r="K110" s="19">
         <f>I110*4096/3.3</f>
         <v>646.80152225748884</v>
       </c>
     </row>
-    <row r="111" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="111" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D111" s="33">
         <v>3</v>
       </c>
-      <c r="E111" s="170">
+      <c r="E111" s="196">
         <f t="shared" si="23"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="F111" s="171"/>
-      <c r="G111" s="170">
+      <c r="F111" s="197"/>
+      <c r="G111" s="196">
         <f t="shared" si="24"/>
         <v>1.4851485148514851</v>
       </c>
-      <c r="H111" s="172"/>
-      <c r="I111" s="172">
+      <c r="H111" s="198"/>
+      <c r="I111" s="198">
         <f t="shared" si="25"/>
         <v>0.78165711307972907</v>
       </c>
-      <c r="J111" s="171"/>
+      <c r="J111" s="197"/>
       <c r="K111" s="19">
         <f t="shared" ref="K111:K120" si="26">I111*4096/3.3</f>
         <v>970.20228338623349</v>
       </c>
     </row>
-    <row r="112" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="112" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D112" s="33">
         <v>4</v>
       </c>
-      <c r="E112" s="170">
+      <c r="E112" s="196">
         <f t="shared" si="23"/>
         <v>3.9603960396039604</v>
       </c>
-      <c r="F112" s="171"/>
-      <c r="G112" s="170">
+      <c r="F112" s="197"/>
+      <c r="G112" s="196">
         <f t="shared" si="24"/>
         <v>1.98019801980198</v>
       </c>
-      <c r="H112" s="172"/>
-      <c r="I112" s="172">
+      <c r="H112" s="198"/>
+      <c r="I112" s="198">
         <f t="shared" si="25"/>
         <v>1.0422094841063052</v>
       </c>
-      <c r="J112" s="171"/>
+      <c r="J112" s="197"/>
       <c r="K112" s="19">
         <f t="shared" si="26"/>
         <v>1293.6030445149777</v>
       </c>
     </row>
-    <row r="113" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="113" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D113" s="33">
         <v>5</v>
       </c>
-      <c r="E113" s="170">
+      <c r="E113" s="196">
         <f t="shared" si="23"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="F113" s="171"/>
-      <c r="G113" s="170">
+      <c r="F113" s="197"/>
+      <c r="G113" s="196">
         <f t="shared" si="24"/>
         <v>2.4752475247524752</v>
       </c>
-      <c r="H113" s="172"/>
-      <c r="I113" s="172">
+      <c r="H113" s="198"/>
+      <c r="I113" s="198">
         <f t="shared" si="25"/>
         <v>1.3027618551328817</v>
       </c>
-      <c r="J113" s="171"/>
+      <c r="J113" s="197"/>
       <c r="K113" s="19">
         <f t="shared" si="26"/>
         <v>1617.0038056437222</v>
       </c>
     </row>
-    <row r="114" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="114" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D114" s="33">
         <v>6</v>
       </c>
-      <c r="E114" s="170">
+      <c r="E114" s="196">
         <f t="shared" si="23"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="F114" s="171"/>
-      <c r="G114" s="170">
+      <c r="F114" s="197"/>
+      <c r="G114" s="196">
         <f t="shared" si="24"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="H114" s="172"/>
-      <c r="I114" s="172">
+      <c r="H114" s="198"/>
+      <c r="I114" s="198">
         <f t="shared" si="25"/>
         <v>1.5633142261594581</v>
       </c>
-      <c r="J114" s="171"/>
+      <c r="J114" s="197"/>
       <c r="K114" s="19">
         <f t="shared" si="26"/>
         <v>1940.404566772467</v>
       </c>
     </row>
-    <row r="115" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="115" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D115" s="35">
         <v>7</v>
       </c>
-      <c r="E115" s="164">
+      <c r="E115" s="205">
         <f t="shared" si="23"/>
         <v>6.9306930693069306</v>
       </c>
-      <c r="F115" s="165"/>
-      <c r="G115" s="164">
+      <c r="F115" s="206"/>
+      <c r="G115" s="205">
         <f t="shared" si="24"/>
         <v>3.4653465346534649</v>
       </c>
-      <c r="H115" s="166"/>
-      <c r="I115" s="166">
+      <c r="H115" s="207"/>
+      <c r="I115" s="207">
         <f t="shared" si="25"/>
         <v>1.8238665971860342</v>
       </c>
-      <c r="J115" s="165"/>
+      <c r="J115" s="206"/>
       <c r="K115" s="36">
         <f t="shared" si="26"/>
         <v>2263.8053279012111</v>
       </c>
     </row>
-    <row r="116" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="116" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D116" s="35">
         <v>8</v>
       </c>
-      <c r="E116" s="164">
+      <c r="E116" s="205">
         <f t="shared" si="23"/>
         <v>7.9207920792079207</v>
       </c>
-      <c r="F116" s="165"/>
-      <c r="G116" s="164">
+      <c r="F116" s="206"/>
+      <c r="G116" s="205">
         <f t="shared" si="24"/>
         <v>3.9603960396039599</v>
       </c>
-      <c r="H116" s="166"/>
-      <c r="I116" s="166">
+      <c r="H116" s="207"/>
+      <c r="I116" s="207">
         <f t="shared" si="25"/>
         <v>2.0844189682126104</v>
       </c>
-      <c r="J116" s="165"/>
+      <c r="J116" s="206"/>
       <c r="K116" s="36">
         <f t="shared" si="26"/>
         <v>2587.2060890299554</v>
       </c>
     </row>
-    <row r="117" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D117" s="35">
         <v>9</v>
       </c>
-      <c r="E117" s="164">
+      <c r="E117" s="205">
         <f t="shared" si="23"/>
         <v>8.9108910891089117</v>
       </c>
-      <c r="F117" s="165"/>
-      <c r="G117" s="164">
+      <c r="F117" s="206"/>
+      <c r="G117" s="205">
         <f t="shared" si="24"/>
         <v>4.4554455445544559</v>
       </c>
-      <c r="H117" s="166"/>
-      <c r="I117" s="166">
+      <c r="H117" s="207"/>
+      <c r="I117" s="207">
         <f t="shared" si="25"/>
         <v>2.3449713392391871</v>
       </c>
-      <c r="J117" s="165"/>
+      <c r="J117" s="206"/>
       <c r="K117" s="36">
         <f t="shared" si="26"/>
         <v>2910.6068501587001</v>
       </c>
     </row>
-    <row r="118" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D118" s="35">
         <v>10</v>
       </c>
-      <c r="E118" s="164">
+      <c r="E118" s="205">
         <f t="shared" si="23"/>
         <v>9.9009900990099009</v>
       </c>
-      <c r="F118" s="165"/>
-      <c r="G118" s="164">
+      <c r="F118" s="206"/>
+      <c r="G118" s="205">
         <f t="shared" si="24"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="H118" s="166"/>
-      <c r="I118" s="166">
+      <c r="H118" s="207"/>
+      <c r="I118" s="207">
         <f t="shared" si="25"/>
         <v>2.6055237102657633</v>
       </c>
-      <c r="J118" s="165"/>
+      <c r="J118" s="206"/>
       <c r="K118" s="36">
         <f t="shared" si="26"/>
         <v>3234.0076112874444</v>
       </c>
     </row>
-    <row r="119" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="119" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D119" s="35">
         <v>11</v>
       </c>
-      <c r="E119" s="164">
+      <c r="E119" s="205">
         <f t="shared" si="23"/>
         <v>10.891089108910892</v>
       </c>
-      <c r="F119" s="165"/>
-      <c r="G119" s="164">
+      <c r="F119" s="206"/>
+      <c r="G119" s="205">
         <f t="shared" si="24"/>
         <v>5.4455445544554459</v>
       </c>
-      <c r="H119" s="166"/>
-      <c r="I119" s="166">
+      <c r="H119" s="207"/>
+      <c r="I119" s="207">
         <f t="shared" si="25"/>
         <v>2.86607608129234</v>
       </c>
-      <c r="J119" s="165"/>
+      <c r="J119" s="206"/>
       <c r="K119" s="36">
         <f t="shared" si="26"/>
         <v>3557.4083724161896</v>
       </c>
     </row>
-    <row r="120" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D120" s="35">
         <v>12</v>
       </c>
-      <c r="E120" s="167">
+      <c r="E120" s="202">
         <f t="shared" si="23"/>
         <v>11.881188118811881</v>
       </c>
-      <c r="F120" s="168"/>
-      <c r="G120" s="167">
+      <c r="F120" s="203"/>
+      <c r="G120" s="202">
         <f t="shared" si="24"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="H120" s="169"/>
-      <c r="I120" s="169">
+      <c r="H120" s="204"/>
+      <c r="I120" s="204">
         <f t="shared" si="25"/>
         <v>3.1266284523189163</v>
       </c>
-      <c r="J120" s="168"/>
+      <c r="J120" s="203"/>
       <c r="K120" s="37">
         <f t="shared" si="26"/>
         <v>3880.809133544934</v>
       </c>
     </row>
-    <row r="122" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="122" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C122" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="123" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="124" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D124" s="219" t="s">
+    <row r="123" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="124" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D124" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="E124" s="222" t="s">
+      <c r="E124" s="211" t="s">
         <v>223</v>
       </c>
-      <c r="F124" s="223"/>
-      <c r="G124" s="224" t="s">
+      <c r="F124" s="212"/>
+      <c r="G124" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="H124" s="225"/>
-      <c r="I124" s="225"/>
-      <c r="J124" s="226"/>
+      <c r="H124" s="214"/>
+      <c r="I124" s="214"/>
+      <c r="J124" s="215"/>
       <c r="K124" s="25"/>
     </row>
-    <row r="125" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D125" s="220"/>
-      <c r="E125" s="234" t="s">
+    <row r="125" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D125" s="209"/>
+      <c r="E125" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="F125" s="235"/>
-      <c r="G125" s="234" t="s">
+      <c r="F125" s="217"/>
+      <c r="G125" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="H125" s="236"/>
-      <c r="I125" s="236" t="s">
+      <c r="H125" s="218"/>
+      <c r="I125" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="J125" s="235"/>
+      <c r="J125" s="217"/>
       <c r="K125" s="26"/>
     </row>
-    <row r="126" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D126" s="220"/>
-      <c r="E126" s="116" t="s">
+    <row r="126" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D126" s="209"/>
+      <c r="E126" s="115" t="s">
         <v>24</v>
       </c>
       <c r="F126" s="11">
         <v>0.1</v>
       </c>
-      <c r="G126" s="116" t="s">
+      <c r="G126" s="115" t="s">
         <v>218</v>
       </c>
       <c r="H126" s="9">
         <v>4.7</v>
       </c>
-      <c r="I126" s="117" t="s">
+      <c r="I126" s="116" t="s">
         <v>220</v>
       </c>
       <c r="J126" s="11">
@@ -6827,8 +7383,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D127" s="221"/>
+    <row r="127" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D127" s="210"/>
       <c r="E127" s="4" t="s">
         <v>27</v>
       </c>
@@ -6851,313 +7407,313 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="128" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D128" s="31">
         <v>0</v>
       </c>
-      <c r="E128" s="170">
+      <c r="E128" s="196">
         <f>D128*F$107/(F$106+F$107)</f>
         <v>0</v>
       </c>
-      <c r="F128" s="171"/>
-      <c r="G128" s="170">
+      <c r="F128" s="197"/>
+      <c r="G128" s="196">
         <f>E128*H$107/(H$106+H$107)</f>
         <v>0</v>
       </c>
-      <c r="H128" s="172"/>
-      <c r="I128" s="172">
+      <c r="H128" s="198"/>
+      <c r="I128" s="198">
         <f>G128*J$107/(J$106+J$107)</f>
         <v>0</v>
       </c>
-      <c r="J128" s="171"/>
+      <c r="J128" s="197"/>
       <c r="K128" s="32">
         <f>I128*4096/3.3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="129" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D129" s="33">
         <v>1</v>
       </c>
-      <c r="E129" s="170">
+      <c r="E129" s="196">
         <f t="shared" ref="E129:E140" si="27">D129*F$107/(F$106+F$107)</f>
         <v>0.99009900990099009</v>
       </c>
-      <c r="F129" s="171"/>
-      <c r="G129" s="170">
+      <c r="F129" s="197"/>
+      <c r="G129" s="196">
         <f t="shared" ref="G129:G140" si="28">E129*H$107/(H$106+H$107)</f>
         <v>0.49504950495049499</v>
       </c>
-      <c r="H129" s="172"/>
-      <c r="I129" s="172">
+      <c r="H129" s="198"/>
+      <c r="I129" s="198">
         <f t="shared" ref="I129:I140" si="29">G129*J$107/(J$106+J$107)</f>
         <v>0.2605523710265763</v>
       </c>
-      <c r="J129" s="171"/>
+      <c r="J129" s="197"/>
       <c r="K129" s="19">
         <f>I129*4096/3.3</f>
         <v>323.40076112874442</v>
       </c>
     </row>
-    <row r="130" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="130" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D130" s="33">
         <v>2</v>
       </c>
-      <c r="E130" s="170">
+      <c r="E130" s="196">
         <f t="shared" si="27"/>
         <v>1.9801980198019802</v>
       </c>
-      <c r="F130" s="171"/>
-      <c r="G130" s="170">
+      <c r="F130" s="197"/>
+      <c r="G130" s="196">
         <f t="shared" si="28"/>
         <v>0.99009900990098998</v>
       </c>
-      <c r="H130" s="172"/>
-      <c r="I130" s="172">
+      <c r="H130" s="198"/>
+      <c r="I130" s="198">
         <f t="shared" si="29"/>
         <v>0.5211047420531526</v>
       </c>
-      <c r="J130" s="171"/>
+      <c r="J130" s="197"/>
       <c r="K130" s="19">
         <f>I130*4096/3.3</f>
         <v>646.80152225748884</v>
       </c>
     </row>
-    <row r="131" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="131" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D131" s="33">
         <v>3</v>
       </c>
-      <c r="E131" s="170">
+      <c r="E131" s="196">
         <f t="shared" si="27"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="F131" s="171"/>
-      <c r="G131" s="170">
+      <c r="F131" s="197"/>
+      <c r="G131" s="196">
         <f t="shared" si="28"/>
         <v>1.4851485148514851</v>
       </c>
-      <c r="H131" s="172"/>
-      <c r="I131" s="172">
+      <c r="H131" s="198"/>
+      <c r="I131" s="198">
         <f t="shared" si="29"/>
         <v>0.78165711307972907</v>
       </c>
-      <c r="J131" s="171"/>
+      <c r="J131" s="197"/>
       <c r="K131" s="19">
         <f t="shared" ref="K131:K140" si="30">I131*4096/3.3</f>
         <v>970.20228338623349</v>
       </c>
     </row>
-    <row r="132" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="132" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D132" s="33">
         <v>4</v>
       </c>
-      <c r="E132" s="170">
+      <c r="E132" s="196">
         <f t="shared" si="27"/>
         <v>3.9603960396039604</v>
       </c>
-      <c r="F132" s="171"/>
-      <c r="G132" s="170">
+      <c r="F132" s="197"/>
+      <c r="G132" s="196">
         <f t="shared" si="28"/>
         <v>1.98019801980198</v>
       </c>
-      <c r="H132" s="172"/>
-      <c r="I132" s="172">
+      <c r="H132" s="198"/>
+      <c r="I132" s="198">
         <f t="shared" si="29"/>
         <v>1.0422094841063052</v>
       </c>
-      <c r="J132" s="171"/>
+      <c r="J132" s="197"/>
       <c r="K132" s="19">
         <f t="shared" si="30"/>
         <v>1293.6030445149777</v>
       </c>
     </row>
-    <row r="133" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="133" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D133" s="33">
         <v>5</v>
       </c>
-      <c r="E133" s="170">
+      <c r="E133" s="196">
         <f t="shared" si="27"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="F133" s="171"/>
-      <c r="G133" s="170">
+      <c r="F133" s="197"/>
+      <c r="G133" s="196">
         <f t="shared" si="28"/>
         <v>2.4752475247524752</v>
       </c>
-      <c r="H133" s="172"/>
-      <c r="I133" s="172">
+      <c r="H133" s="198"/>
+      <c r="I133" s="198">
         <f t="shared" si="29"/>
         <v>1.3027618551328817</v>
       </c>
-      <c r="J133" s="171"/>
+      <c r="J133" s="197"/>
       <c r="K133" s="19">
         <f t="shared" si="30"/>
         <v>1617.0038056437222</v>
       </c>
     </row>
-    <row r="134" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="134" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D134" s="33">
         <v>6</v>
       </c>
-      <c r="E134" s="170">
+      <c r="E134" s="196">
         <f t="shared" si="27"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="F134" s="171"/>
-      <c r="G134" s="170">
+      <c r="F134" s="197"/>
+      <c r="G134" s="196">
         <f t="shared" si="28"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="H134" s="172"/>
-      <c r="I134" s="172">
+      <c r="H134" s="198"/>
+      <c r="I134" s="198">
         <f t="shared" si="29"/>
         <v>1.5633142261594581</v>
       </c>
-      <c r="J134" s="171"/>
+      <c r="J134" s="197"/>
       <c r="K134" s="19">
         <f t="shared" si="30"/>
         <v>1940.404566772467</v>
       </c>
     </row>
-    <row r="135" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="135" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D135" s="35">
         <v>7</v>
       </c>
-      <c r="E135" s="164">
+      <c r="E135" s="205">
         <f t="shared" si="27"/>
         <v>6.9306930693069306</v>
       </c>
-      <c r="F135" s="165"/>
-      <c r="G135" s="164">
+      <c r="F135" s="206"/>
+      <c r="G135" s="205">
         <f t="shared" si="28"/>
         <v>3.4653465346534649</v>
       </c>
-      <c r="H135" s="166"/>
-      <c r="I135" s="166">
+      <c r="H135" s="207"/>
+      <c r="I135" s="207">
         <f t="shared" si="29"/>
         <v>1.8238665971860342</v>
       </c>
-      <c r="J135" s="165"/>
+      <c r="J135" s="206"/>
       <c r="K135" s="36">
         <f t="shared" si="30"/>
         <v>2263.8053279012111</v>
       </c>
     </row>
-    <row r="136" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="136" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D136" s="35">
         <v>8</v>
       </c>
-      <c r="E136" s="164">
+      <c r="E136" s="205">
         <f t="shared" si="27"/>
         <v>7.9207920792079207</v>
       </c>
-      <c r="F136" s="165"/>
-      <c r="G136" s="164">
+      <c r="F136" s="206"/>
+      <c r="G136" s="205">
         <f t="shared" si="28"/>
         <v>3.9603960396039599</v>
       </c>
-      <c r="H136" s="166"/>
-      <c r="I136" s="166">
+      <c r="H136" s="207"/>
+      <c r="I136" s="207">
         <f t="shared" si="29"/>
         <v>2.0844189682126104</v>
       </c>
-      <c r="J136" s="165"/>
+      <c r="J136" s="206"/>
       <c r="K136" s="36">
         <f t="shared" si="30"/>
         <v>2587.2060890299554</v>
       </c>
     </row>
-    <row r="137" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="137" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D137" s="35">
         <v>9</v>
       </c>
-      <c r="E137" s="164">
+      <c r="E137" s="205">
         <f t="shared" si="27"/>
         <v>8.9108910891089117</v>
       </c>
-      <c r="F137" s="165"/>
-      <c r="G137" s="164">
+      <c r="F137" s="206"/>
+      <c r="G137" s="205">
         <f t="shared" si="28"/>
         <v>4.4554455445544559</v>
       </c>
-      <c r="H137" s="166"/>
-      <c r="I137" s="166">
+      <c r="H137" s="207"/>
+      <c r="I137" s="207">
         <f t="shared" si="29"/>
         <v>2.3449713392391871</v>
       </c>
-      <c r="J137" s="165"/>
+      <c r="J137" s="206"/>
       <c r="K137" s="36">
         <f t="shared" si="30"/>
         <v>2910.6068501587001</v>
       </c>
     </row>
-    <row r="138" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="138" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D138" s="35">
         <v>10</v>
       </c>
-      <c r="E138" s="164">
+      <c r="E138" s="205">
         <f t="shared" si="27"/>
         <v>9.9009900990099009</v>
       </c>
-      <c r="F138" s="165"/>
-      <c r="G138" s="164">
+      <c r="F138" s="206"/>
+      <c r="G138" s="205">
         <f t="shared" si="28"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="H138" s="166"/>
-      <c r="I138" s="166">
+      <c r="H138" s="207"/>
+      <c r="I138" s="207">
         <f t="shared" si="29"/>
         <v>2.6055237102657633</v>
       </c>
-      <c r="J138" s="165"/>
+      <c r="J138" s="206"/>
       <c r="K138" s="36">
         <f t="shared" si="30"/>
         <v>3234.0076112874444</v>
       </c>
     </row>
-    <row r="139" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="139" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D139" s="35">
         <v>11</v>
       </c>
-      <c r="E139" s="164">
+      <c r="E139" s="205">
         <f t="shared" si="27"/>
         <v>10.891089108910892</v>
       </c>
-      <c r="F139" s="165"/>
-      <c r="G139" s="164">
+      <c r="F139" s="206"/>
+      <c r="G139" s="205">
         <f t="shared" si="28"/>
         <v>5.4455445544554459</v>
       </c>
-      <c r="H139" s="166"/>
-      <c r="I139" s="166">
+      <c r="H139" s="207"/>
+      <c r="I139" s="207">
         <f t="shared" si="29"/>
         <v>2.86607608129234</v>
       </c>
-      <c r="J139" s="165"/>
+      <c r="J139" s="206"/>
       <c r="K139" s="36">
         <f t="shared" si="30"/>
         <v>3557.4083724161896</v>
       </c>
     </row>
-    <row r="140" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D140" s="35">
         <v>12</v>
       </c>
-      <c r="E140" s="167">
+      <c r="E140" s="202">
         <f t="shared" si="27"/>
         <v>11.881188118811881</v>
       </c>
-      <c r="F140" s="168"/>
-      <c r="G140" s="167">
+      <c r="F140" s="203"/>
+      <c r="G140" s="202">
         <f t="shared" si="28"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="H140" s="169"/>
-      <c r="I140" s="169">
+      <c r="H140" s="204"/>
+      <c r="I140" s="204">
         <f t="shared" si="29"/>
         <v>3.1266284523189163</v>
       </c>
-      <c r="J140" s="168"/>
+      <c r="J140" s="203"/>
       <c r="K140" s="37">
         <f t="shared" si="30"/>
         <v>3880.809133544934</v>
@@ -7165,6 +7721,256 @@
     </row>
   </sheetData>
   <mergeCells count="274">
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="I95:J95"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="K100:L100"/>
     <mergeCell ref="M100:N100"/>
@@ -7189,256 +7995,6 @@
     <mergeCell ref="M92:N92"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="M87:N87"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="E84:J84"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="I138:J138"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7447,26 +8003,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4112FAD-A36A-40E3-8BB6-1858D339534A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22:M22"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="4.5" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>86</v>
@@ -7475,7 +8031,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="79" t="s">
@@ -7488,7 +8044,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="80" t="s">
@@ -7501,7 +8057,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>92</v>
@@ -7510,7 +8066,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="81" t="s">
@@ -7519,7 +8075,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="81" t="s">
@@ -7528,132 +8084,132 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="89" t="s">
         <v>105</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="248" t="s">
+      <c r="F11" s="274" t="s">
         <v>222</v>
       </c>
-      <c r="G11" s="249"/>
-      <c r="H11" s="249"/>
-      <c r="I11" s="250"/>
-      <c r="J11" s="173" t="s">
+      <c r="G11" s="275"/>
+      <c r="H11" s="275"/>
+      <c r="I11" s="276"/>
+      <c r="J11" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="175"/>
-      <c r="L11" s="175"/>
-      <c r="M11" s="176"/>
+      <c r="K11" s="200"/>
+      <c r="L11" s="200"/>
+      <c r="M11" s="201"/>
       <c r="N11" s="82" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="137" t="s">
+      <c r="F12" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="273">
+      <c r="G12" s="164">
         <v>12</v>
       </c>
-      <c r="H12" s="274"/>
-      <c r="I12" s="274"/>
-      <c r="J12" s="137" t="s">
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="273">
+      <c r="K12" s="164">
         <v>5</v>
       </c>
-      <c r="L12" s="137" t="s">
+      <c r="L12" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="273">
+      <c r="M12" s="164">
         <v>3.3</v>
       </c>
-      <c r="N12" s="275" t="s">
+      <c r="N12" s="166" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="123" t="s">
+      <c r="F13" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="G13" s="159">
+      <c r="G13" s="158">
         <v>2</v>
       </c>
-      <c r="H13" s="123" t="s">
+      <c r="H13" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="159">
+      <c r="I13" s="158">
         <v>0.47</v>
       </c>
-      <c r="J13" s="123" t="s">
+      <c r="J13" s="122" t="s">
         <v>226</v>
       </c>
-      <c r="K13" s="159">
+      <c r="K13" s="158">
         <v>2</v>
       </c>
-      <c r="L13" s="123" t="s">
+      <c r="L13" s="122" t="s">
         <v>224</v>
       </c>
-      <c r="M13" s="159">
+      <c r="M13" s="158">
         <v>2.7</v>
       </c>
-      <c r="N13" s="276" t="s">
+      <c r="N13" s="167" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="124" t="s">
+      <c r="F14" s="123" t="s">
         <v>229</v>
       </c>
-      <c r="G14" s="160">
+      <c r="G14" s="159">
         <v>2</v>
       </c>
-      <c r="H14" s="124" t="s">
+      <c r="H14" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="160">
+      <c r="I14" s="159">
         <v>47</v>
       </c>
-      <c r="J14" s="124" t="s">
+      <c r="J14" s="123" t="s">
         <v>227</v>
       </c>
-      <c r="K14" s="160">
+      <c r="K14" s="159">
         <v>20</v>
       </c>
-      <c r="L14" s="124" t="s">
+      <c r="L14" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="M14" s="160">
+      <c r="M14" s="159">
         <v>3</v>
       </c>
-      <c r="N14" s="277" t="s">
+      <c r="N14" s="168" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="46" t="s">
@@ -7662,25 +8218,27 @@
       <c r="E15" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="173" t="s">
+      <c r="F15" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="174"/>
-      <c r="H15" s="249" t="s">
+      <c r="G15" s="220"/>
+      <c r="H15" s="275" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="250"/>
-      <c r="J15" s="173" t="s">
+      <c r="I15" s="276"/>
+      <c r="J15" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="176"/>
-      <c r="L15" s="205" t="s">
+      <c r="K15" s="201"/>
+      <c r="L15" s="239" t="s">
         <v>104</v>
       </c>
-      <c r="M15" s="175"/>
-      <c r="N15" s="83"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="M15" s="200"/>
+      <c r="N15" s="163" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="43">
@@ -7690,32 +8248,32 @@
         <f t="shared" ref="E16:E43" si="0">10*EXP(E$5*(1/(D16+273)-1/(25+273)))</f>
         <v>28.736182350842125</v>
       </c>
-      <c r="F16" s="170">
+      <c r="F16" s="196">
         <f>G$12*G$14/(G$13+$E16+G$14)</f>
         <v>0.7331337461034948</v>
       </c>
-      <c r="G16" s="195"/>
-      <c r="H16" s="170">
+      <c r="G16" s="243"/>
+      <c r="H16" s="196">
         <f>F16*I$14/(I$13/2+I$14)</f>
         <v>0.72948631453084067</v>
       </c>
-      <c r="I16" s="195"/>
-      <c r="J16" s="170">
+      <c r="I16" s="243"/>
+      <c r="J16" s="196">
         <f>H16*K$14/(K$13+K$14)</f>
         <v>0.66316937684621879</v>
       </c>
-      <c r="K16" s="171"/>
-      <c r="L16" s="251">
+      <c r="K16" s="197"/>
+      <c r="L16" s="273">
         <f>J16*M$14/(M$13+M$14)</f>
         <v>0.3490365141295888</v>
       </c>
-      <c r="M16" s="172"/>
+      <c r="M16" s="198"/>
       <c r="N16" s="32">
         <f>L16*4096/3.3</f>
         <v>433.22835208327149</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="13">
@@ -7725,32 +8283,32 @@
         <f t="shared" si="0"/>
         <v>22.916440146739884</v>
       </c>
-      <c r="F17" s="180">
-        <f t="shared" ref="F16:F43" si="1">G$12*G$14/(G$13+$E17+G$14)</f>
+      <c r="F17" s="177">
+        <f t="shared" ref="F17:F43" si="1">G$12*G$14/(G$13+$E17+G$14)</f>
         <v>0.89164837062998015</v>
       </c>
-      <c r="G17" s="194"/>
-      <c r="H17" s="170">
+      <c r="G17" s="178"/>
+      <c r="H17" s="196">
         <f t="shared" ref="H17:H43" si="2">F17*I$14/(I$13/2+I$14)</f>
         <v>0.88721230908455739</v>
       </c>
-      <c r="I17" s="195"/>
-      <c r="J17" s="170">
+      <c r="I17" s="243"/>
+      <c r="J17" s="196">
         <f t="shared" ref="J17:J43" si="3">H17*K$14/(K$13+K$14)</f>
         <v>0.80655664462232479</v>
       </c>
-      <c r="K17" s="171"/>
-      <c r="L17" s="198">
-        <f t="shared" ref="L16:L43" si="4">J17*M$14/(M$13+M$14)</f>
+      <c r="K17" s="197"/>
+      <c r="L17" s="195">
+        <f t="shared" ref="L17:L43" si="4">J17*M$14/(M$13+M$14)</f>
         <v>0.42450349716964458</v>
       </c>
-      <c r="M17" s="199"/>
+      <c r="M17" s="235"/>
       <c r="N17" s="32">
         <f t="shared" ref="N17:N43" si="5">L17*4096/3.3</f>
         <v>526.8988861838983</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="13">
@@ -7760,32 +8318,32 @@
         <f t="shared" si="0"/>
         <v>18.422056005235852</v>
       </c>
-      <c r="F18" s="180">
+      <c r="F18" s="177">
         <f t="shared" si="1"/>
         <v>1.0703746344401102</v>
       </c>
-      <c r="G18" s="194"/>
-      <c r="H18" s="170">
+      <c r="G18" s="178"/>
+      <c r="H18" s="196">
         <f t="shared" si="2"/>
         <v>1.0650493875025973</v>
       </c>
-      <c r="I18" s="195"/>
-      <c r="J18" s="170">
+      <c r="I18" s="243"/>
+      <c r="J18" s="196">
         <f t="shared" si="3"/>
         <v>0.96822671591145204</v>
       </c>
-      <c r="K18" s="171"/>
-      <c r="L18" s="198">
+      <c r="K18" s="197"/>
+      <c r="L18" s="195">
         <f t="shared" si="4"/>
         <v>0.50959300837444843</v>
       </c>
-      <c r="M18" s="199"/>
+      <c r="M18" s="235"/>
       <c r="N18" s="32">
         <f t="shared" si="5"/>
         <v>632.51301887931538</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="13">
@@ -7795,32 +8353,32 @@
         <f t="shared" si="0"/>
         <v>14.921793401776517</v>
       </c>
-      <c r="F19" s="180">
+      <c r="F19" s="177">
         <f t="shared" si="1"/>
         <v>1.2683787149767052</v>
       </c>
-      <c r="G19" s="194"/>
-      <c r="H19" s="170">
+      <c r="G19" s="178"/>
+      <c r="H19" s="196">
         <f t="shared" si="2"/>
         <v>1.2620683731111495</v>
       </c>
-      <c r="I19" s="195"/>
-      <c r="J19" s="170">
+      <c r="I19" s="243"/>
+      <c r="J19" s="196">
         <f t="shared" si="3"/>
         <v>1.1473348846464995</v>
       </c>
-      <c r="K19" s="171"/>
-      <c r="L19" s="198">
+      <c r="K19" s="197"/>
+      <c r="L19" s="195">
         <f t="shared" si="4"/>
         <v>0.60386046560342077</v>
       </c>
-      <c r="M19" s="199"/>
+      <c r="M19" s="235"/>
       <c r="N19" s="32">
         <f t="shared" si="5"/>
         <v>749.51892942776112</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="13">
@@ -7830,67 +8388,67 @@
         <f t="shared" si="0"/>
         <v>12.173834597770357</v>
       </c>
-      <c r="F20" s="180">
+      <c r="F20" s="177">
         <f t="shared" si="1"/>
         <v>1.4838781647555934</v>
       </c>
-      <c r="G20" s="194"/>
-      <c r="H20" s="170">
+      <c r="G20" s="178"/>
+      <c r="H20" s="196">
         <f t="shared" si="2"/>
         <v>1.4764956863239738</v>
       </c>
-      <c r="I20" s="195"/>
-      <c r="J20" s="170">
+      <c r="I20" s="243"/>
+      <c r="J20" s="196">
         <f t="shared" si="3"/>
         <v>1.342268805749067</v>
       </c>
-      <c r="K20" s="171"/>
-      <c r="L20" s="198">
+      <c r="K20" s="197"/>
+      <c r="L20" s="195">
         <f t="shared" si="4"/>
         <v>0.7064572661837194</v>
       </c>
-      <c r="M20" s="199"/>
+      <c r="M20" s="235"/>
       <c r="N20" s="32">
         <f t="shared" si="5"/>
         <v>876.86332190561052</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="13">
+      <c r="D21" s="22">
         <v>25</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F21" s="180">
+      <c r="F21" s="244">
         <f t="shared" si="1"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="G21" s="194"/>
-      <c r="H21" s="170">
+      <c r="G21" s="267"/>
+      <c r="H21" s="268">
         <f t="shared" si="2"/>
         <v>1.7057569296375266</v>
       </c>
-      <c r="I21" s="195"/>
-      <c r="J21" s="170">
+      <c r="I21" s="269"/>
+      <c r="J21" s="268">
         <f t="shared" si="3"/>
         <v>1.5506881178522969</v>
       </c>
-      <c r="K21" s="171"/>
-      <c r="L21" s="198">
+      <c r="K21" s="270"/>
+      <c r="L21" s="271">
         <f t="shared" si="4"/>
         <v>0.81615164097489312</v>
       </c>
-      <c r="M21" s="199"/>
-      <c r="N21" s="32">
+      <c r="M21" s="272"/>
+      <c r="N21" s="88">
         <f t="shared" si="5"/>
         <v>1013.0173095252007</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="13">
@@ -7900,32 +8458,32 @@
         <f t="shared" si="0"/>
         <v>8.2678385850558751</v>
       </c>
-      <c r="F22" s="180">
+      <c r="F22" s="177">
         <f t="shared" si="1"/>
         <v>1.9563348371110549</v>
       </c>
-      <c r="G22" s="194"/>
-      <c r="H22" s="170">
+      <c r="G22" s="178"/>
+      <c r="H22" s="196">
         <f t="shared" si="2"/>
         <v>1.9466018279711987</v>
       </c>
-      <c r="I22" s="195"/>
-      <c r="J22" s="170">
+      <c r="I22" s="243"/>
+      <c r="J22" s="196">
         <f t="shared" si="3"/>
         <v>1.7696380254283626</v>
       </c>
-      <c r="K22" s="171"/>
-      <c r="L22" s="198">
+      <c r="K22" s="197"/>
+      <c r="L22" s="195">
         <f t="shared" si="4"/>
         <v>0.93138843443598029</v>
       </c>
-      <c r="M22" s="199"/>
+      <c r="M22" s="235"/>
       <c r="N22" s="32">
         <f t="shared" si="5"/>
         <v>1156.05061437872</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="13">
@@ -7935,32 +8493,32 @@
         <f t="shared" si="0"/>
         <v>6.8780615308459092</v>
       </c>
-      <c r="F23" s="180">
+      <c r="F23" s="177">
         <f t="shared" si="1"/>
         <v>2.2062754408904039</v>
       </c>
-      <c r="G23" s="194"/>
-      <c r="H23" s="170">
+      <c r="G23" s="178"/>
+      <c r="H23" s="196">
         <f t="shared" si="2"/>
         <v>2.195298946159606</v>
       </c>
-      <c r="I23" s="195"/>
-      <c r="J23" s="170">
+      <c r="I23" s="243"/>
+      <c r="J23" s="196">
         <f t="shared" si="3"/>
         <v>1.9957263146905511</v>
       </c>
-      <c r="K23" s="171"/>
-      <c r="L23" s="198">
+      <c r="K23" s="197"/>
+      <c r="L23" s="195">
         <f t="shared" si="4"/>
         <v>1.0503822708897637</v>
       </c>
-      <c r="M23" s="199"/>
+      <c r="M23" s="235"/>
       <c r="N23" s="32">
         <f t="shared" si="5"/>
         <v>1303.7472065346885</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="13">
@@ -7970,32 +8528,32 @@
         <f t="shared" si="0"/>
         <v>5.7556406120696577</v>
       </c>
-      <c r="F24" s="180">
+      <c r="F24" s="177">
         <f t="shared" si="1"/>
         <v>2.4601152250634621</v>
       </c>
-      <c r="G24" s="194"/>
-      <c r="H24" s="170">
+      <c r="G24" s="178"/>
+      <c r="H24" s="196">
         <f t="shared" si="2"/>
         <v>2.4478758458342909</v>
       </c>
-      <c r="I24" s="195"/>
-      <c r="J24" s="170">
+      <c r="I24" s="243"/>
+      <c r="J24" s="196">
         <f t="shared" si="3"/>
         <v>2.2253416780311737</v>
       </c>
-      <c r="K24" s="171"/>
-      <c r="L24" s="198">
+      <c r="K24" s="197"/>
+      <c r="L24" s="195">
         <f t="shared" si="4"/>
         <v>1.1712324621216703</v>
       </c>
-      <c r="M24" s="199"/>
+      <c r="M24" s="235"/>
       <c r="N24" s="32">
         <f t="shared" si="5"/>
         <v>1453.747928742534</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="13">
@@ -8005,32 +8563,32 @@
         <f t="shared" si="0"/>
         <v>4.8434450167968297</v>
       </c>
-      <c r="F25" s="180">
+      <c r="F25" s="177">
         <f t="shared" si="1"/>
         <v>2.7138745086802158</v>
       </c>
-      <c r="G25" s="194"/>
-      <c r="H25" s="170">
+      <c r="G25" s="178"/>
+      <c r="H25" s="196">
         <f t="shared" si="2"/>
         <v>2.7003726454529509</v>
       </c>
-      <c r="I25" s="195"/>
-      <c r="J25" s="170">
+      <c r="I25" s="243"/>
+      <c r="J25" s="196">
         <f t="shared" si="3"/>
         <v>2.4548842231390462</v>
       </c>
-      <c r="K25" s="171"/>
-      <c r="L25" s="198">
+      <c r="K25" s="197"/>
+      <c r="L25" s="195">
         <f t="shared" si="4"/>
         <v>1.292044327967919</v>
       </c>
-      <c r="M25" s="199"/>
+      <c r="M25" s="235"/>
       <c r="N25" s="32">
         <f t="shared" si="5"/>
         <v>1603.7010810171505</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="13">
@@ -8040,32 +8598,32 @@
         <f t="shared" si="0"/>
         <v>4.0976530296287903</v>
       </c>
-      <c r="F26" s="180">
+      <c r="F26" s="177">
         <f t="shared" si="1"/>
         <v>2.9638217286151365</v>
       </c>
-      <c r="G26" s="194"/>
-      <c r="H26" s="170">
+      <c r="G26" s="178"/>
+      <c r="H26" s="196">
         <f t="shared" si="2"/>
         <v>2.9490763468807328</v>
       </c>
-      <c r="I26" s="195"/>
-      <c r="J26" s="170">
+      <c r="I26" s="243"/>
+      <c r="J26" s="196">
         <f t="shared" si="3"/>
         <v>2.6809784971643027</v>
       </c>
-      <c r="K26" s="171"/>
-      <c r="L26" s="198">
+      <c r="K26" s="197"/>
+      <c r="L26" s="195">
         <f t="shared" si="4"/>
         <v>1.4110413142970015</v>
       </c>
-      <c r="M26" s="199"/>
+      <c r="M26" s="235"/>
       <c r="N26" s="32">
         <f t="shared" si="5"/>
         <v>1751.4015828365207</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="13">
@@ -8075,32 +8633,32 @@
         <f t="shared" si="0"/>
         <v>3.4844159169752453</v>
       </c>
-      <c r="F27" s="180">
+      <c r="F27" s="177">
         <f t="shared" si="1"/>
         <v>3.2066630537683118</v>
       </c>
-      <c r="G27" s="194"/>
-      <c r="H27" s="170">
+      <c r="G27" s="178"/>
+      <c r="H27" s="196">
         <f t="shared" si="2"/>
         <v>3.190709506237126</v>
       </c>
-      <c r="I27" s="195"/>
-      <c r="J27" s="170">
+      <c r="I27" s="243"/>
+      <c r="J27" s="196">
         <f t="shared" si="3"/>
         <v>2.9006450056701145</v>
       </c>
-      <c r="K27" s="171"/>
-      <c r="L27" s="198">
+      <c r="K27" s="197"/>
+      <c r="L27" s="195">
         <f t="shared" si="4"/>
         <v>1.5266552661421655</v>
       </c>
-      <c r="M27" s="199"/>
+      <c r="M27" s="235"/>
       <c r="N27" s="32">
         <f t="shared" si="5"/>
         <v>1894.9030212479729</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="13">
@@ -8110,137 +8668,137 @@
         <f t="shared" si="0"/>
         <v>2.9774129048675317</v>
       </c>
-      <c r="F28" s="180">
+      <c r="F28" s="177">
         <f t="shared" si="1"/>
         <v>3.4396703086407996</v>
       </c>
-      <c r="G28" s="194"/>
-      <c r="H28" s="170">
+      <c r="G28" s="178"/>
+      <c r="H28" s="196">
         <f t="shared" si="2"/>
         <v>3.4225575210356212</v>
       </c>
-      <c r="I28" s="195"/>
-      <c r="J28" s="170">
+      <c r="I28" s="243"/>
+      <c r="J28" s="196">
         <f t="shared" si="3"/>
         <v>3.1114159282142011</v>
       </c>
-      <c r="K28" s="171"/>
-      <c r="L28" s="198">
+      <c r="K28" s="197"/>
+      <c r="L28" s="195">
         <f t="shared" si="4"/>
         <v>1.6375873306390532</v>
       </c>
-      <c r="M28" s="199"/>
+      <c r="M28" s="235"/>
       <c r="N28" s="32">
         <f t="shared" si="5"/>
         <v>2032.5932443325946</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="22">
+      <c r="D29" s="85">
         <v>65</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="86">
         <f t="shared" si="0"/>
         <v>2.5560455288640753</v>
       </c>
-      <c r="F29" s="184">
+      <c r="F29" s="254">
         <f t="shared" si="1"/>
         <v>3.6607433390045916</v>
       </c>
-      <c r="G29" s="258"/>
-      <c r="H29" s="259">
+      <c r="G29" s="255"/>
+      <c r="H29" s="256">
         <f t="shared" si="2"/>
         <v>3.6425306855767081</v>
       </c>
-      <c r="I29" s="260"/>
-      <c r="J29" s="259">
+      <c r="I29" s="257"/>
+      <c r="J29" s="256">
         <f t="shared" si="3"/>
         <v>3.3113915323424621</v>
       </c>
-      <c r="K29" s="278"/>
-      <c r="L29" s="261">
+      <c r="K29" s="280"/>
+      <c r="L29" s="258">
         <f t="shared" si="4"/>
         <v>1.7428376486012958</v>
       </c>
-      <c r="M29" s="262"/>
-      <c r="N29" s="89">
+      <c r="M29" s="259"/>
+      <c r="N29" s="281">
         <f t="shared" si="5"/>
         <v>2163.2312147487601</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="13">
+      <c r="D30" s="85">
         <v>70</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="86">
         <f t="shared" si="0"/>
         <v>2.2040943852236698</v>
       </c>
-      <c r="F30" s="180">
+      <c r="F30" s="254">
         <f t="shared" si="1"/>
         <v>3.8684131010580609</v>
       </c>
-      <c r="G30" s="194"/>
-      <c r="H30" s="170">
+      <c r="G30" s="255"/>
+      <c r="H30" s="256">
         <f t="shared" si="2"/>
         <v>3.8491672647343891</v>
       </c>
-      <c r="I30" s="195"/>
-      <c r="J30" s="170">
+      <c r="I30" s="257"/>
+      <c r="J30" s="256">
         <f t="shared" si="3"/>
         <v>3.4992429679403538</v>
       </c>
-      <c r="K30" s="171"/>
-      <c r="L30" s="198">
+      <c r="K30" s="280"/>
+      <c r="L30" s="258">
         <f t="shared" si="4"/>
         <v>1.841706825231765</v>
       </c>
-      <c r="M30" s="199"/>
-      <c r="N30" s="32">
+      <c r="M30" s="259"/>
+      <c r="N30" s="281">
         <f t="shared" si="5"/>
         <v>2285.9488351967607</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="84">
+      <c r="D31" s="85">
         <v>75</v>
       </c>
-      <c r="E31" s="85">
+      <c r="E31" s="86">
         <f t="shared" si="0"/>
         <v>1.9087128427862368</v>
       </c>
-      <c r="F31" s="252">
+      <c r="F31" s="254">
         <f t="shared" si="1"/>
         <v>4.0617983372302229</v>
       </c>
-      <c r="G31" s="253"/>
-      <c r="H31" s="254">
+      <c r="G31" s="255"/>
+      <c r="H31" s="256">
         <f t="shared" si="2"/>
         <v>4.0415903853037038</v>
       </c>
-      <c r="I31" s="255"/>
-      <c r="J31" s="254">
+      <c r="I31" s="257"/>
+      <c r="J31" s="256">
         <f t="shared" si="3"/>
         <v>3.6741730775488217</v>
       </c>
-      <c r="K31" s="279"/>
-      <c r="L31" s="256">
+      <c r="K31" s="280"/>
+      <c r="L31" s="258">
         <f t="shared" si="4"/>
         <v>1.9337753039730639</v>
       </c>
-      <c r="M31" s="257"/>
-      <c r="N31" s="88">
+      <c r="M31" s="259"/>
+      <c r="N31" s="281">
         <f t="shared" si="5"/>
         <v>2400.2253469920211</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="13">
@@ -8250,67 +8808,67 @@
         <f t="shared" si="0"/>
         <v>1.659668099602003</v>
       </c>
-      <c r="F32" s="180">
+      <c r="F32" s="177">
         <f t="shared" si="1"/>
         <v>4.2405313487707375</v>
       </c>
-      <c r="G32" s="194"/>
-      <c r="H32" s="170">
+      <c r="G32" s="178"/>
+      <c r="H32" s="196">
         <f t="shared" si="2"/>
         <v>4.2194341778813307</v>
       </c>
-      <c r="I32" s="195"/>
-      <c r="J32" s="170">
+      <c r="I32" s="243"/>
+      <c r="J32" s="196">
         <f t="shared" si="3"/>
         <v>3.8358492526193917</v>
       </c>
-      <c r="K32" s="171"/>
-      <c r="L32" s="198">
+      <c r="K32" s="197"/>
+      <c r="L32" s="195">
         <f t="shared" si="4"/>
         <v>2.0188680276944164</v>
       </c>
-      <c r="M32" s="199"/>
+      <c r="M32" s="235"/>
       <c r="N32" s="32">
         <f t="shared" si="5"/>
         <v>2505.8434671019181</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="86">
+      <c r="D33" s="83">
         <v>85</v>
       </c>
-      <c r="E33" s="87">
+      <c r="E33" s="84">
         <f t="shared" si="0"/>
         <v>1.4487650768972604</v>
       </c>
-      <c r="F33" s="263">
+      <c r="F33" s="260">
         <f t="shared" si="1"/>
         <v>4.4046677845884554</v>
       </c>
-      <c r="G33" s="264"/>
-      <c r="H33" s="265">
+      <c r="G33" s="261"/>
+      <c r="H33" s="262">
         <f t="shared" si="2"/>
         <v>4.3827540145158759</v>
       </c>
-      <c r="I33" s="266"/>
-      <c r="J33" s="170">
+      <c r="I33" s="263"/>
+      <c r="J33" s="262">
         <f t="shared" si="3"/>
         <v>3.9843218313780686</v>
       </c>
-      <c r="K33" s="171"/>
-      <c r="L33" s="267">
+      <c r="K33" s="264"/>
+      <c r="L33" s="265">
         <f t="shared" si="4"/>
         <v>2.0970114901989834</v>
       </c>
-      <c r="M33" s="268"/>
-      <c r="N33" s="32">
+      <c r="M33" s="266"/>
+      <c r="N33" s="87">
         <f t="shared" si="5"/>
         <v>2602.8360799560714</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="13">
@@ -8320,32 +8878,32 @@
         <f t="shared" si="0"/>
         <v>1.269406378592723</v>
       </c>
-      <c r="F34" s="180">
+      <c r="F34" s="177">
         <f t="shared" si="1"/>
         <v>4.5545927331589811</v>
       </c>
-      <c r="G34" s="194"/>
-      <c r="H34" s="170">
+      <c r="G34" s="178"/>
+      <c r="H34" s="196">
         <f t="shared" si="2"/>
         <v>4.5319330678198817</v>
       </c>
-      <c r="I34" s="195"/>
-      <c r="J34" s="170">
+      <c r="I34" s="243"/>
+      <c r="J34" s="196">
         <f t="shared" si="3"/>
         <v>4.1199391525635285</v>
       </c>
-      <c r="K34" s="171"/>
-      <c r="L34" s="198">
+      <c r="K34" s="197"/>
+      <c r="L34" s="195">
         <f t="shared" si="4"/>
         <v>2.1683890276650151</v>
       </c>
-      <c r="M34" s="199"/>
+      <c r="M34" s="235"/>
       <c r="N34" s="32">
         <f t="shared" si="5"/>
         <v>2691.4307446411826</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="13">
@@ -8355,32 +8913,32 @@
         <f t="shared" si="0"/>
         <v>1.1162541665631174</v>
       </c>
-      <c r="F35" s="180">
+      <c r="F35" s="177">
         <f t="shared" si="1"/>
         <v>4.6909319237597966</v>
       </c>
-      <c r="G35" s="194"/>
-      <c r="H35" s="170">
+      <c r="G35" s="178"/>
+      <c r="H35" s="196">
         <f t="shared" si="2"/>
         <v>4.6675939539898472</v>
       </c>
-      <c r="I35" s="195"/>
-      <c r="J35" s="170">
+      <c r="I35" s="243"/>
+      <c r="J35" s="196">
         <f t="shared" si="3"/>
         <v>4.2432672308998614</v>
       </c>
-      <c r="K35" s="171"/>
-      <c r="L35" s="198">
+      <c r="K35" s="197"/>
+      <c r="L35" s="195">
         <f t="shared" si="4"/>
         <v>2.2332985425788743</v>
       </c>
-      <c r="M35" s="199"/>
+      <c r="M35" s="235"/>
       <c r="N35" s="32">
         <f t="shared" si="5"/>
         <v>2771.9972213342635</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="13">
@@ -8390,32 +8948,32 @@
         <f t="shared" si="0"/>
         <v>0.9849688495932919</v>
       </c>
-      <c r="F36" s="180">
+      <c r="F36" s="177">
         <f t="shared" si="1"/>
         <v>4.8144734148054074</v>
       </c>
-      <c r="G36" s="194"/>
-      <c r="H36" s="170">
+      <c r="G36" s="178"/>
+      <c r="H36" s="196">
         <f t="shared" si="2"/>
         <v>4.7905208107516488</v>
       </c>
-      <c r="I36" s="195"/>
-      <c r="J36" s="170">
+      <c r="I36" s="243"/>
+      <c r="J36" s="196">
         <f t="shared" si="3"/>
         <v>4.3550189188651354</v>
       </c>
-      <c r="K36" s="171"/>
-      <c r="L36" s="198">
+      <c r="K36" s="197"/>
+      <c r="L36" s="195">
         <f t="shared" si="4"/>
         <v>2.2921152204553343</v>
       </c>
-      <c r="M36" s="199"/>
+      <c r="M36" s="235"/>
       <c r="N36" s="32">
         <f t="shared" si="5"/>
         <v>2845.0011948439546</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="13">
@@ -8425,32 +8983,32 @@
         <f t="shared" si="0"/>
         <v>0.87200601488917528</v>
       </c>
-      <c r="F37" s="180">
+      <c r="F37" s="177">
         <f t="shared" si="1"/>
         <v>4.9261022927012821</v>
       </c>
-      <c r="G37" s="194"/>
-      <c r="H37" s="170">
+      <c r="G37" s="178"/>
+      <c r="H37" s="196">
         <f t="shared" si="2"/>
         <v>4.9015943210958035</v>
       </c>
-      <c r="I37" s="195"/>
-      <c r="J37" s="170">
+      <c r="I37" s="243"/>
+      <c r="J37" s="196">
         <f t="shared" si="3"/>
         <v>4.455994837359821</v>
       </c>
-      <c r="K37" s="171"/>
-      <c r="L37" s="198">
+      <c r="K37" s="197"/>
+      <c r="L37" s="195">
         <f t="shared" si="4"/>
         <v>2.3452604407156952</v>
       </c>
-      <c r="M37" s="199"/>
+      <c r="M37" s="235"/>
       <c r="N37" s="32">
         <f t="shared" si="5"/>
         <v>2910.9656864156022</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="13">
@@ -8460,32 +9018,32 @@
         <f t="shared" si="0"/>
         <v>0.77445777684075767</v>
       </c>
-      <c r="F38" s="180">
+      <c r="F38" s="177">
         <f t="shared" si="1"/>
         <v>5.0267488208641602</v>
       </c>
-      <c r="G38" s="194"/>
-      <c r="H38" s="170">
+      <c r="G38" s="178"/>
+      <c r="H38" s="196">
         <f t="shared" si="2"/>
         <v>5.0017401202628458</v>
       </c>
-      <c r="I38" s="195"/>
-      <c r="J38" s="170">
+      <c r="I38" s="243"/>
+      <c r="J38" s="196">
         <f t="shared" si="3"/>
         <v>4.5470364729662229</v>
       </c>
-      <c r="K38" s="171"/>
-      <c r="L38" s="198">
+      <c r="K38" s="197"/>
+      <c r="L38" s="195">
         <f t="shared" si="4"/>
         <v>2.393177091034854</v>
       </c>
-      <c r="M38" s="199"/>
+      <c r="M38" s="235"/>
       <c r="N38" s="32">
         <f t="shared" si="5"/>
         <v>2970.4404135996251</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D39" s="13">
         <v>115</v>
       </c>
@@ -8493,32 +9051,32 @@
         <f t="shared" si="0"/>
         <v>0.68992818874834783</v>
       </c>
-      <c r="F39" s="180">
+      <c r="F39" s="177">
         <f t="shared" si="1"/>
         <v>5.1173491435494967</v>
       </c>
-      <c r="G39" s="194"/>
-      <c r="H39" s="170">
+      <c r="G39" s="178"/>
+      <c r="H39" s="196">
         <f t="shared" si="2"/>
         <v>5.0918896950741264</v>
       </c>
-      <c r="I39" s="195"/>
-      <c r="J39" s="170">
+      <c r="I39" s="243"/>
+      <c r="J39" s="196">
         <f t="shared" si="3"/>
         <v>4.6289906318855696</v>
       </c>
-      <c r="K39" s="171"/>
-      <c r="L39" s="198">
+      <c r="K39" s="197"/>
+      <c r="L39" s="195">
         <f t="shared" si="4"/>
         <v>2.4363108588871416</v>
       </c>
-      <c r="M39" s="199"/>
+      <c r="M39" s="235"/>
       <c r="N39" s="32">
         <f t="shared" si="5"/>
         <v>3023.9785690914341</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D40" s="13">
         <v>120</v>
       </c>
@@ -8526,32 +9084,32 @@
         <f t="shared" si="0"/>
         <v>0.61643491771497372</v>
       </c>
-      <c r="F40" s="180">
+      <c r="F40" s="177">
         <f t="shared" si="1"/>
         <v>5.1988169286007029</v>
       </c>
-      <c r="G40" s="194"/>
-      <c r="H40" s="170">
+      <c r="G40" s="178"/>
+      <c r="H40" s="196">
         <f t="shared" si="2"/>
         <v>5.1729521677618937</v>
       </c>
-      <c r="I40" s="195"/>
-      <c r="J40" s="170">
+      <c r="I40" s="243"/>
+      <c r="J40" s="196">
         <f t="shared" si="3"/>
         <v>4.7026837888744488</v>
       </c>
-      <c r="K40" s="171"/>
-      <c r="L40" s="198">
+      <c r="K40" s="197"/>
+      <c r="L40" s="195">
         <f t="shared" si="4"/>
         <v>2.4750967309865519</v>
       </c>
-      <c r="M40" s="199"/>
+      <c r="M40" s="235"/>
       <c r="N40" s="32">
         <f t="shared" si="5"/>
         <v>3072.120063673005</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D41" s="13">
         <v>125</v>
       </c>
@@ -8559,32 +9117,32 @@
         <f t="shared" si="0"/>
         <v>0.55233127421944694</v>
       </c>
-      <c r="F41" s="180">
+      <c r="F41" s="177">
         <f t="shared" si="1"/>
         <v>5.2720240585116676</v>
       </c>
-      <c r="G41" s="194"/>
-      <c r="H41" s="170">
+      <c r="G41" s="178"/>
+      <c r="H41" s="196">
         <f t="shared" si="2"/>
         <v>5.245795083096187</v>
       </c>
-      <c r="I41" s="195"/>
-      <c r="J41" s="170">
+      <c r="I41" s="243"/>
+      <c r="J41" s="196">
         <f t="shared" si="3"/>
         <v>4.7689046209965333</v>
       </c>
-      <c r="K41" s="171"/>
-      <c r="L41" s="198">
+      <c r="K41" s="197"/>
+      <c r="L41" s="195">
         <f t="shared" si="4"/>
         <v>2.5099498005244913</v>
       </c>
-      <c r="M41" s="199"/>
+      <c r="M41" s="235"/>
       <c r="N41" s="32">
         <f t="shared" si="5"/>
         <v>3115.3801160449448</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D42" s="13">
         <v>130</v>
       </c>
@@ -8592,32 +9150,32 @@
         <f t="shared" si="0"/>
         <v>0.49624409633915206</v>
       </c>
-      <c r="F42" s="180">
+      <c r="F42" s="177">
         <f t="shared" si="1"/>
         <v>5.3377884931871984</v>
       </c>
-      <c r="G42" s="194"/>
-      <c r="H42" s="170">
+      <c r="G42" s="178"/>
+      <c r="H42" s="196">
         <f t="shared" si="2"/>
         <v>5.3112323315295509</v>
       </c>
-      <c r="I42" s="195"/>
-      <c r="J42" s="170">
+      <c r="I42" s="243"/>
+      <c r="J42" s="196">
         <f t="shared" si="3"/>
         <v>4.8283930286632284</v>
       </c>
-      <c r="K42" s="171"/>
-      <c r="L42" s="198">
+      <c r="K42" s="197"/>
+      <c r="L42" s="195">
         <f t="shared" si="4"/>
         <v>2.5412594887701201</v>
       </c>
-      <c r="M42" s="199"/>
+      <c r="M42" s="235"/>
       <c r="N42" s="32">
         <f t="shared" si="5"/>
         <v>3154.2420806067917</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D43" s="14">
         <v>135</v>
       </c>
@@ -8625,26 +9183,26 @@
         <f t="shared" si="0"/>
         <v>0.44702404336298512</v>
       </c>
-      <c r="F43" s="192">
+      <c r="F43" s="171">
         <f t="shared" si="1"/>
         <v>5.3968676053863689</v>
       </c>
-      <c r="G43" s="196"/>
-      <c r="H43" s="170">
+      <c r="G43" s="172"/>
+      <c r="H43" s="196">
         <f t="shared" si="2"/>
         <v>5.3700175177973817</v>
       </c>
-      <c r="I43" s="195"/>
-      <c r="J43" s="170">
+      <c r="I43" s="243"/>
+      <c r="J43" s="196">
         <f t="shared" si="3"/>
         <v>4.8818341070885287</v>
       </c>
-      <c r="K43" s="171"/>
-      <c r="L43" s="227">
+      <c r="K43" s="197"/>
+      <c r="L43" s="219">
         <f t="shared" si="4"/>
         <v>2.5693863721518571</v>
       </c>
-      <c r="M43" s="269"/>
+      <c r="M43" s="253"/>
       <c r="N43" s="32">
         <f t="shared" si="5"/>
         <v>3189.1535091921232</v>
@@ -8652,6 +9210,108 @@
     </row>
   </sheetData>
   <mergeCells count="118">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="J42:K42"/>
@@ -8668,108 +9328,6 @@
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="L41:M41"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8782,26 +9340,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55628BA8-DBF4-4E94-B64E-CC9A9E6B64C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.69921875" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" customWidth="1"/>
-    <col min="4" max="4" width="49.296875" customWidth="1"/>
+    <col min="1" max="2" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="46" t="s">
         <v>49</v>
       </c>
@@ -8809,102 +9367,102 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C5" s="270" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="277" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C6" s="271"/>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="278"/>
       <c r="D6" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C7" s="271"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="278"/>
       <c r="D7" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C8" s="271"/>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="278"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C9" s="271" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="278" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C10" s="271"/>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="278"/>
       <c r="D10" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="271"/>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="278"/>
       <c r="D11" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C12" s="271"/>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="278"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C13" s="271" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="278" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C14" s="271"/>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="278"/>
       <c r="D14" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C15" s="271"/>
-      <c r="D15" s="115" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="278"/>
+      <c r="D15" s="114" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C16" s="271"/>
-      <c r="D16" s="115" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="278"/>
+      <c r="D16" s="114" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="272"/>
+    <row r="17" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="279"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C18" s="271" t="s">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="278" t="s">
         <v>172</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C19" s="271"/>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="278"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C20" s="271"/>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="278"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C21" s="271"/>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="278"/>
       <c r="D21" s="11"/>
     </row>
   </sheetData>
@@ -8920,77 +9478,77 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" style="72" customWidth="1"/>
-    <col min="4" max="4" width="30.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="72" customWidth="1"/>
+    <col min="4" max="4" width="30.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="98" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="97" t="s">
         <v>115</v>
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="72"/>
       <c r="C4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="106" t="s">
+    <row r="5" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="106" t="s">
         <v>116</v>
       </c>
       <c r="H5" s="61" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="108" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="95">
+    <row r="6" spans="2:8" s="107" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="94">
         <v>1</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="E6" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="113" t="s">
         <v>129</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="H6" s="111"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C7" s="96">
+      <c r="H6" s="110"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="95">
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -9007,8 +9565,8 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C8" s="96">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="95">
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -9025,17 +9583,17 @@
       </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="C9" s="96">
+    <row r="9" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="C9" s="95">
         <v>4</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="92" t="s">
+      <c r="E9" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="91" t="s">
+      <c r="F9" s="90" t="s">
         <v>72</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -9045,17 +9603,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="C10" s="96">
+    <row r="10" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="C10" s="95">
         <v>5</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="91" t="s">
+      <c r="F10" s="90" t="s">
         <v>71</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -9065,17 +9623,17 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="C11" s="96">
+    <row r="11" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="C11" s="95">
         <v>6</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="140" t="s">
+      <c r="F11" s="139" t="s">
         <v>184</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -9085,17 +9643,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C12" s="96">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="95">
         <v>7</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="90" t="s">
         <v>74</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="140" t="s">
+      <c r="F12" s="139" t="s">
         <v>191</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -9105,17 +9663,17 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C13" s="96">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="95">
         <v>8</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="90" t="s">
         <v>76</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="140" t="s">
+      <c r="F13" s="139" t="s">
         <v>169</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -9125,17 +9683,17 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C14" s="96">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="95">
         <v>9</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="90" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="91" t="s">
+      <c r="F14" s="90" t="s">
         <v>106</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -9143,17 +9701,17 @@
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C15" s="96">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="95">
         <v>10</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="90" t="s">
         <v>107</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="91" t="s">
+      <c r="F15" s="90" t="s">
         <v>110</v>
       </c>
       <c r="G15" s="9" t="s">
@@ -9163,17 +9721,17 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="97">
+    <row r="16" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="96">
         <v>11</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="93" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="94" t="s">
+      <c r="F16" s="93" t="s">
         <v>111</v>
       </c>
       <c r="G16" s="9" t="s">
@@ -9183,35 +9741,35 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
       <c r="E17" s="55"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
       <c r="H17" s="55"/>
     </row>
-    <row r="19" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="98" t="s">
+    <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="97" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="99" t="s">
+    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="112" t="s">
+      <c r="D20" s="111" t="s">
         <v>122</v>
       </c>
       <c r="E20" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="113" t="s">
+      <c r="F20" s="112" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C21" s="95">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="94">
         <v>1</v>
       </c>
       <c r="D21" s="38" t="s">
@@ -9220,31 +9778,31 @@
       <c r="E21" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="102">
+      <c r="F21" s="101">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="97">
+    <row r="22" spans="2:8" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="96">
         <v>2</v>
       </c>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="94" t="s">
+      <c r="E22" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="103" t="s">
+      <c r="F22" s="102" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="98" t="s">
+    <row r="24" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="97" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="99" t="s">
+    <row r="25" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="98" t="s">
         <v>113</v>
       </c>
       <c r="D25" s="47" t="s">
@@ -9257,8 +9815,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C26" s="95">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="94">
         <v>1</v>
       </c>
       <c r="D26" s="38" t="s">
@@ -9271,8 +9829,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C27" s="96">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="95">
         <v>2</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -9285,8 +9843,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C28" s="96">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="95">
         <v>3</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -9299,59 +9857,59 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="C29" s="96">
+    <row r="29" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C29" s="95">
         <v>4</v>
       </c>
-      <c r="D29" s="91" t="s">
+      <c r="D29" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="91" t="s">
+      <c r="E29" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="109" t="s">
+      <c r="F29" s="108" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="C30" s="96">
+    <row r="30" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="C30" s="95">
         <v>5</v>
       </c>
-      <c r="D30" s="91" t="s">
+      <c r="D30" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="91" t="s">
+      <c r="E30" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="109" t="s">
+      <c r="F30" s="108" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="C31" s="96">
+    <row r="31" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="C31" s="95">
         <v>6</v>
       </c>
-      <c r="D31" s="91" t="s">
+      <c r="D31" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="91" t="s">
+      <c r="E31" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="109" t="s">
+      <c r="F31" s="108" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="97">
+    <row r="32" spans="2:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="96">
         <v>7</v>
       </c>
-      <c r="D32" s="94" t="s">
+      <c r="D32" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="94" t="s">
+      <c r="E32" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="110" t="s">
+      <c r="F32" s="109" t="s">
         <v>153</v>
       </c>
     </row>
@@ -9363,34 +9921,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>180</v>
       </c>
@@ -9400,4 +9958,795 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="285"/>
+    <col min="3" max="3" width="19" style="303" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="286" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" style="285" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="285" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="285" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="285" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="309" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="309" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="285"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="304" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="295" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="295" t="s">
+        <v>355</v>
+      </c>
+      <c r="F3" s="295" t="s">
+        <v>356</v>
+      </c>
+      <c r="G3" s="295" t="s">
+        <v>357</v>
+      </c>
+      <c r="H3" s="295" t="s">
+        <v>231</v>
+      </c>
+      <c r="I3" s="295" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="296" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="C4" s="305" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="291" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="297" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="284">
+        <v>8</v>
+      </c>
+      <c r="G4" s="284" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="298" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="284" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" s="299" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="306" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="288" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="292" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="283">
+        <v>9</v>
+      </c>
+      <c r="G5" s="283" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" s="282" t="s">
+        <v>242</v>
+      </c>
+      <c r="I5" s="283" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="300" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="306" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="288" t="s">
+        <v>353</v>
+      </c>
+      <c r="E6" s="288" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="283">
+        <v>10</v>
+      </c>
+      <c r="G6" s="283" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" s="282" t="s">
+        <v>247</v>
+      </c>
+      <c r="I6" s="283" t="s">
+        <v>249</v>
+      </c>
+      <c r="J6" s="300" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="306" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="288" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" s="288" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="283">
+        <v>11</v>
+      </c>
+      <c r="G7" s="283" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="282" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="283" t="s">
+        <v>254</v>
+      </c>
+      <c r="J7" s="300" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="306" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="288" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="288"/>
+      <c r="F8" s="283">
+        <v>14</v>
+      </c>
+      <c r="G8" s="283" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8" s="282" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8" s="283" t="s">
+        <v>258</v>
+      </c>
+      <c r="J8" s="300" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="306" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="288" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="288"/>
+      <c r="F9" s="283">
+        <v>15</v>
+      </c>
+      <c r="G9" s="283" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" s="282" t="s">
+        <v>247</v>
+      </c>
+      <c r="I9" s="283" t="s">
+        <v>262</v>
+      </c>
+      <c r="J9" s="300" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="306" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="288" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="288" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="283">
+        <v>16</v>
+      </c>
+      <c r="G10" s="283" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="282" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" s="283" t="s">
+        <v>266</v>
+      </c>
+      <c r="J10" s="300" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="306" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="288" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="288" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="283">
+        <v>22</v>
+      </c>
+      <c r="G11" s="283" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="282" t="s">
+        <v>247</v>
+      </c>
+      <c r="I11" s="283" t="s">
+        <v>271</v>
+      </c>
+      <c r="J11" s="300" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="306" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="288" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" s="293" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="283">
+        <v>26</v>
+      </c>
+      <c r="G12" s="283" t="s">
+        <v>276</v>
+      </c>
+      <c r="H12" s="282" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" s="283" t="s">
+        <v>277</v>
+      </c>
+      <c r="J12" s="300" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="306" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" s="288" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" s="293"/>
+      <c r="F13" s="283">
+        <v>27</v>
+      </c>
+      <c r="G13" s="283" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" s="282" t="s">
+        <v>247</v>
+      </c>
+      <c r="I13" s="283" t="s">
+        <v>277</v>
+      </c>
+      <c r="J13" s="300" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="307" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="287" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="293"/>
+      <c r="F14" s="283">
+        <v>28</v>
+      </c>
+      <c r="G14" s="283" t="s">
+        <v>285</v>
+      </c>
+      <c r="H14" s="283" t="s">
+        <v>284</v>
+      </c>
+      <c r="I14" s="283" t="s">
+        <v>277</v>
+      </c>
+      <c r="J14" s="300" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="307" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" s="287"/>
+      <c r="E15" s="293"/>
+      <c r="F15" s="283">
+        <v>29</v>
+      </c>
+      <c r="G15" s="283" t="s">
+        <v>289</v>
+      </c>
+      <c r="H15" s="283" t="s">
+        <v>284</v>
+      </c>
+      <c r="I15" s="290" t="s">
+        <v>290</v>
+      </c>
+      <c r="J15" s="300" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="307" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="287"/>
+      <c r="E16" s="293"/>
+      <c r="F16" s="283">
+        <v>30</v>
+      </c>
+      <c r="G16" s="283" t="s">
+        <v>292</v>
+      </c>
+      <c r="H16" s="283" t="s">
+        <v>284</v>
+      </c>
+      <c r="I16" s="290" t="s">
+        <v>293</v>
+      </c>
+      <c r="J16" s="300" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="307" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="287" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="287" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="283">
+        <v>33</v>
+      </c>
+      <c r="G17" s="283" t="s">
+        <v>295</v>
+      </c>
+      <c r="H17" s="283" t="s">
+        <v>284</v>
+      </c>
+      <c r="I17" s="283" t="s">
+        <v>296</v>
+      </c>
+      <c r="J17" s="300" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="307" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="287" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="287" t="s">
+        <v>303</v>
+      </c>
+      <c r="F18" s="283">
+        <v>34</v>
+      </c>
+      <c r="G18" s="283" t="s">
+        <v>300</v>
+      </c>
+      <c r="H18" s="283" t="s">
+        <v>299</v>
+      </c>
+      <c r="I18" s="283" t="s">
+        <v>301</v>
+      </c>
+      <c r="J18" s="300" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="307" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" s="287" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="287" t="s">
+        <v>307</v>
+      </c>
+      <c r="F19" s="283">
+        <v>35</v>
+      </c>
+      <c r="G19" s="283" t="s">
+        <v>304</v>
+      </c>
+      <c r="H19" s="283" t="s">
+        <v>299</v>
+      </c>
+      <c r="I19" s="283" t="s">
+        <v>305</v>
+      </c>
+      <c r="J19" s="300" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="307" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="287" t="s">
+        <v>311</v>
+      </c>
+      <c r="E20" s="287" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="283">
+        <v>37</v>
+      </c>
+      <c r="G20" s="283" t="s">
+        <v>308</v>
+      </c>
+      <c r="H20" s="283" t="s">
+        <v>284</v>
+      </c>
+      <c r="I20" s="290" t="s">
+        <v>309</v>
+      </c>
+      <c r="J20" s="300" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="307" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" s="287" t="s">
+        <v>315</v>
+      </c>
+      <c r="E21" s="287" t="s">
+        <v>316</v>
+      </c>
+      <c r="F21" s="283">
+        <v>38</v>
+      </c>
+      <c r="G21" s="283" t="s">
+        <v>313</v>
+      </c>
+      <c r="H21" s="283" t="s">
+        <v>284</v>
+      </c>
+      <c r="I21" s="283" t="s">
+        <v>277</v>
+      </c>
+      <c r="J21" s="300" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="307" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" s="287" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22" s="287" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" s="283">
+        <v>39</v>
+      </c>
+      <c r="G22" s="283" t="s">
+        <v>317</v>
+      </c>
+      <c r="H22" s="283" t="s">
+        <v>284</v>
+      </c>
+      <c r="I22" s="283" t="s">
+        <v>277</v>
+      </c>
+      <c r="J22" s="300" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="307" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" s="287" t="s">
+        <v>324</v>
+      </c>
+      <c r="E23" s="294" t="s">
+        <v>325</v>
+      </c>
+      <c r="F23" s="283">
+        <v>42</v>
+      </c>
+      <c r="G23" s="283" t="s">
+        <v>321</v>
+      </c>
+      <c r="H23" s="283" t="s">
+        <v>284</v>
+      </c>
+      <c r="I23" s="290" t="s">
+        <v>322</v>
+      </c>
+      <c r="J23" s="300" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="307" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" s="287" t="s">
+        <v>324</v>
+      </c>
+      <c r="E24" s="294"/>
+      <c r="F24" s="283">
+        <v>43</v>
+      </c>
+      <c r="G24" s="283" t="s">
+        <v>326</v>
+      </c>
+      <c r="H24" s="283" t="s">
+        <v>284</v>
+      </c>
+      <c r="I24" s="290" t="s">
+        <v>327</v>
+      </c>
+      <c r="J24" s="300" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="307" t="s">
+        <v>329</v>
+      </c>
+      <c r="D25" s="287" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" s="287" t="s">
+        <v>330</v>
+      </c>
+      <c r="F25" s="283">
+        <v>54</v>
+      </c>
+      <c r="G25" s="283" t="s">
+        <v>328</v>
+      </c>
+      <c r="H25" s="283" t="s">
+        <v>284</v>
+      </c>
+      <c r="I25" s="283" t="s">
+        <v>277</v>
+      </c>
+      <c r="J25" s="300" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="307" t="s">
+        <v>332</v>
+      </c>
+      <c r="D26" s="287" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="287" t="s">
+        <v>333</v>
+      </c>
+      <c r="F26" s="283">
+        <v>55</v>
+      </c>
+      <c r="G26" s="283" t="s">
+        <v>331</v>
+      </c>
+      <c r="H26" s="283" t="s">
+        <v>284</v>
+      </c>
+      <c r="I26" s="283" t="s">
+        <v>277</v>
+      </c>
+      <c r="J26" s="300" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="307" t="s">
+        <v>335</v>
+      </c>
+      <c r="D27" s="287" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="287" t="s">
+        <v>336</v>
+      </c>
+      <c r="F27" s="283">
+        <v>56</v>
+      </c>
+      <c r="G27" s="283" t="s">
+        <v>334</v>
+      </c>
+      <c r="H27" s="283" t="s">
+        <v>284</v>
+      </c>
+      <c r="I27" s="283" t="s">
+        <v>277</v>
+      </c>
+      <c r="J27" s="300" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="306" t="s">
+        <v>338</v>
+      </c>
+      <c r="D28" s="287" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" s="288" t="s">
+        <v>339</v>
+      </c>
+      <c r="F28" s="283">
+        <v>57</v>
+      </c>
+      <c r="G28" s="283" t="s">
+        <v>337</v>
+      </c>
+      <c r="H28" s="283" t="s">
+        <v>284</v>
+      </c>
+      <c r="I28" s="283" t="s">
+        <v>277</v>
+      </c>
+      <c r="J28" s="300" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="307" t="s">
+        <v>341</v>
+      </c>
+      <c r="D29" s="287" t="s">
+        <v>342</v>
+      </c>
+      <c r="E29" s="287" t="s">
+        <v>343</v>
+      </c>
+      <c r="F29" s="283">
+        <v>58</v>
+      </c>
+      <c r="G29" s="283" t="s">
+        <v>340</v>
+      </c>
+      <c r="H29" s="283" t="s">
+        <v>299</v>
+      </c>
+      <c r="I29" s="283" t="s">
+        <v>277</v>
+      </c>
+      <c r="J29" s="300" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="307" t="s">
+        <v>345</v>
+      </c>
+      <c r="D30" s="287"/>
+      <c r="E30" s="287" t="s">
+        <v>346</v>
+      </c>
+      <c r="F30" s="283">
+        <v>59</v>
+      </c>
+      <c r="G30" s="283" t="s">
+        <v>344</v>
+      </c>
+      <c r="H30" s="283" t="s">
+        <v>299</v>
+      </c>
+      <c r="I30" s="290" t="s">
+        <v>345</v>
+      </c>
+      <c r="J30" s="300" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="307" t="s">
+        <v>349</v>
+      </c>
+      <c r="D31" s="287"/>
+      <c r="E31" s="287" t="s">
+        <v>346</v>
+      </c>
+      <c r="F31" s="283">
+        <v>61</v>
+      </c>
+      <c r="G31" s="283" t="s">
+        <v>347</v>
+      </c>
+      <c r="H31" s="283" t="s">
+        <v>299</v>
+      </c>
+      <c r="I31" s="290" t="s">
+        <v>348</v>
+      </c>
+      <c r="J31" s="300" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="308" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="301" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="301" t="s">
+        <v>351</v>
+      </c>
+      <c r="F32" s="289">
+        <v>62</v>
+      </c>
+      <c r="G32" s="289" t="s">
+        <v>350</v>
+      </c>
+      <c r="H32" s="289" t="s">
+        <v>299</v>
+      </c>
+      <c r="I32" s="289" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" s="302" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E12:E16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>